--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,18 @@
     <t>['20', '80']</t>
   </si>
   <si>
+    <t>['55', '64']</t>
+  </si>
+  <si>
+    <t>['7', '15', '55', '83']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['53', '55', '85']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -716,6 +728,12 @@
   </si>
   <si>
     <t>['6', '80']</t>
+  </si>
+  <si>
+    <t>['45', '48']</t>
+  </si>
+  <si>
+    <t>['39', '87']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1530,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1599,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1703,7 +1721,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1894,7 +1912,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2175,7 +2193,7 @@
         <v>2.75</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2276,7 +2294,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2363,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT7">
         <v>0.67</v>
@@ -2745,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2849,7 +2867,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3040,7 +3058,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3127,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3512,7 +3530,7 @@
         <v>2.13</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3804,7 +3822,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3891,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -4273,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4377,7 +4395,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4655,10 +4673,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>0.99</v>
@@ -4846,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT20">
         <v>2.11</v>
@@ -4950,7 +4968,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5037,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU21">
         <v>0.95</v>
@@ -5231,7 +5249,7 @@
         <v>1.89</v>
       </c>
       <c r="AT22">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU22">
         <v>2.29</v>
@@ -5801,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT25">
         <v>2.38</v>
@@ -6096,7 +6114,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6287,7 +6305,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6374,10 +6392,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>1.06</v>
@@ -6568,7 +6586,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU29">
         <v>2.1</v>
@@ -6669,7 +6687,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6860,7 +6878,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6947,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
         <v>0.38</v>
@@ -7051,7 +7069,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7138,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>0.74</v>
@@ -7332,7 +7350,7 @@
         <v>1.89</v>
       </c>
       <c r="AT33">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.49</v>
@@ -7624,7 +7642,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7711,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>0.86</v>
@@ -7902,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT36">
         <v>0.5</v>
@@ -8096,7 +8114,7 @@
         <v>2.13</v>
       </c>
       <c r="AT37">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU37">
         <v>2.19</v>
@@ -8388,7 +8406,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8579,7 +8597,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8666,7 +8684,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
         <v>1.5</v>
@@ -8857,7 +8875,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
         <v>2.11</v>
@@ -9051,7 +9069,7 @@
         <v>2.75</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU42">
         <v>2.77</v>
@@ -9152,7 +9170,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9239,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
         <v>0.13</v>
@@ -9343,7 +9361,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9433,7 +9451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9534,7 +9552,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9621,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT45">
         <v>2.38</v>
@@ -9725,7 +9743,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9815,7 +9833,7 @@
         <v>1.25</v>
       </c>
       <c r="AT46">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -10003,10 +10021,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU47">
         <v>1.58</v>
@@ -10194,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT48">
         <v>0.44</v>
@@ -10489,7 +10507,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10579,7 +10597,7 @@
         <v>0.78</v>
       </c>
       <c r="AT50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.08</v>
@@ -10680,7 +10698,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10767,10 +10785,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11253,7 +11271,7 @@
         <v>110</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11340,7 +11358,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT54">
         <v>1.5</v>
@@ -11444,7 +11462,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11531,7 +11549,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT55">
         <v>1.56</v>
@@ -11826,7 +11844,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12017,7 +12035,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12104,10 +12122,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU58">
         <v>0.95</v>
@@ -12208,7 +12226,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12295,10 +12313,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU59">
         <v>1.5</v>
@@ -12399,7 +12417,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12489,7 +12507,7 @@
         <v>2.75</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>2.53</v>
@@ -12868,10 +12886,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT62">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13059,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
         <v>0.67</v>
@@ -13253,7 +13271,7 @@
         <v>1.89</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13826,7 +13844,7 @@
         <v>2.13</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13927,7 +13945,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14014,10 +14032,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT68">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU68">
         <v>1.94</v>
@@ -14118,7 +14136,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14309,7 +14327,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14500,7 +14518,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14691,7 +14709,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14778,7 +14796,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT72">
         <v>2.38</v>
@@ -14882,7 +14900,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14972,7 +14990,7 @@
         <v>1.89</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU73">
         <v>1.99</v>
@@ -15264,7 +15282,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15455,7 +15473,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15542,10 +15560,10 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU76">
         <v>1.09</v>
@@ -15646,7 +15664,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15733,10 +15751,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT77">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU77">
         <v>1.1</v>
@@ -16115,10 +16133,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -16219,7 +16237,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16306,10 +16324,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT80">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16497,10 +16515,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT81">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU81">
         <v>0.96</v>
@@ -16879,7 +16897,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT83">
         <v>0.38</v>
@@ -16983,7 +17001,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17264,7 +17282,7 @@
         <v>1.89</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17556,7 +17574,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17643,7 +17661,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>2.11</v>
@@ -17747,7 +17765,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17837,7 +17855,7 @@
         <v>1.89</v>
       </c>
       <c r="AT88">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -18219,7 +18237,7 @@
         <v>1.89</v>
       </c>
       <c r="AT90">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18407,7 +18425,7 @@
         <v>2.17</v>
       </c>
       <c r="AS91">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT91">
         <v>2.38</v>
@@ -18598,7 +18616,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT92">
         <v>1.56</v>
@@ -18792,7 +18810,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU93">
         <v>1.74</v>
@@ -18893,7 +18911,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -18980,7 +18998,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT94">
         <v>0.38</v>
@@ -19084,7 +19102,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19275,7 +19293,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19365,7 +19383,7 @@
         <v>0.78</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU96">
         <v>1.36</v>
@@ -19553,7 +19571,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>0.5</v>
@@ -19657,7 +19675,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19747,7 +19765,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19848,7 +19866,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -19935,10 +19953,10 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT99">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU99">
         <v>1.07</v>
@@ -20039,7 +20057,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20126,7 +20144,7 @@
         <v>1.6</v>
       </c>
       <c r="AS100">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT100">
         <v>1.5</v>
@@ -20230,7 +20248,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20320,7 +20338,7 @@
         <v>2.13</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU101">
         <v>1.83</v>
@@ -20508,7 +20526,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT102">
         <v>1.56</v>
@@ -20612,7 +20630,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20699,7 +20717,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>0.44</v>
@@ -20890,7 +20908,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT104">
         <v>0.67</v>
@@ -20994,7 +21012,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21275,7 +21293,7 @@
         <v>2.13</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU106">
         <v>1.85</v>
@@ -21466,7 +21484,7 @@
         <v>2.75</v>
       </c>
       <c r="AT107">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU107">
         <v>2.74</v>
@@ -21567,7 +21585,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21758,7 +21776,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21848,7 +21866,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.8</v>
@@ -22036,7 +22054,7 @@
         <v>0.17</v>
       </c>
       <c r="AS110">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT110">
         <v>0.38</v>
@@ -22140,7 +22158,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22227,7 +22245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT111">
         <v>1.5</v>
@@ -22421,7 +22439,7 @@
         <v>2.13</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU112">
         <v>2.15</v>
@@ -22522,7 +22540,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22713,7 +22731,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22803,7 +22821,7 @@
         <v>0.78</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -22991,7 +23009,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
         <v>0.13</v>
@@ -23095,7 +23113,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23185,7 +23203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU116">
         <v>1.44</v>
@@ -23286,7 +23304,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23373,10 +23391,10 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT117">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU117">
         <v>2.04</v>
@@ -23564,7 +23582,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT118">
         <v>0.44</v>
@@ -23668,7 +23686,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23758,7 +23776,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU119">
         <v>1.87</v>
@@ -23859,7 +23877,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -23949,7 +23967,7 @@
         <v>2.13</v>
       </c>
       <c r="AT120">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU120">
         <v>2.14</v>
@@ -24241,7 +24259,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24331,7 +24349,7 @@
         <v>1</v>
       </c>
       <c r="AT122">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU122">
         <v>1.76</v>
@@ -24519,10 +24537,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU123">
         <v>1.56</v>
@@ -24623,7 +24641,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24710,10 +24728,10 @@
         <v>0.71</v>
       </c>
       <c r="AS124">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT124">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -24814,7 +24832,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -24901,7 +24919,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT125">
         <v>0.13</v>
@@ -25196,7 +25214,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25283,7 +25301,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT127">
         <v>1.5</v>
@@ -25387,16 +25405,16 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>6</v>
       </c>
       <c r="R128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T128">
         <v>4</v>
@@ -25578,7 +25596,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26102,6 +26120,1343 @@
       </c>
       <c r="BK131">
         <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2447680</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44864.375</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" t="s">
+        <v>75</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>170</v>
+      </c>
+      <c r="P132" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132">
+        <v>8</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>2.05</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.45</v>
+      </c>
+      <c r="X132">
+        <v>2.5</v>
+      </c>
+      <c r="Y132">
+        <v>3.05</v>
+      </c>
+      <c r="Z132">
+        <v>1.32</v>
+      </c>
+      <c r="AA132">
+        <v>7.25</v>
+      </c>
+      <c r="AB132">
+        <v>1.06</v>
+      </c>
+      <c r="AC132">
+        <v>2.55</v>
+      </c>
+      <c r="AD132">
+        <v>3.1</v>
+      </c>
+      <c r="AE132">
+        <v>2.35</v>
+      </c>
+      <c r="AF132">
+        <v>1.07</v>
+      </c>
+      <c r="AG132">
+        <v>9.4</v>
+      </c>
+      <c r="AH132">
+        <v>1.37</v>
+      </c>
+      <c r="AI132">
+        <v>3.02</v>
+      </c>
+      <c r="AJ132">
+        <v>2.06</v>
+      </c>
+      <c r="AK132">
+        <v>1.68</v>
+      </c>
+      <c r="AL132">
+        <v>1.85</v>
+      </c>
+      <c r="AM132">
+        <v>1.85</v>
+      </c>
+      <c r="AN132">
+        <v>1.45</v>
+      </c>
+      <c r="AO132">
+        <v>1.25</v>
+      </c>
+      <c r="AP132">
+        <v>1.45</v>
+      </c>
+      <c r="AQ132">
+        <v>0.5</v>
+      </c>
+      <c r="AR132">
+        <v>0.29</v>
+      </c>
+      <c r="AS132">
+        <v>0.78</v>
+      </c>
+      <c r="AT132">
+        <v>0.25</v>
+      </c>
+      <c r="AU132">
+        <v>1.25</v>
+      </c>
+      <c r="AV132">
+        <v>1.09</v>
+      </c>
+      <c r="AW132">
+        <v>2.34</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>6</v>
+      </c>
+      <c r="BH132">
+        <v>7</v>
+      </c>
+      <c r="BI132">
+        <v>13</v>
+      </c>
+      <c r="BJ132">
+        <v>13</v>
+      </c>
+      <c r="BK132">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2447682</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>84</v>
+      </c>
+      <c r="P133" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>6</v>
+      </c>
+      <c r="T133">
+        <v>9.5</v>
+      </c>
+      <c r="U133">
+        <v>2.75</v>
+      </c>
+      <c r="V133">
+        <v>1.57</v>
+      </c>
+      <c r="W133">
+        <v>1.24</v>
+      </c>
+      <c r="X133">
+        <v>3.6</v>
+      </c>
+      <c r="Y133">
+        <v>2.14</v>
+      </c>
+      <c r="Z133">
+        <v>1.63</v>
+      </c>
+      <c r="AA133">
+        <v>4.7</v>
+      </c>
+      <c r="AB133">
+        <v>1.15</v>
+      </c>
+      <c r="AC133">
+        <v>12</v>
+      </c>
+      <c r="AD133">
+        <v>6.7</v>
+      </c>
+      <c r="AE133">
+        <v>1.13</v>
+      </c>
+      <c r="AF133">
+        <v>1.02</v>
+      </c>
+      <c r="AG133">
+        <v>21.5</v>
+      </c>
+      <c r="AH133">
+        <v>1.16</v>
+      </c>
+      <c r="AI133">
+        <v>5.05</v>
+      </c>
+      <c r="AJ133">
+        <v>1.44</v>
+      </c>
+      <c r="AK133">
+        <v>2.65</v>
+      </c>
+      <c r="AL133">
+        <v>2.1</v>
+      </c>
+      <c r="AM133">
+        <v>1.7</v>
+      </c>
+      <c r="AN133">
+        <v>4.1</v>
+      </c>
+      <c r="AO133">
+        <v>1.07</v>
+      </c>
+      <c r="AP133">
+        <v>1.02</v>
+      </c>
+      <c r="AQ133">
+        <v>1.88</v>
+      </c>
+      <c r="AR133">
+        <v>2.71</v>
+      </c>
+      <c r="AS133">
+        <v>1.67</v>
+      </c>
+      <c r="AT133">
+        <v>2.75</v>
+      </c>
+      <c r="AU133">
+        <v>1.46</v>
+      </c>
+      <c r="AV133">
+        <v>2.28</v>
+      </c>
+      <c r="AW133">
+        <v>3.74</v>
+      </c>
+      <c r="AX133">
+        <v>6.2</v>
+      </c>
+      <c r="AY133">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133">
+        <v>1.21</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>1.5</v>
+      </c>
+      <c r="BC133">
+        <v>1.85</v>
+      </c>
+      <c r="BD133">
+        <v>2.4</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>2</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>4</v>
+      </c>
+      <c r="BI133">
+        <v>8</v>
+      </c>
+      <c r="BJ133">
+        <v>6</v>
+      </c>
+      <c r="BK133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2447681</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44864.60416666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>84</v>
+      </c>
+      <c r="P134" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>12</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>2.36</v>
+      </c>
+      <c r="AD134">
+        <v>3.1</v>
+      </c>
+      <c r="AE134">
+        <v>2.68</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>2.05</v>
+      </c>
+      <c r="AK134">
+        <v>1.77</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
+      <c r="AQ134">
+        <v>1.38</v>
+      </c>
+      <c r="AR134">
+        <v>1.38</v>
+      </c>
+      <c r="AS134">
+        <v>1.33</v>
+      </c>
+      <c r="AT134">
+        <v>1.33</v>
+      </c>
+      <c r="AU134">
+        <v>1.08</v>
+      </c>
+      <c r="AV134">
+        <v>1.28</v>
+      </c>
+      <c r="AW134">
+        <v>2.36</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>3</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>1</v>
+      </c>
+      <c r="BI134">
+        <v>5</v>
+      </c>
+      <c r="BJ134">
+        <v>4</v>
+      </c>
+      <c r="BK134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2447675</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s">
+        <v>73</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>171</v>
+      </c>
+      <c r="P135" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>10</v>
+      </c>
+      <c r="T135">
+        <v>1.57</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>9</v>
+      </c>
+      <c r="W135">
+        <v>1.25</v>
+      </c>
+      <c r="X135">
+        <v>3.6</v>
+      </c>
+      <c r="Y135">
+        <v>2.2</v>
+      </c>
+      <c r="Z135">
+        <v>1.6</v>
+      </c>
+      <c r="AA135">
+        <v>4.6</v>
+      </c>
+      <c r="AB135">
+        <v>1.16</v>
+      </c>
+      <c r="AC135">
+        <v>1.15</v>
+      </c>
+      <c r="AD135">
+        <v>6</v>
+      </c>
+      <c r="AE135">
+        <v>11</v>
+      </c>
+      <c r="AF135">
+        <v>1.02</v>
+      </c>
+      <c r="AG135">
+        <v>21.5</v>
+      </c>
+      <c r="AH135">
+        <v>1.16</v>
+      </c>
+      <c r="AI135">
+        <v>5.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.49</v>
+      </c>
+      <c r="AK135">
+        <v>2.45</v>
+      </c>
+      <c r="AL135">
+        <v>2.05</v>
+      </c>
+      <c r="AM135">
+        <v>1.7</v>
+      </c>
+      <c r="AN135">
+        <v>1.01</v>
+      </c>
+      <c r="AO135">
+        <v>1.09</v>
+      </c>
+      <c r="AP135">
+        <v>3.6</v>
+      </c>
+      <c r="AQ135">
+        <v>2.14</v>
+      </c>
+      <c r="AR135">
+        <v>1</v>
+      </c>
+      <c r="AS135">
+        <v>2.25</v>
+      </c>
+      <c r="AT135">
+        <v>0.89</v>
+      </c>
+      <c r="AU135">
+        <v>2.25</v>
+      </c>
+      <c r="AV135">
+        <v>1.44</v>
+      </c>
+      <c r="AW135">
+        <v>3.69</v>
+      </c>
+      <c r="AX135">
+        <v>1.17</v>
+      </c>
+      <c r="AY135">
+        <v>9.5</v>
+      </c>
+      <c r="AZ135">
+        <v>7.3</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1.57</v>
+      </c>
+      <c r="BC135">
+        <v>1.98</v>
+      </c>
+      <c r="BD135">
+        <v>2.55</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>2</v>
+      </c>
+      <c r="BH135">
+        <v>5</v>
+      </c>
+      <c r="BI135">
+        <v>2</v>
+      </c>
+      <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2447687</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44869.5</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" t="s">
+        <v>65</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>172</v>
+      </c>
+      <c r="P136" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q136">
+        <v>6</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136">
+        <v>3.4</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>3.1</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>2.63</v>
+      </c>
+      <c r="Y136">
+        <v>3.25</v>
+      </c>
+      <c r="Z136">
+        <v>1.33</v>
+      </c>
+      <c r="AA136">
+        <v>10</v>
+      </c>
+      <c r="AB136">
+        <v>1.06</v>
+      </c>
+      <c r="AC136">
+        <v>2.53</v>
+      </c>
+      <c r="AD136">
+        <v>2.92</v>
+      </c>
+      <c r="AE136">
+        <v>2.43</v>
+      </c>
+      <c r="AF136">
+        <v>1.08</v>
+      </c>
+      <c r="AG136">
+        <v>7</v>
+      </c>
+      <c r="AH136">
+        <v>1.36</v>
+      </c>
+      <c r="AI136">
+        <v>3</v>
+      </c>
+      <c r="AJ136">
+        <v>2.1</v>
+      </c>
+      <c r="AK136">
+        <v>1.67</v>
+      </c>
+      <c r="AL136">
+        <v>1.91</v>
+      </c>
+      <c r="AM136">
+        <v>1.8</v>
+      </c>
+      <c r="AN136">
+        <v>1.52</v>
+      </c>
+      <c r="AO136">
+        <v>1.28</v>
+      </c>
+      <c r="AP136">
+        <v>1.38</v>
+      </c>
+      <c r="AQ136">
+        <v>0.88</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>0.78</v>
+      </c>
+      <c r="AT136">
+        <v>1.22</v>
+      </c>
+      <c r="AU136">
+        <v>1.11</v>
+      </c>
+      <c r="AV136">
+        <v>1.35</v>
+      </c>
+      <c r="AW136">
+        <v>2.46</v>
+      </c>
+      <c r="AX136">
+        <v>2.13</v>
+      </c>
+      <c r="AY136">
+        <v>7</v>
+      </c>
+      <c r="AZ136">
+        <v>2</v>
+      </c>
+      <c r="BA136">
+        <v>1.45</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>2.5</v>
+      </c>
+      <c r="BD136">
+        <v>3.4</v>
+      </c>
+      <c r="BE136">
+        <v>5</v>
+      </c>
+      <c r="BF136">
+        <v>4</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>8</v>
+      </c>
+      <c r="BI136">
+        <v>1</v>
+      </c>
+      <c r="BJ136">
+        <v>12</v>
+      </c>
+      <c r="BK136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2447689</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44869.58333333334</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>173</v>
+      </c>
+      <c r="P137" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>2.1</v>
+      </c>
+      <c r="U137">
+        <v>2.25</v>
+      </c>
+      <c r="V137">
+        <v>5.5</v>
+      </c>
+      <c r="W137">
+        <v>1.34</v>
+      </c>
+      <c r="X137">
+        <v>3</v>
+      </c>
+      <c r="Y137">
+        <v>2.55</v>
+      </c>
+      <c r="Z137">
+        <v>1.44</v>
+      </c>
+      <c r="AA137">
+        <v>6.3</v>
+      </c>
+      <c r="AB137">
+        <v>1.09</v>
+      </c>
+      <c r="AC137">
+        <v>1.53</v>
+      </c>
+      <c r="AD137">
+        <v>3.5</v>
+      </c>
+      <c r="AE137">
+        <v>5.5</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>12.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.29</v>
+      </c>
+      <c r="AI137">
+        <v>3.55</v>
+      </c>
+      <c r="AJ137">
+        <v>1.8</v>
+      </c>
+      <c r="AK137">
+        <v>1.9</v>
+      </c>
+      <c r="AL137">
+        <v>1.88</v>
+      </c>
+      <c r="AM137">
+        <v>1.88</v>
+      </c>
+      <c r="AN137">
+        <v>1.11</v>
+      </c>
+      <c r="AO137">
+        <v>1.22</v>
+      </c>
+      <c r="AP137">
+        <v>2.25</v>
+      </c>
+      <c r="AQ137">
+        <v>1.75</v>
+      </c>
+      <c r="AR137">
+        <v>0.75</v>
+      </c>
+      <c r="AS137">
+        <v>1.89</v>
+      </c>
+      <c r="AT137">
+        <v>0.67</v>
+      </c>
+      <c r="AU137">
+        <v>1.58</v>
+      </c>
+      <c r="AV137">
+        <v>1.4</v>
+      </c>
+      <c r="AW137">
+        <v>2.98</v>
+      </c>
+      <c r="AX137">
+        <v>1.46</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>3.46</v>
+      </c>
+      <c r="BA137">
+        <v>1.42</v>
+      </c>
+      <c r="BB137">
+        <v>1.8</v>
+      </c>
+      <c r="BC137">
+        <v>2.33</v>
+      </c>
+      <c r="BD137">
+        <v>3.2</v>
+      </c>
+      <c r="BE137">
+        <v>4.7</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>4</v>
+      </c>
+      <c r="BH137">
+        <v>12</v>
+      </c>
+      <c r="BI137">
+        <v>2</v>
+      </c>
+      <c r="BJ137">
+        <v>18</v>
+      </c>
+      <c r="BK137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2447688</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s">
+        <v>67</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>84</v>
+      </c>
+      <c r="P138" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>3</v>
+      </c>
+      <c r="S138">
+        <v>7</v>
+      </c>
+      <c r="T138">
+        <v>4.5</v>
+      </c>
+      <c r="U138">
+        <v>2.1</v>
+      </c>
+      <c r="V138">
+        <v>2.38</v>
+      </c>
+      <c r="W138">
+        <v>1.38</v>
+      </c>
+      <c r="X138">
+        <v>2.8</v>
+      </c>
+      <c r="Y138">
+        <v>2.75</v>
+      </c>
+      <c r="Z138">
+        <v>1.39</v>
+      </c>
+      <c r="AA138">
+        <v>7</v>
+      </c>
+      <c r="AB138">
+        <v>1.06</v>
+      </c>
+      <c r="AC138">
+        <v>4</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>1.73</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>10.75</v>
+      </c>
+      <c r="AH138">
+        <v>1.33</v>
+      </c>
+      <c r="AI138">
+        <v>3.25</v>
+      </c>
+      <c r="AJ138">
+        <v>1.95</v>
+      </c>
+      <c r="AK138">
+        <v>1.75</v>
+      </c>
+      <c r="AL138">
+        <v>1.9</v>
+      </c>
+      <c r="AM138">
+        <v>1.86</v>
+      </c>
+      <c r="AN138">
+        <v>1.93</v>
+      </c>
+      <c r="AO138">
+        <v>1.24</v>
+      </c>
+      <c r="AP138">
+        <v>1.19</v>
+      </c>
+      <c r="AQ138">
+        <v>1.75</v>
+      </c>
+      <c r="AR138">
+        <v>1.75</v>
+      </c>
+      <c r="AS138">
+        <v>1.67</v>
+      </c>
+      <c r="AT138">
+        <v>1.67</v>
+      </c>
+      <c r="AU138">
+        <v>1.52</v>
+      </c>
+      <c r="AV138">
+        <v>1.92</v>
+      </c>
+      <c r="AW138">
+        <v>3.44</v>
+      </c>
+      <c r="AX138">
+        <v>3.2</v>
+      </c>
+      <c r="AY138">
+        <v>7.9</v>
+      </c>
+      <c r="AZ138">
+        <v>1.51</v>
+      </c>
+      <c r="BA138">
+        <v>1.36</v>
+      </c>
+      <c r="BB138">
+        <v>1.83</v>
+      </c>
+      <c r="BC138">
+        <v>2.23</v>
+      </c>
+      <c r="BD138">
+        <v>3.05</v>
+      </c>
+      <c r="BE138">
+        <v>4.3</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>4</v>
+      </c>
+      <c r="BI138">
+        <v>8</v>
+      </c>
+      <c r="BJ138">
+        <v>10</v>
+      </c>
+      <c r="BK138">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,42 @@
     <t>['53', '55', '85']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['13', '77']</t>
+  </si>
+  <si>
+    <t>['1', '80']</t>
+  </si>
+  <si>
+    <t>['79', '86']</t>
+  </si>
+  <si>
+    <t>['31', '62']</t>
+  </si>
+  <si>
+    <t>['1', '67']</t>
+  </si>
+  <si>
+    <t>['48', '55']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['30', '36']</t>
+  </si>
+  <si>
+    <t>['43', '81']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -605,9 +641,6 @@
   </si>
   <si>
     <t>['20', '55', '74']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['13', '21']</t>
@@ -724,9 +757,6 @@
     <t>['19', '61']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['6', '80']</t>
   </si>
   <si>
@@ -734,6 +764,24 @@
   </si>
   <si>
     <t>['39', '87']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['42', '70', '85']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['37', '84']</t>
+  </si>
+  <si>
+    <t>['35', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1530,7 +1578,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1617,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1721,7 +1769,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1808,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>2.11</v>
@@ -1912,7 +1960,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1999,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2190,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2294,7 +2342,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2381,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2572,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2766,7 +2814,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2867,7 +2915,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2957,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3058,7 +3106,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3336,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT12">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3527,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>0.67</v>
@@ -3718,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3822,7 +3870,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3912,7 +3960,7 @@
         <v>0.78</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4100,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT16">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4395,7 +4443,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4482,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>1</v>
@@ -4673,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU19">
         <v>0.99</v>
@@ -4864,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT20">
         <v>2.11</v>
@@ -4968,7 +5016,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5055,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU21">
         <v>0.95</v>
@@ -5246,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU22">
         <v>2.29</v>
@@ -5437,10 +5485,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5628,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -5822,7 +5870,7 @@
         <v>1.89</v>
       </c>
       <c r="AT25">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -6010,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT26">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU26">
         <v>2.62</v>
@@ -6114,7 +6162,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6201,10 +6249,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU27">
         <v>1.94</v>
@@ -6305,7 +6353,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6583,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT29">
         <v>1.22</v>
@@ -6687,7 +6735,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6878,7 +6926,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6968,7 +7016,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7069,7 +7117,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7347,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>1.49</v>
@@ -7538,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU34">
         <v>1.75</v>
@@ -7642,7 +7690,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7729,10 +7777,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>0.86</v>
@@ -7920,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT36">
         <v>0.5</v>
@@ -8111,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>2.19</v>
@@ -8302,10 +8350,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8406,7 +8454,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8496,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8597,7 +8645,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8687,7 +8735,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU40">
         <v>1.64</v>
@@ -9066,7 +9114,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT42">
         <v>1.22</v>
@@ -9170,7 +9218,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9257,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU43">
         <v>0.95</v>
@@ -9361,7 +9409,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9448,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT44">
         <v>0.67</v>
@@ -9552,7 +9600,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9642,7 +9690,7 @@
         <v>0.78</v>
       </c>
       <c r="AT45">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU45">
         <v>0.7</v>
@@ -9743,7 +9791,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9830,7 +9878,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT46">
         <v>1.67</v>
@@ -10024,7 +10072,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU47">
         <v>1.58</v>
@@ -10215,7 +10263,7 @@
         <v>1.89</v>
       </c>
       <c r="AT48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48">
         <v>1.54</v>
@@ -10403,10 +10451,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT49">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10507,7 +10555,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10594,10 +10642,10 @@
         <v>0.67</v>
       </c>
       <c r="AS50">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU50">
         <v>1.08</v>
@@ -10698,7 +10746,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10785,10 +10833,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT51">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -10976,10 +11024,10 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU52">
         <v>1.68</v>
@@ -11167,7 +11215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>0.5</v>
@@ -11271,7 +11319,7 @@
         <v>110</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11358,10 +11406,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU54">
         <v>1.12</v>
@@ -11462,7 +11510,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11552,7 +11600,7 @@
         <v>0.78</v>
       </c>
       <c r="AT55">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU55">
         <v>0.8</v>
@@ -11740,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT56">
         <v>2.11</v>
@@ -11844,7 +11892,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11934,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="AT57">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU57">
         <v>1.65</v>
@@ -12035,7 +12083,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12122,7 +12170,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>1.22</v>
@@ -12226,7 +12274,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12417,7 +12465,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12504,7 +12552,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12695,10 +12743,10 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT61">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU61">
         <v>1.31</v>
@@ -12889,7 +12937,7 @@
         <v>1.89</v>
       </c>
       <c r="AT62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13080,7 +13128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU63">
         <v>1.35</v>
@@ -13268,10 +13316,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13459,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU65">
         <v>1.44</v>
@@ -13650,7 +13698,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>0.5</v>
@@ -13841,10 +13889,10 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13945,7 +13993,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14032,10 +14080,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT68">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU68">
         <v>1.94</v>
@@ -14136,7 +14184,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14223,10 +14271,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU69">
         <v>2.05</v>
@@ -14327,7 +14375,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14417,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14518,7 +14566,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14605,10 +14653,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT71">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU71">
         <v>1.87</v>
@@ -14709,7 +14757,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14799,7 +14847,7 @@
         <v>1.67</v>
       </c>
       <c r="AT72">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -14900,7 +14948,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14987,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>1.22</v>
@@ -15178,7 +15226,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT74">
         <v>2.11</v>
@@ -15282,7 +15330,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15369,10 +15417,10 @@
         <v>1.8</v>
       </c>
       <c r="AS75">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT75">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU75">
         <v>1.33</v>
@@ -15473,7 +15521,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15560,7 +15608,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>0.67</v>
@@ -15664,7 +15712,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15751,7 +15799,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT77">
         <v>1.67</v>
@@ -15942,7 +15990,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT78">
         <v>0.5</v>
@@ -16136,7 +16184,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -16237,7 +16285,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16327,7 +16375,7 @@
         <v>1.89</v>
       </c>
       <c r="AT80">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16518,7 +16566,7 @@
         <v>0.78</v>
       </c>
       <c r="AT81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>0.96</v>
@@ -16706,10 +16754,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -16897,10 +16945,10 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT83">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU83">
         <v>1.58</v>
@@ -17001,7 +17049,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17088,10 +17136,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT84">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU84">
         <v>1.37</v>
@@ -17279,10 +17327,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17470,10 +17518,10 @@
         <v>0.83</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU86">
         <v>1.33</v>
@@ -17574,7 +17622,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17661,7 +17709,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
         <v>2.11</v>
@@ -17765,7 +17813,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17852,7 +17900,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>1.67</v>
@@ -18043,10 +18091,10 @@
         <v>0.6</v>
       </c>
       <c r="AS89">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT89">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU89">
         <v>2.78</v>
@@ -18234,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>0.67</v>
@@ -18425,10 +18473,10 @@
         <v>2.17</v>
       </c>
       <c r="AS91">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT91">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU91">
         <v>1.15</v>
@@ -18619,7 +18667,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18810,7 +18858,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU93">
         <v>1.74</v>
@@ -18911,7 +18959,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19001,7 +19049,7 @@
         <v>1.89</v>
       </c>
       <c r="AT94">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -19102,7 +19150,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19189,10 +19237,10 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU95">
         <v>2.07</v>
@@ -19293,7 +19341,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19380,7 +19428,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT96">
         <v>1.22</v>
@@ -19675,7 +19723,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19762,10 +19810,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT98">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19866,7 +19914,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -19956,7 +20004,7 @@
         <v>0.78</v>
       </c>
       <c r="AT99">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU99">
         <v>1.07</v>
@@ -20057,7 +20105,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20144,10 +20192,10 @@
         <v>1.6</v>
       </c>
       <c r="AS100">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20248,7 +20296,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20335,10 +20383,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU101">
         <v>1.83</v>
@@ -20526,10 +20574,10 @@
         <v>1.71</v>
       </c>
       <c r="AS102">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU102">
         <v>1.21</v>
@@ -20630,7 +20678,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20717,10 +20765,10 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU103">
         <v>1.11</v>
@@ -20911,7 +20959,7 @@
         <v>1.67</v>
       </c>
       <c r="AT104">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21012,7 +21060,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21099,7 +21147,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>2.11</v>
@@ -21290,7 +21338,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -21481,10 +21529,10 @@
         <v>0.33</v>
       </c>
       <c r="AS107">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT107">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU107">
         <v>2.74</v>
@@ -21585,7 +21633,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21672,10 +21720,10 @@
         <v>2.29</v>
       </c>
       <c r="AS108">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT108">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -21776,7 +21824,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21866,7 +21914,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU109">
         <v>1.8</v>
@@ -22057,7 +22105,7 @@
         <v>0.78</v>
       </c>
       <c r="AT110">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU110">
         <v>1.06</v>
@@ -22158,7 +22206,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22248,7 +22296,7 @@
         <v>1.89</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU111">
         <v>1.62</v>
@@ -22436,7 +22484,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>1.22</v>
@@ -22540,7 +22588,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22627,7 +22675,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT113">
         <v>0.5</v>
@@ -22731,7 +22779,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22818,10 +22866,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT114">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -23012,7 +23060,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23113,7 +23161,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23200,10 +23248,10 @@
         <v>2.5</v>
       </c>
       <c r="AS116">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT116">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU116">
         <v>1.44</v>
@@ -23304,7 +23352,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23391,7 +23439,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT117">
         <v>1.67</v>
@@ -23582,10 +23630,10 @@
         <v>0.43</v>
       </c>
       <c r="AS118">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT118">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU118">
         <v>2.05</v>
@@ -23686,7 +23734,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23773,10 +23821,10 @@
         <v>2.6</v>
       </c>
       <c r="AS119">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU119">
         <v>1.87</v>
@@ -23877,7 +23925,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -23964,7 +24012,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT120">
         <v>1.67</v>
@@ -24155,7 +24203,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT121">
         <v>0.5</v>
@@ -24259,7 +24307,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24349,7 +24397,7 @@
         <v>1</v>
       </c>
       <c r="AT122">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU122">
         <v>1.76</v>
@@ -24641,7 +24689,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24728,7 +24776,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT124">
         <v>0.67</v>
@@ -24832,7 +24880,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -24922,7 +24970,7 @@
         <v>0.78</v>
       </c>
       <c r="AT125">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU125">
         <v>1.07</v>
@@ -25110,10 +25158,10 @@
         <v>0.29</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25214,7 +25262,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25304,7 +25352,7 @@
         <v>1.67</v>
       </c>
       <c r="AT127">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU127">
         <v>1.5</v>
@@ -25405,7 +25453,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25492,7 +25540,7 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT128">
         <v>2.11</v>
@@ -25596,7 +25644,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25683,10 +25731,10 @@
         <v>1.63</v>
       </c>
       <c r="AS129">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT129">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU129">
         <v>1.79</v>
@@ -25874,10 +25922,10 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT130">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26065,10 +26113,10 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26256,10 +26304,10 @@
         <v>0.29</v>
       </c>
       <c r="AS132">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.25</v>
@@ -26360,7 +26408,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26450,7 +26498,7 @@
         <v>1.67</v>
       </c>
       <c r="AT133">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26638,10 +26686,10 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU134">
         <v>1.08</v>
@@ -26829,10 +26877,10 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AT135">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU135">
         <v>2.25</v>
@@ -26933,7 +26981,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27127,13 +27175,13 @@
         <v>110</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R137">
         <v>0</v>
       </c>
       <c r="S137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T137">
         <v>2.1</v>
@@ -27456,6 +27504,2871 @@
         <v>10</v>
       </c>
       <c r="BK138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2447685</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44870.375</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>174</v>
+      </c>
+      <c r="P139" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>2.05</v>
+      </c>
+      <c r="U139">
+        <v>2.2</v>
+      </c>
+      <c r="V139">
+        <v>6</v>
+      </c>
+      <c r="W139">
+        <v>1.38</v>
+      </c>
+      <c r="X139">
+        <v>2.8</v>
+      </c>
+      <c r="Y139">
+        <v>2.75</v>
+      </c>
+      <c r="Z139">
+        <v>1.39</v>
+      </c>
+      <c r="AA139">
+        <v>7</v>
+      </c>
+      <c r="AB139">
+        <v>1.06</v>
+      </c>
+      <c r="AC139">
+        <v>1.29</v>
+      </c>
+      <c r="AD139">
+        <v>5.4</v>
+      </c>
+      <c r="AE139">
+        <v>6.4</v>
+      </c>
+      <c r="AF139">
+        <v>1.05</v>
+      </c>
+      <c r="AG139">
+        <v>11.25</v>
+      </c>
+      <c r="AH139">
+        <v>1.32</v>
+      </c>
+      <c r="AI139">
+        <v>3.3</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>1.8</v>
+      </c>
+      <c r="AL139">
+        <v>2.22</v>
+      </c>
+      <c r="AM139">
+        <v>1.63</v>
+      </c>
+      <c r="AN139">
+        <v>1.05</v>
+      </c>
+      <c r="AO139">
+        <v>1.21</v>
+      </c>
+      <c r="AP139">
+        <v>2.6</v>
+      </c>
+      <c r="AQ139">
+        <v>1.25</v>
+      </c>
+      <c r="AR139">
+        <v>0.13</v>
+      </c>
+      <c r="AS139">
+        <v>1.44</v>
+      </c>
+      <c r="AT139">
+        <v>0.11</v>
+      </c>
+      <c r="AU139">
+        <v>1.44</v>
+      </c>
+      <c r="AV139">
+        <v>1.23</v>
+      </c>
+      <c r="AW139">
+        <v>2.67</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>5</v>
+      </c>
+      <c r="BG139">
+        <v>2</v>
+      </c>
+      <c r="BH139">
+        <v>5</v>
+      </c>
+      <c r="BI139">
+        <v>2</v>
+      </c>
+      <c r="BJ139">
+        <v>10</v>
+      </c>
+      <c r="BK139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2447683</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>83</v>
+      </c>
+      <c r="P140" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q140">
+        <v>12</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>12</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>2.05</v>
+      </c>
+      <c r="V140">
+        <v>3.5</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>2.75</v>
+      </c>
+      <c r="Y140">
+        <v>2.85</v>
+      </c>
+      <c r="Z140">
+        <v>1.37</v>
+      </c>
+      <c r="AA140">
+        <v>7.3</v>
+      </c>
+      <c r="AB140">
+        <v>1.06</v>
+      </c>
+      <c r="AC140">
+        <v>2.25</v>
+      </c>
+      <c r="AD140">
+        <v>3.2</v>
+      </c>
+      <c r="AE140">
+        <v>2.75</v>
+      </c>
+      <c r="AF140">
+        <v>1.06</v>
+      </c>
+      <c r="AG140">
+        <v>10.5</v>
+      </c>
+      <c r="AH140">
+        <v>1.33</v>
+      </c>
+      <c r="AI140">
+        <v>3.25</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.8</v>
+      </c>
+      <c r="AL140">
+        <v>1.82</v>
+      </c>
+      <c r="AM140">
+        <v>1.94</v>
+      </c>
+      <c r="AN140">
+        <v>1.37</v>
+      </c>
+      <c r="AO140">
+        <v>1.29</v>
+      </c>
+      <c r="AP140">
+        <v>1.54</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
+        <v>0.5</v>
+      </c>
+      <c r="AS140">
+        <v>1</v>
+      </c>
+      <c r="AT140">
+        <v>0.5</v>
+      </c>
+      <c r="AU140">
+        <v>1.67</v>
+      </c>
+      <c r="AV140">
+        <v>1.32</v>
+      </c>
+      <c r="AW140">
+        <v>2.99</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>1.98</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>5</v>
+      </c>
+      <c r="BG140">
+        <v>4</v>
+      </c>
+      <c r="BH140">
+        <v>7</v>
+      </c>
+      <c r="BI140">
+        <v>3</v>
+      </c>
+      <c r="BJ140">
+        <v>12</v>
+      </c>
+      <c r="BK140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2447686</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>175</v>
+      </c>
+      <c r="P141" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <v>3.4</v>
+      </c>
+      <c r="U141">
+        <v>2.1</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>2.75</v>
+      </c>
+      <c r="Y141">
+        <v>3</v>
+      </c>
+      <c r="Z141">
+        <v>1.36</v>
+      </c>
+      <c r="AA141">
+        <v>8</v>
+      </c>
+      <c r="AB141">
+        <v>1.08</v>
+      </c>
+      <c r="AC141">
+        <v>3</v>
+      </c>
+      <c r="AD141">
+        <v>3.25</v>
+      </c>
+      <c r="AE141">
+        <v>2.1</v>
+      </c>
+      <c r="AF141">
+        <v>1.06</v>
+      </c>
+      <c r="AG141">
+        <v>10.75</v>
+      </c>
+      <c r="AH141">
+        <v>1.33</v>
+      </c>
+      <c r="AI141">
+        <v>3.28</v>
+      </c>
+      <c r="AJ141">
+        <v>2</v>
+      </c>
+      <c r="AK141">
+        <v>1.8</v>
+      </c>
+      <c r="AL141">
+        <v>1.79</v>
+      </c>
+      <c r="AM141">
+        <v>1.98</v>
+      </c>
+      <c r="AN141">
+        <v>1.61</v>
+      </c>
+      <c r="AO141">
+        <v>1.27</v>
+      </c>
+      <c r="AP141">
+        <v>1.32</v>
+      </c>
+      <c r="AQ141">
+        <v>1.5</v>
+      </c>
+      <c r="AR141">
+        <v>1.5</v>
+      </c>
+      <c r="AS141">
+        <v>1.44</v>
+      </c>
+      <c r="AT141">
+        <v>1.44</v>
+      </c>
+      <c r="AU141">
+        <v>1.83</v>
+      </c>
+      <c r="AV141">
+        <v>1.29</v>
+      </c>
+      <c r="AW141">
+        <v>3.12</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>4</v>
+      </c>
+      <c r="BG141">
+        <v>8</v>
+      </c>
+      <c r="BH141">
+        <v>2</v>
+      </c>
+      <c r="BI141">
+        <v>5</v>
+      </c>
+      <c r="BJ141">
+        <v>6</v>
+      </c>
+      <c r="BK141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2447684</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44871.47916666666</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>69</v>
+      </c>
+      <c r="H142" t="s">
+        <v>66</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>176</v>
+      </c>
+      <c r="P142" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>10</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>1.09</v>
+      </c>
+      <c r="AD142">
+        <v>7.27</v>
+      </c>
+      <c r="AE142">
+        <v>16.47</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>1.36</v>
+      </c>
+      <c r="AK142">
+        <v>2.9</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
+      <c r="AQ142">
+        <v>2.75</v>
+      </c>
+      <c r="AR142">
+        <v>0.38</v>
+      </c>
+      <c r="AS142">
+        <v>2.78</v>
+      </c>
+      <c r="AT142">
+        <v>0.33</v>
+      </c>
+      <c r="AU142">
+        <v>2.72</v>
+      </c>
+      <c r="AV142">
+        <v>0.92</v>
+      </c>
+      <c r="AW142">
+        <v>3.64</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>9</v>
+      </c>
+      <c r="BG142">
+        <v>3</v>
+      </c>
+      <c r="BH142">
+        <v>10</v>
+      </c>
+      <c r="BI142">
+        <v>5</v>
+      </c>
+      <c r="BJ142">
+        <v>19</v>
+      </c>
+      <c r="BK142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2447690</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44871.64583333334</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>76</v>
+      </c>
+      <c r="H143" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>177</v>
+      </c>
+      <c r="P143" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>5</v>
+      </c>
+      <c r="S143">
+        <v>6</v>
+      </c>
+      <c r="T143">
+        <v>4.5</v>
+      </c>
+      <c r="U143">
+        <v>2.1</v>
+      </c>
+      <c r="V143">
+        <v>2.38</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>2.75</v>
+      </c>
+      <c r="Y143">
+        <v>3</v>
+      </c>
+      <c r="Z143">
+        <v>1.36</v>
+      </c>
+      <c r="AA143">
+        <v>8</v>
+      </c>
+      <c r="AB143">
+        <v>1.08</v>
+      </c>
+      <c r="AC143">
+        <v>3.7</v>
+      </c>
+      <c r="AD143">
+        <v>2.95</v>
+      </c>
+      <c r="AE143">
+        <v>1.96</v>
+      </c>
+      <c r="AF143">
+        <v>1.06</v>
+      </c>
+      <c r="AG143">
+        <v>10.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.47</v>
+      </c>
+      <c r="AI143">
+        <v>2.5</v>
+      </c>
+      <c r="AJ143">
+        <v>2.06</v>
+      </c>
+      <c r="AK143">
+        <v>1.68</v>
+      </c>
+      <c r="AL143">
+        <v>1.87</v>
+      </c>
+      <c r="AM143">
+        <v>1.89</v>
+      </c>
+      <c r="AN143">
+        <v>1.85</v>
+      </c>
+      <c r="AO143">
+        <v>1.27</v>
+      </c>
+      <c r="AP143">
+        <v>1.19</v>
+      </c>
+      <c r="AQ143">
+        <v>2.13</v>
+      </c>
+      <c r="AR143">
+        <v>2.38</v>
+      </c>
+      <c r="AS143">
+        <v>2</v>
+      </c>
+      <c r="AT143">
+        <v>2.44</v>
+      </c>
+      <c r="AU143">
+        <v>2.09</v>
+      </c>
+      <c r="AV143">
+        <v>1.92</v>
+      </c>
+      <c r="AW143">
+        <v>4.01</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>3</v>
+      </c>
+      <c r="BG143">
+        <v>4</v>
+      </c>
+      <c r="BH143">
+        <v>7</v>
+      </c>
+      <c r="BI143">
+        <v>7</v>
+      </c>
+      <c r="BJ143">
+        <v>10</v>
+      </c>
+      <c r="BK143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2447600</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44875.52083333334</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s">
+        <v>75</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>84</v>
+      </c>
+      <c r="P144" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q144">
+        <v>10</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <v>13</v>
+      </c>
+      <c r="T144">
+        <v>1.57</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>9</v>
+      </c>
+      <c r="W144">
+        <v>1.25</v>
+      </c>
+      <c r="X144">
+        <v>3.5</v>
+      </c>
+      <c r="Y144">
+        <v>2.2</v>
+      </c>
+      <c r="Z144">
+        <v>1.6</v>
+      </c>
+      <c r="AA144">
+        <v>4.6</v>
+      </c>
+      <c r="AB144">
+        <v>1.16</v>
+      </c>
+      <c r="AC144">
+        <v>1.09</v>
+      </c>
+      <c r="AD144">
+        <v>10.84</v>
+      </c>
+      <c r="AE144">
+        <v>6.44</v>
+      </c>
+      <c r="AF144">
+        <v>1.01</v>
+      </c>
+      <c r="AG144">
+        <v>29</v>
+      </c>
+      <c r="AH144">
+        <v>1.16</v>
+      </c>
+      <c r="AI144">
+        <v>4.5</v>
+      </c>
+      <c r="AJ144">
+        <v>1.4</v>
+      </c>
+      <c r="AK144">
+        <v>2.73</v>
+      </c>
+      <c r="AL144">
+        <v>1.85</v>
+      </c>
+      <c r="AM144">
+        <v>1.91</v>
+      </c>
+      <c r="AN144">
+        <v>1.02</v>
+      </c>
+      <c r="AO144">
+        <v>1.13</v>
+      </c>
+      <c r="AP144">
+        <v>3.54</v>
+      </c>
+      <c r="AQ144">
+        <v>2.25</v>
+      </c>
+      <c r="AR144">
+        <v>0.25</v>
+      </c>
+      <c r="AS144">
+        <v>2.1</v>
+      </c>
+      <c r="AT144">
+        <v>0.5</v>
+      </c>
+      <c r="AU144">
+        <v>2.19</v>
+      </c>
+      <c r="AV144">
+        <v>1.24</v>
+      </c>
+      <c r="AW144">
+        <v>3.43</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>1.48</v>
+      </c>
+      <c r="BC144">
+        <v>1.98</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>3.28</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>11</v>
+      </c>
+      <c r="BI144">
+        <v>2</v>
+      </c>
+      <c r="BJ144">
+        <v>16</v>
+      </c>
+      <c r="BK144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2447598</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44875.61458333334</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145" t="s">
+        <v>67</v>
+      </c>
+      <c r="H145" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>84</v>
+      </c>
+      <c r="P145" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>6</v>
+      </c>
+      <c r="U145">
+        <v>2.5</v>
+      </c>
+      <c r="V145">
+        <v>1.83</v>
+      </c>
+      <c r="W145">
+        <v>1.27</v>
+      </c>
+      <c r="X145">
+        <v>3.4</v>
+      </c>
+      <c r="Y145">
+        <v>2.3</v>
+      </c>
+      <c r="Z145">
+        <v>1.55</v>
+      </c>
+      <c r="AA145">
+        <v>4.9</v>
+      </c>
+      <c r="AB145">
+        <v>1.14</v>
+      </c>
+      <c r="AC145">
+        <v>6.5</v>
+      </c>
+      <c r="AD145">
+        <v>3.75</v>
+      </c>
+      <c r="AE145">
+        <v>1.44</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>18.25</v>
+      </c>
+      <c r="AH145">
+        <v>1.16</v>
+      </c>
+      <c r="AI145">
+        <v>4.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.61</v>
+      </c>
+      <c r="AK145">
+        <v>2.29</v>
+      </c>
+      <c r="AL145">
+        <v>1.7</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>2.75</v>
+      </c>
+      <c r="AO145">
+        <v>1.14</v>
+      </c>
+      <c r="AP145">
+        <v>1.08</v>
+      </c>
+      <c r="AQ145">
+        <v>2.13</v>
+      </c>
+      <c r="AR145">
+        <v>2.75</v>
+      </c>
+      <c r="AS145">
+        <v>2</v>
+      </c>
+      <c r="AT145">
+        <v>2.8</v>
+      </c>
+      <c r="AU145">
+        <v>1.73</v>
+      </c>
+      <c r="AV145">
+        <v>2.22</v>
+      </c>
+      <c r="AW145">
+        <v>3.95</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>1.8</v>
+      </c>
+      <c r="BD145">
+        <v>2.25</v>
+      </c>
+      <c r="BE145">
+        <v>3</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>6</v>
+      </c>
+      <c r="BH145">
+        <v>4</v>
+      </c>
+      <c r="BI145">
+        <v>9</v>
+      </c>
+      <c r="BJ145">
+        <v>4</v>
+      </c>
+      <c r="BK145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2447693</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44876.58333333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>178</v>
+      </c>
+      <c r="P146" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q146">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>5</v>
+      </c>
+      <c r="T146">
+        <v>3.2</v>
+      </c>
+      <c r="U146">
+        <v>2.1</v>
+      </c>
+      <c r="V146">
+        <v>3.2</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>2.75</v>
+      </c>
+      <c r="Y146">
+        <v>3</v>
+      </c>
+      <c r="Z146">
+        <v>1.36</v>
+      </c>
+      <c r="AA146">
+        <v>8</v>
+      </c>
+      <c r="AB146">
+        <v>1.08</v>
+      </c>
+      <c r="AC146">
+        <v>2.31</v>
+      </c>
+      <c r="AD146">
+        <v>3.2</v>
+      </c>
+      <c r="AE146">
+        <v>2.6</v>
+      </c>
+      <c r="AF146">
+        <v>1.07</v>
+      </c>
+      <c r="AG146">
+        <v>10.5</v>
+      </c>
+      <c r="AH146">
+        <v>1.33</v>
+      </c>
+      <c r="AI146">
+        <v>3.3</v>
+      </c>
+      <c r="AJ146">
+        <v>2</v>
+      </c>
+      <c r="AK146">
+        <v>1.79</v>
+      </c>
+      <c r="AL146">
+        <v>1.8</v>
+      </c>
+      <c r="AM146">
+        <v>1.96</v>
+      </c>
+      <c r="AN146">
+        <v>1.45</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.45</v>
+      </c>
+      <c r="AQ146">
+        <v>0.78</v>
+      </c>
+      <c r="AR146">
+        <v>0.44</v>
+      </c>
+      <c r="AS146">
+        <v>1</v>
+      </c>
+      <c r="AT146">
+        <v>0.4</v>
+      </c>
+      <c r="AU146">
+        <v>1.46</v>
+      </c>
+      <c r="AV146">
+        <v>1.25</v>
+      </c>
+      <c r="AW146">
+        <v>2.71</v>
+      </c>
+      <c r="AX146">
+        <v>1.89</v>
+      </c>
+      <c r="AY146">
+        <v>7.1</v>
+      </c>
+      <c r="AZ146">
+        <v>2.33</v>
+      </c>
+      <c r="BA146">
+        <v>1.48</v>
+      </c>
+      <c r="BB146">
+        <v>1.98</v>
+      </c>
+      <c r="BC146">
+        <v>2.45</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>4</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>6</v>
+      </c>
+      <c r="BJ146">
+        <v>8</v>
+      </c>
+      <c r="BK146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2447698</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>66</v>
+      </c>
+      <c r="H147" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>179</v>
+      </c>
+      <c r="P147" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q147">
+        <v>3</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>2.04</v>
+      </c>
+      <c r="AD147">
+        <v>3.42</v>
+      </c>
+      <c r="AE147">
+        <v>3.24</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>1.82</v>
+      </c>
+      <c r="AK147">
+        <v>1.95</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
+      <c r="AQ147">
+        <v>1.33</v>
+      </c>
+      <c r="AR147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS147">
+        <v>1.5</v>
+      </c>
+      <c r="AT147">
+        <v>0.5</v>
+      </c>
+      <c r="AU147">
+        <v>1.07</v>
+      </c>
+      <c r="AV147">
+        <v>1.27</v>
+      </c>
+      <c r="AW147">
+        <v>2.34</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>4</v>
+      </c>
+      <c r="BG147">
+        <v>7</v>
+      </c>
+      <c r="BH147">
+        <v>8</v>
+      </c>
+      <c r="BI147">
+        <v>5</v>
+      </c>
+      <c r="BJ147">
+        <v>12</v>
+      </c>
+      <c r="BK147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2447691</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44877.54166666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148" t="s">
+        <v>73</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>180</v>
+      </c>
+      <c r="P148" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q148">
+        <v>6</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>8</v>
+      </c>
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>6</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>3.25</v>
+      </c>
+      <c r="Y148">
+        <v>2.5</v>
+      </c>
+      <c r="Z148">
+        <v>1.5</v>
+      </c>
+      <c r="AA148">
+        <v>6</v>
+      </c>
+      <c r="AB148">
+        <v>1.13</v>
+      </c>
+      <c r="AC148">
+        <v>1.49</v>
+      </c>
+      <c r="AD148">
+        <v>4.14</v>
+      </c>
+      <c r="AE148">
+        <v>5.6</v>
+      </c>
+      <c r="AF148">
+        <v>1.05</v>
+      </c>
+      <c r="AG148">
+        <v>9</v>
+      </c>
+      <c r="AH148">
+        <v>1.22</v>
+      </c>
+      <c r="AI148">
+        <v>4</v>
+      </c>
+      <c r="AJ148">
+        <v>1.7</v>
+      </c>
+      <c r="AK148">
+        <v>2.1</v>
+      </c>
+      <c r="AL148">
+        <v>1.83</v>
+      </c>
+      <c r="AM148">
+        <v>1.83</v>
+      </c>
+      <c r="AN148">
+        <v>1.08</v>
+      </c>
+      <c r="AO148">
+        <v>1.17</v>
+      </c>
+      <c r="AP148">
+        <v>2.4</v>
+      </c>
+      <c r="AQ148">
+        <v>1.89</v>
+      </c>
+      <c r="AR148">
+        <v>0.89</v>
+      </c>
+      <c r="AS148">
+        <v>2</v>
+      </c>
+      <c r="AT148">
+        <v>0.8</v>
+      </c>
+      <c r="AU148">
+        <v>2.01</v>
+      </c>
+      <c r="AV148">
+        <v>1.37</v>
+      </c>
+      <c r="AW148">
+        <v>3.38</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>1.93</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>7</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>8</v>
+      </c>
+      <c r="BI148">
+        <v>4</v>
+      </c>
+      <c r="BJ148">
+        <v>15</v>
+      </c>
+      <c r="BK148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2447696</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>181</v>
+      </c>
+      <c r="P149" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>3</v>
+      </c>
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="T149">
+        <v>2.05</v>
+      </c>
+      <c r="U149">
+        <v>2.2</v>
+      </c>
+      <c r="V149">
+        <v>5.5</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149">
+        <v>2.75</v>
+      </c>
+      <c r="Z149">
+        <v>1.4</v>
+      </c>
+      <c r="AA149">
+        <v>7</v>
+      </c>
+      <c r="AB149">
+        <v>1.1</v>
+      </c>
+      <c r="AC149">
+        <v>1.53</v>
+      </c>
+      <c r="AD149">
+        <v>3.6</v>
+      </c>
+      <c r="AE149">
+        <v>6.5</v>
+      </c>
+      <c r="AF149">
+        <v>1.06</v>
+      </c>
+      <c r="AG149">
+        <v>8</v>
+      </c>
+      <c r="AH149">
+        <v>1.3</v>
+      </c>
+      <c r="AI149">
+        <v>3.53</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.67</v>
+      </c>
+      <c r="AL149">
+        <v>2</v>
+      </c>
+      <c r="AM149">
+        <v>1.73</v>
+      </c>
+      <c r="AN149">
+        <v>1.1</v>
+      </c>
+      <c r="AO149">
+        <v>1.2</v>
+      </c>
+      <c r="AP149">
+        <v>2.3</v>
+      </c>
+      <c r="AQ149">
+        <v>1.89</v>
+      </c>
+      <c r="AR149">
+        <v>1.33</v>
+      </c>
+      <c r="AS149">
+        <v>2</v>
+      </c>
+      <c r="AT149">
+        <v>1.2</v>
+      </c>
+      <c r="AU149">
+        <v>1.7</v>
+      </c>
+      <c r="AV149">
+        <v>1.31</v>
+      </c>
+      <c r="AW149">
+        <v>3.01</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>7</v>
+      </c>
+      <c r="BG149">
+        <v>5</v>
+      </c>
+      <c r="BH149">
+        <v>9</v>
+      </c>
+      <c r="BI149">
+        <v>7</v>
+      </c>
+      <c r="BJ149">
+        <v>16</v>
+      </c>
+      <c r="BK149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2447697</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44878.39583333334</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>182</v>
+      </c>
+      <c r="P150" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>12</v>
+      </c>
+      <c r="U150">
+        <v>2.88</v>
+      </c>
+      <c r="V150">
+        <v>1.44</v>
+      </c>
+      <c r="W150">
+        <v>1.22</v>
+      </c>
+      <c r="X150">
+        <v>4</v>
+      </c>
+      <c r="Y150">
+        <v>2.1</v>
+      </c>
+      <c r="Z150">
+        <v>1.67</v>
+      </c>
+      <c r="AA150">
+        <v>4.33</v>
+      </c>
+      <c r="AB150">
+        <v>1.2</v>
+      </c>
+      <c r="AC150">
+        <v>10.9</v>
+      </c>
+      <c r="AD150">
+        <v>9.35</v>
+      </c>
+      <c r="AE150">
+        <v>1.12</v>
+      </c>
+      <c r="AF150">
+        <v>1.01</v>
+      </c>
+      <c r="AG150">
+        <v>34</v>
+      </c>
+      <c r="AH150">
+        <v>1.15</v>
+      </c>
+      <c r="AI150">
+        <v>5.35</v>
+      </c>
+      <c r="AJ150">
+        <v>1.41</v>
+      </c>
+      <c r="AK150">
+        <v>2.64</v>
+      </c>
+      <c r="AL150">
+        <v>2.5</v>
+      </c>
+      <c r="AM150">
+        <v>1.5</v>
+      </c>
+      <c r="AN150">
+        <v>6.25</v>
+      </c>
+      <c r="AO150">
+        <v>1.05</v>
+      </c>
+      <c r="AP150">
+        <v>1.04</v>
+      </c>
+      <c r="AQ150">
+        <v>0.78</v>
+      </c>
+      <c r="AR150">
+        <v>2.78</v>
+      </c>
+      <c r="AS150">
+        <v>0.7</v>
+      </c>
+      <c r="AT150">
+        <v>2.8</v>
+      </c>
+      <c r="AU150">
+        <v>1.3</v>
+      </c>
+      <c r="AV150">
+        <v>2.18</v>
+      </c>
+      <c r="AW150">
+        <v>3.48</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>1.88</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>2</v>
+      </c>
+      <c r="BG150">
+        <v>8</v>
+      </c>
+      <c r="BH150">
+        <v>2</v>
+      </c>
+      <c r="BI150">
+        <v>8</v>
+      </c>
+      <c r="BJ150">
+        <v>4</v>
+      </c>
+      <c r="BK150">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2447692</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44878.47916666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>183</v>
+      </c>
+      <c r="P151" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q151">
+        <v>10</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>13</v>
+      </c>
+      <c r="T151">
+        <v>1.67</v>
+      </c>
+      <c r="U151">
+        <v>2.5</v>
+      </c>
+      <c r="V151">
+        <v>8</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>3.25</v>
+      </c>
+      <c r="Y151">
+        <v>2.15</v>
+      </c>
+      <c r="Z151">
+        <v>1.62</v>
+      </c>
+      <c r="AA151">
+        <v>5.25</v>
+      </c>
+      <c r="AB151">
+        <v>1.12</v>
+      </c>
+      <c r="AC151">
+        <v>1.22</v>
+      </c>
+      <c r="AD151">
+        <v>5.6</v>
+      </c>
+      <c r="AE151">
+        <v>10.6</v>
+      </c>
+      <c r="AF151">
+        <v>1.03</v>
+      </c>
+      <c r="AG151">
+        <v>17.25</v>
+      </c>
+      <c r="AH151">
+        <v>1.2</v>
+      </c>
+      <c r="AI151">
+        <v>4.35</v>
+      </c>
+      <c r="AJ151">
+        <v>1.56</v>
+      </c>
+      <c r="AK151">
+        <v>2.24</v>
+      </c>
+      <c r="AL151">
+        <v>2.2</v>
+      </c>
+      <c r="AM151">
+        <v>1.6</v>
+      </c>
+      <c r="AN151">
+        <v>1.06</v>
+      </c>
+      <c r="AO151">
+        <v>1.04</v>
+      </c>
+      <c r="AP151">
+        <v>4.33</v>
+      </c>
+      <c r="AQ151">
+        <v>2</v>
+      </c>
+      <c r="AR151">
+        <v>1.56</v>
+      </c>
+      <c r="AS151">
+        <v>2.1</v>
+      </c>
+      <c r="AT151">
+        <v>1.4</v>
+      </c>
+      <c r="AU151">
+        <v>2.19</v>
+      </c>
+      <c r="AV151">
+        <v>1.5</v>
+      </c>
+      <c r="AW151">
+        <v>3.69</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>7</v>
+      </c>
+      <c r="BG151">
+        <v>2</v>
+      </c>
+      <c r="BH151">
+        <v>10</v>
+      </c>
+      <c r="BI151">
+        <v>2</v>
+      </c>
+      <c r="BJ151">
+        <v>17</v>
+      </c>
+      <c r="BK151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2447694</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44878.5625</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" t="s">
+        <v>77</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>184</v>
+      </c>
+      <c r="P152" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q152">
+        <v>4</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>6</v>
+      </c>
+      <c r="T152">
+        <v>1.8</v>
+      </c>
+      <c r="U152">
+        <v>2.4</v>
+      </c>
+      <c r="V152">
+        <v>7</v>
+      </c>
+      <c r="W152">
+        <v>1.29</v>
+      </c>
+      <c r="X152">
+        <v>3.3</v>
+      </c>
+      <c r="Y152">
+        <v>2.35</v>
+      </c>
+      <c r="Z152">
+        <v>1.52</v>
+      </c>
+      <c r="AA152">
+        <v>5.4</v>
+      </c>
+      <c r="AB152">
+        <v>1.12</v>
+      </c>
+      <c r="AC152">
+        <v>1.28</v>
+      </c>
+      <c r="AD152">
+        <v>5</v>
+      </c>
+      <c r="AE152">
+        <v>9.1</v>
+      </c>
+      <c r="AF152">
+        <v>1.03</v>
+      </c>
+      <c r="AG152">
+        <v>15.5</v>
+      </c>
+      <c r="AH152">
+        <v>1.21</v>
+      </c>
+      <c r="AI152">
+        <v>4.32</v>
+      </c>
+      <c r="AJ152">
+        <v>1.73</v>
+      </c>
+      <c r="AK152">
+        <v>2</v>
+      </c>
+      <c r="AL152">
+        <v>1.9</v>
+      </c>
+      <c r="AM152">
+        <v>1.86</v>
+      </c>
+      <c r="AN152">
+        <v>1.1</v>
+      </c>
+      <c r="AO152">
+        <v>1.19</v>
+      </c>
+      <c r="AP152">
+        <v>2.9</v>
+      </c>
+      <c r="AQ152">
+        <v>1.89</v>
+      </c>
+      <c r="AR152">
+        <v>0.67</v>
+      </c>
+      <c r="AS152">
+        <v>2</v>
+      </c>
+      <c r="AT152">
+        <v>0.6</v>
+      </c>
+      <c r="AU152">
+        <v>1.61</v>
+      </c>
+      <c r="AV152">
+        <v>1.23</v>
+      </c>
+      <c r="AW152">
+        <v>2.84</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>1.85</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>7</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>14</v>
+      </c>
+      <c r="BJ152">
+        <v>12</v>
+      </c>
+      <c r="BK152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2447695</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44878.64583333334</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>65</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>185</v>
+      </c>
+      <c r="P153" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>3</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>2.6</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
+        <v>4.33</v>
+      </c>
+      <c r="W153">
+        <v>1.44</v>
+      </c>
+      <c r="X153">
+        <v>2.6</v>
+      </c>
+      <c r="Y153">
+        <v>3</v>
+      </c>
+      <c r="Z153">
+        <v>1.33</v>
+      </c>
+      <c r="AA153">
+        <v>8.1</v>
+      </c>
+      <c r="AB153">
+        <v>1.04</v>
+      </c>
+      <c r="AC153">
+        <v>1.97</v>
+      </c>
+      <c r="AD153">
+        <v>3.28</v>
+      </c>
+      <c r="AE153">
+        <v>3.58</v>
+      </c>
+      <c r="AF153">
+        <v>1.08</v>
+      </c>
+      <c r="AG153">
+        <v>9</v>
+      </c>
+      <c r="AH153">
+        <v>1.41</v>
+      </c>
+      <c r="AI153">
+        <v>2.87</v>
+      </c>
+      <c r="AJ153">
+        <v>2.15</v>
+      </c>
+      <c r="AK153">
+        <v>1.62</v>
+      </c>
+      <c r="AL153">
+        <v>1.96</v>
+      </c>
+      <c r="AM153">
+        <v>1.8</v>
+      </c>
+      <c r="AN153">
+        <v>1.22</v>
+      </c>
+      <c r="AO153">
+        <v>1.25</v>
+      </c>
+      <c r="AP153">
+        <v>1.72</v>
+      </c>
+      <c r="AQ153">
+        <v>1.89</v>
+      </c>
+      <c r="AR153">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS153">
+        <v>2</v>
+      </c>
+      <c r="AT153">
+        <v>0.5</v>
+      </c>
+      <c r="AU153">
+        <v>1.51</v>
+      </c>
+      <c r="AV153">
+        <v>1.21</v>
+      </c>
+      <c r="AW153">
+        <v>2.72</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>1.83</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>9</v>
+      </c>
+      <c r="BG153">
+        <v>5</v>
+      </c>
+      <c r="BH153">
+        <v>5</v>
+      </c>
+      <c r="BI153">
+        <v>6</v>
+      </c>
+      <c r="BJ153">
+        <v>14</v>
+      </c>
+      <c r="BK153">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT6" t="n">
         <v>0.8</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
         <v>1.2</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>2.44</v>
@@ -2730,7 +2730,7 @@
         <v>1.89</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>0.78</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU26" t="n">
         <v>2.62</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>2.1</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT30" t="n">
         <v>2.11</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6993,7 +6993,7 @@
         <v>0.78</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU32" t="n">
         <v>0.74</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.64</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU42" t="n">
         <v>2.77</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU43" t="n">
         <v>0.95</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT47" t="n">
         <v>0.8</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -11459,7 +11459,7 @@
         <v>0.7</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT56" t="n">
         <v>2.11</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT57" t="n">
         <v>0.4</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT61" t="n">
         <v>2.44</v>
@@ -13692,7 +13692,7 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT70" t="n">
         <v>0.6</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
         <v>0.4</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>2.44</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.99</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT74" t="n">
         <v>2.11</v>
@@ -15719,7 +15719,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT75" t="n">
         <v>1.4</v>
@@ -16128,7 +16128,7 @@
         <v>0.7</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU77" t="n">
         <v>1.1</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17346,7 +17346,7 @@
         <v>2.1</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17952,7 +17952,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT86" t="n">
         <v>0.6</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18561,7 +18561,7 @@
         <v>0.6</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT89" t="n">
         <v>0.4</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT92" t="n">
         <v>1.4</v>
@@ -19373,7 +19373,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT93" t="n">
         <v>0.5</v>
@@ -19579,7 +19579,7 @@
         <v>1.89</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19782,7 +19782,7 @@
         <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU95" t="n">
         <v>2.07</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>1.36</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT98" t="n">
         <v>1.2</v>
@@ -20797,7 +20797,7 @@
         <v>2.1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21606,7 +21606,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT104" t="n">
         <v>0.6</v>
@@ -22215,7 +22215,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -22621,7 +22621,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
         <v>1.2</v>
@@ -22827,7 +22827,7 @@
         <v>0.78</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23030,7 +23030,7 @@
         <v>1.89</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23233,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU112" t="n">
         <v>2.15</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5</v>
@@ -23842,7 +23842,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.41</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT116" t="n">
         <v>2.8</v>
@@ -24248,7 +24248,7 @@
         <v>2.1</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU117" t="n">
         <v>2.04</v>
@@ -24857,7 +24857,7 @@
         <v>2</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU120" t="n">
         <v>2.14</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>2.8</v>
@@ -25466,7 +25466,7 @@
         <v>1.89</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -25872,7 +25872,7 @@
         <v>0.78</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.07</v>
@@ -26072,10 +26072,10 @@
         <v>0.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26278,7 +26278,7 @@
         <v>1.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT133" t="n">
         <v>2.8</v>
@@ -28105,7 +28105,7 @@
         <v>0.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU136" t="n">
         <v>1.11</v>
@@ -28511,7 +28511,7 @@
         <v>1.67</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU138" t="n">
         <v>1.52</v>
@@ -28711,10 +28711,10 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.44</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT140" t="n">
         <v>0.5</v>
@@ -29117,10 +29117,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29320,10 +29320,10 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -31608,6 +31608,1021 @@
       </c>
       <c r="BK153" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2447700</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44960.58333333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>8</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2447702</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44961.375</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>8</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>10</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2447699</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['46', '90+2']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>8</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2447701</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>12</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>13</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V157" t="n">
+        <v>10</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2447703</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44961.58333333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['16', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>7</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4</v>
+      </c>
+      <c r="S158" t="n">
+        <v>11</v>
+      </c>
+      <c r="T158" t="n">
+        <v>4</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.8</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT15" t="n">
         <v>1.4</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.4</v>
@@ -4557,7 +4557,7 @@
         <v>2.1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU28" t="n">
         <v>1.06</v>
@@ -6587,7 +6587,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT32" t="n">
         <v>1.8</v>
@@ -8817,10 +8817,10 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9429,7 +9429,7 @@
         <v>1.3</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -9629,10 +9629,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU45" t="n">
         <v>0.7</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.4</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT55" t="n">
         <v>1.4</v>
@@ -11865,7 +11865,7 @@
         <v>1.3</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU56" t="n">
         <v>2.14</v>
@@ -12677,7 +12677,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU60" t="n">
         <v>2.53</v>
@@ -12880,7 +12880,7 @@
         <v>1.3</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
         <v>0.6</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15519,7 +15519,7 @@
         <v>2.6</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU74" t="n">
         <v>2.65</v>
@@ -15925,7 +15925,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU76" t="n">
         <v>1.09</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.2</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
         <v>2.8</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU87" t="n">
         <v>1.14</v>
@@ -18767,7 +18767,7 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU90" t="n">
         <v>1.94</v>
@@ -18970,7 +18970,7 @@
         <v>0.7</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.15</v>
@@ -19576,7 +19576,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.3</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5</v>
@@ -20591,7 +20591,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT99" t="n">
         <v>2.8</v>
@@ -21812,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU106" t="n">
         <v>1.85</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -22824,7 +22824,7 @@
         <v>0.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT110" t="n">
         <v>0.3</v>
@@ -23027,7 +23027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.4</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>0.1</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
         <v>1.4</v>
@@ -25669,7 +25669,7 @@
         <v>2.1</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -25869,7 +25869,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT125" t="n">
         <v>0.1</v>
@@ -26275,7 +26275,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1.4</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT136" t="n">
         <v>1.4</v>
@@ -28305,10 +28305,10 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
         <v>1.8</v>
@@ -29526,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU143" t="n">
         <v>2.09</v>
@@ -32623,6 +32623,615 @@
       </c>
       <c r="BK158" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2447705</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44962.4375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>10</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>11</v>
+      </c>
+      <c r="T159" t="n">
+        <v>10</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2447706</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44962.52083333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['79', '89']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>5</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2447704</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44962.60416666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>20</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['16', '82']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['29', '34', '77']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>5</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -32687,13 +32687,13 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R159" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S159" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -32893,10 +32893,10 @@
         <v>1</v>
       </c>
       <c r="R160" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S160" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T160" t="n">
         <v>3.75</v>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['16', '82']</t>
   </si>
   <si>
+    <t>['65', '90', '90+6']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -797,6 +800,9 @@
   </si>
   <si>
     <t>['29', '34', '77']</t>
+  </si>
+  <si>
+    <t>['72', '81']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1593,7 +1599,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1784,7 +1790,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1871,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT4">
         <v>1.9</v>
@@ -1975,7 +1981,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2357,7 +2363,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2444,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT7">
         <v>0.6</v>
@@ -2829,7 +2835,7 @@
         <v>1.8</v>
       </c>
       <c r="AT9">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2930,7 +2936,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3121,7 +3127,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3885,7 +3891,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4166,7 +4172,7 @@
         <v>1.3</v>
       </c>
       <c r="AT16">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4458,7 +4464,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4736,10 +4742,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT19">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU19">
         <v>0.99</v>
@@ -5031,7 +5037,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5691,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT24">
         <v>0.4</v>
@@ -6177,7 +6183,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6368,7 +6374,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6750,7 +6756,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6941,7 +6947,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7031,7 +7037,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7132,7 +7138,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7413,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU33">
         <v>1.49</v>
@@ -7705,7 +7711,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7983,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT36">
         <v>0.5</v>
@@ -8174,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT37">
         <v>0.5</v>
@@ -8469,7 +8475,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8660,7 +8666,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9233,7 +9239,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9424,7 +9430,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9615,7 +9621,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9806,7 +9812,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10469,7 +10475,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10570,7 +10576,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10660,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU50">
         <v>1.08</v>
@@ -10761,7 +10767,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10848,7 +10854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT51">
         <v>0.8</v>
@@ -11421,7 +11427,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT54">
         <v>1.4</v>
@@ -11525,7 +11531,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11907,7 +11913,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12098,7 +12104,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12289,7 +12295,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12480,7 +12486,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13907,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14008,7 +14014,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14199,7 +14205,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14286,10 +14292,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT69">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU69">
         <v>2.05</v>
@@ -14390,7 +14396,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14581,7 +14587,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14772,7 +14778,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14963,7 +14969,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15345,7 +15351,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15536,7 +15542,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15727,7 +15733,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15814,7 +15820,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT77">
         <v>1.8</v>
@@ -16199,7 +16205,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -16300,7 +16306,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16769,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT82">
         <v>1.4</v>
@@ -16963,7 +16969,7 @@
         <v>2.1</v>
       </c>
       <c r="AT83">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU83">
         <v>1.58</v>
@@ -17064,7 +17070,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17637,7 +17643,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17828,7 +17834,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18488,7 +18494,7 @@
         <v>2.17</v>
       </c>
       <c r="AS91">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT91">
         <v>2.5</v>
@@ -18974,7 +18980,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19064,7 +19070,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -19165,7 +19171,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19356,7 +19362,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19738,7 +19744,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19828,7 +19834,7 @@
         <v>1.3</v>
       </c>
       <c r="AT98">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19929,7 +19935,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20120,7 +20126,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20311,7 +20317,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20398,7 +20404,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT101">
         <v>0.8</v>
@@ -20589,7 +20595,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT102">
         <v>1.4</v>
@@ -20693,7 +20699,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21075,7 +21081,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21353,7 +21359,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT106">
         <v>0.9</v>
@@ -21648,7 +21654,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21839,7 +21845,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21929,7 +21935,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU109">
         <v>1.8</v>
@@ -22120,7 +22126,7 @@
         <v>0.7</v>
       </c>
       <c r="AT110">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU110">
         <v>1.06</v>
@@ -22221,7 +22227,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22603,7 +22609,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22794,7 +22800,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23176,7 +23182,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23367,7 +23373,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23749,7 +23755,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23940,7 +23946,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24322,7 +24328,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24704,7 +24710,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24895,7 +24901,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25176,7 +25182,7 @@
         <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25277,7 +25283,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25659,7 +25665,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25746,7 +25752,7 @@
         <v>1.63</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT129">
         <v>1.4</v>
@@ -26319,7 +26325,7 @@
         <v>0.29</v>
       </c>
       <c r="AS132">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26423,7 +26429,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26704,7 +26710,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU134">
         <v>1.08</v>
@@ -26996,7 +27002,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27760,7 +27766,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -28232,7 +28238,7 @@
         <v>2.6</v>
       </c>
       <c r="AT142">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU142">
         <v>2.72</v>
@@ -28333,7 +28339,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28524,7 +28530,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28715,7 +28721,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -28802,7 +28808,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT145">
         <v>2.8</v>
@@ -29569,7 +29575,7 @@
         <v>2</v>
       </c>
       <c r="AT149">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU149">
         <v>1.7</v>
@@ -29670,7 +29676,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29757,7 +29763,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT150">
         <v>2.8</v>
@@ -30139,7 +30145,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT152">
         <v>0.6</v>
@@ -30816,7 +30822,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30906,7 +30912,7 @@
         <v>1.2</v>
       </c>
       <c r="AT156">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU156">
         <v>1.68</v>
@@ -31198,7 +31204,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31580,7 +31586,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31771,7 +31777,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31913,6 +31919,388 @@
       </c>
       <c r="BK161">
         <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2447714</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44967.5</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s">
+        <v>66</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>114</v>
+      </c>
+      <c r="P162" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q162">
+        <v>5</v>
+      </c>
+      <c r="R162">
+        <v>1</v>
+      </c>
+      <c r="S162">
+        <v>6</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+      <c r="AC162">
+        <v>2.4</v>
+      </c>
+      <c r="AD162">
+        <v>3.15</v>
+      </c>
+      <c r="AE162">
+        <v>2.6</v>
+      </c>
+      <c r="AF162">
+        <v>0</v>
+      </c>
+      <c r="AG162">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>0</v>
+      </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>2.15</v>
+      </c>
+      <c r="AK162">
+        <v>1.57</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>0</v>
+      </c>
+      <c r="AO162">
+        <v>0</v>
+      </c>
+      <c r="AP162">
+        <v>0</v>
+      </c>
+      <c r="AQ162">
+        <v>0.7</v>
+      </c>
+      <c r="AR162">
+        <v>0.3</v>
+      </c>
+      <c r="AS162">
+        <v>0.91</v>
+      </c>
+      <c r="AT162">
+        <v>0.27</v>
+      </c>
+      <c r="AU162">
+        <v>1.24</v>
+      </c>
+      <c r="AV162">
+        <v>0.9</v>
+      </c>
+      <c r="AW162">
+        <v>2.14</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>0</v>
+      </c>
+      <c r="AZ162">
+        <v>0</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>2</v>
+      </c>
+      <c r="BG162">
+        <v>3</v>
+      </c>
+      <c r="BH162">
+        <v>1</v>
+      </c>
+      <c r="BI162">
+        <v>2</v>
+      </c>
+      <c r="BJ162">
+        <v>3</v>
+      </c>
+      <c r="BK162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2447711</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44967.58333333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>67</v>
+      </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>190</v>
+      </c>
+      <c r="P163" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+      <c r="S163">
+        <v>7</v>
+      </c>
+      <c r="T163">
+        <v>2.1</v>
+      </c>
+      <c r="U163">
+        <v>2.15</v>
+      </c>
+      <c r="V163">
+        <v>5.5</v>
+      </c>
+      <c r="W163">
+        <v>1.4</v>
+      </c>
+      <c r="X163">
+        <v>2.75</v>
+      </c>
+      <c r="Y163">
+        <v>2.75</v>
+      </c>
+      <c r="Z163">
+        <v>1.4</v>
+      </c>
+      <c r="AA163">
+        <v>7</v>
+      </c>
+      <c r="AB163">
+        <v>1.08</v>
+      </c>
+      <c r="AC163">
+        <v>1.6</v>
+      </c>
+      <c r="AD163">
+        <v>3.45</v>
+      </c>
+      <c r="AE163">
+        <v>5.5</v>
+      </c>
+      <c r="AF163">
+        <v>1.07</v>
+      </c>
+      <c r="AG163">
+        <v>7.5</v>
+      </c>
+      <c r="AH163">
+        <v>1.33</v>
+      </c>
+      <c r="AI163">
+        <v>3.25</v>
+      </c>
+      <c r="AJ163">
+        <v>2.05</v>
+      </c>
+      <c r="AK163">
+        <v>1.67</v>
+      </c>
+      <c r="AL163">
+        <v>2.1</v>
+      </c>
+      <c r="AM163">
+        <v>1.67</v>
+      </c>
+      <c r="AN163">
+        <v>1.1</v>
+      </c>
+      <c r="AO163">
+        <v>1.25</v>
+      </c>
+      <c r="AP163">
+        <v>2.4</v>
+      </c>
+      <c r="AQ163">
+        <v>2</v>
+      </c>
+      <c r="AR163">
+        <v>1.2</v>
+      </c>
+      <c r="AS163">
+        <v>2.09</v>
+      </c>
+      <c r="AT163">
+        <v>1.09</v>
+      </c>
+      <c r="AU163">
+        <v>1.62</v>
+      </c>
+      <c r="AV163">
+        <v>1.34</v>
+      </c>
+      <c r="AW163">
+        <v>2.96</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>0</v>
+      </c>
+      <c r="AZ163">
+        <v>0</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>6</v>
+      </c>
+      <c r="BG163">
+        <v>8</v>
+      </c>
+      <c r="BH163">
+        <v>5</v>
+      </c>
+      <c r="BI163">
+        <v>1</v>
+      </c>
+      <c r="BJ163">
+        <v>11</v>
+      </c>
+      <c r="BK163">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,12 @@
     <t>['65', '90', '90+6']</t>
   </si>
   <si>
+    <t>['21', '28']</t>
+  </si>
+  <si>
+    <t>['46', '65', '74']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -803,6 +809,12 @@
   </si>
   <si>
     <t>['72', '81']</t>
+  </si>
+  <si>
+    <t>['15', '19', '24', '64', '77', '82']</t>
+  </si>
+  <si>
+    <t>['4', '11', '54', '58']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT2">
         <v>1.4</v>
@@ -1599,7 +1611,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1689,7 +1701,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1790,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1981,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2068,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT5">
         <v>2.5</v>
@@ -2262,7 +2274,7 @@
         <v>2.6</v>
       </c>
       <c r="AT6">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2363,7 +2375,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2453,7 +2465,7 @@
         <v>0.91</v>
       </c>
       <c r="AT7">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2641,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT8">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2936,7 +2948,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3127,7 +3139,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3214,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT11">
         <v>1.8</v>
@@ -3596,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT13">
         <v>0.9</v>
@@ -3790,7 +3802,7 @@
         <v>2.6</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU14">
         <v>2.22</v>
@@ -3891,7 +3903,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4464,7 +4476,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4551,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT18">
         <v>1.4</v>
@@ -4933,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT20">
         <v>1.9</v>
@@ -5037,7 +5049,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5127,7 +5139,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU21">
         <v>0.95</v>
@@ -5315,10 +5327,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU22">
         <v>2.29</v>
@@ -5506,10 +5518,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT23">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5700,7 +5712,7 @@
         <v>2.09</v>
       </c>
       <c r="AT24">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -5888,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT25">
         <v>2.5</v>
@@ -6183,7 +6195,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6374,7 +6386,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6756,7 +6768,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6947,7 +6959,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7138,7 +7150,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7416,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT33">
         <v>1.09</v>
@@ -7607,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT34">
         <v>1.4</v>
@@ -7711,7 +7723,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7801,7 +7813,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU35">
         <v>0.86</v>
@@ -7992,7 +8004,7 @@
         <v>0.91</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU36">
         <v>0.95</v>
@@ -8183,7 +8195,7 @@
         <v>2.09</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU37">
         <v>2.19</v>
@@ -8371,10 +8383,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT38">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8475,7 +8487,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8666,7 +8678,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9239,7 +9251,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9430,7 +9442,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9621,7 +9633,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9812,7 +9824,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10093,7 +10105,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU47">
         <v>1.58</v>
@@ -10281,10 +10293,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT48">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU48">
         <v>1.54</v>
@@ -10472,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT49">
         <v>0.27</v>
@@ -10576,7 +10588,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10663,7 +10675,7 @@
         <v>0.67</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT50">
         <v>1.09</v>
@@ -10767,7 +10779,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10857,7 +10869,7 @@
         <v>0.91</v>
       </c>
       <c r="AT51">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11045,10 +11057,10 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU52">
         <v>1.68</v>
@@ -11236,10 +11248,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU53">
         <v>1.45</v>
@@ -11531,7 +11543,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11913,7 +11925,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12003,7 +12015,7 @@
         <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU57">
         <v>1.65</v>
@@ -12104,7 +12116,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12295,7 +12307,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12486,7 +12498,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12955,10 +12967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT62">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13149,7 +13161,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU63">
         <v>1.35</v>
@@ -13337,10 +13349,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT64">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13528,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT65">
         <v>0.1</v>
@@ -13719,10 +13731,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT66">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU66">
         <v>1.27</v>
@@ -13910,7 +13922,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT67">
         <v>1.09</v>
@@ -14014,7 +14026,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14101,10 +14113,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT68">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
         <v>1.94</v>
@@ -14205,7 +14217,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14396,7 +14408,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14486,7 +14498,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14587,7 +14599,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14677,7 +14689,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU71">
         <v>1.87</v>
@@ -14778,7 +14790,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14969,7 +14981,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15056,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT73">
         <v>1.4</v>
@@ -15351,7 +15363,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15542,7 +15554,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15733,7 +15745,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16011,10 +16023,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT78">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU78">
         <v>2.01</v>
@@ -16306,7 +16318,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16393,10 +16405,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT80">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16587,7 +16599,7 @@
         <v>0.7</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU81">
         <v>0.96</v>
@@ -16966,7 +16978,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT83">
         <v>0.27</v>
@@ -17070,7 +17082,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17157,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT84">
         <v>0.1</v>
@@ -17348,10 +17360,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17542,7 +17554,7 @@
         <v>1.3</v>
       </c>
       <c r="AT86">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU86">
         <v>1.33</v>
@@ -17643,7 +17655,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17834,7 +17846,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17921,7 +17933,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT88">
         <v>1.8</v>
@@ -18115,7 +18127,7 @@
         <v>2.6</v>
       </c>
       <c r="AT89">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU89">
         <v>2.78</v>
@@ -18303,7 +18315,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT90">
         <v>0.9</v>
@@ -18879,7 +18891,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU93">
         <v>1.74</v>
@@ -18980,7 +18992,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19067,7 +19079,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT94">
         <v>0.27</v>
@@ -19171,7 +19183,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19258,7 +19270,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT95">
         <v>0.1</v>
@@ -19362,7 +19374,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19449,7 +19461,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT96">
         <v>1.4</v>
@@ -19643,7 +19655,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU97">
         <v>1.29</v>
@@ -19744,7 +19756,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19935,7 +19947,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20025,7 +20037,7 @@
         <v>0.7</v>
       </c>
       <c r="AT99">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU99">
         <v>1.07</v>
@@ -20126,7 +20138,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20213,7 +20225,7 @@
         <v>1.6</v>
       </c>
       <c r="AS100">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT100">
         <v>1.4</v>
@@ -20317,7 +20329,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20407,7 +20419,7 @@
         <v>2.09</v>
       </c>
       <c r="AT101">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU101">
         <v>1.83</v>
@@ -20699,7 +20711,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20789,7 +20801,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU103">
         <v>1.11</v>
@@ -20980,7 +20992,7 @@
         <v>1.8</v>
       </c>
       <c r="AT104">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21081,7 +21093,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21168,7 +21180,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT105">
         <v>1.9</v>
@@ -21553,7 +21565,7 @@
         <v>2.6</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU107">
         <v>2.74</v>
@@ -21654,7 +21666,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21741,7 +21753,7 @@
         <v>2.29</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT108">
         <v>2.5</v>
@@ -21845,7 +21857,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22227,7 +22239,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22314,7 +22326,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT111">
         <v>1.4</v>
@@ -22505,7 +22517,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT112">
         <v>1.4</v>
@@ -22609,7 +22621,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22699,7 +22711,7 @@
         <v>1.3</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU113">
         <v>1.73</v>
@@ -22800,7 +22812,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22887,10 +22899,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -23182,7 +23194,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23272,7 +23284,7 @@
         <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU116">
         <v>1.44</v>
@@ -23373,7 +23385,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23460,7 +23472,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT117">
         <v>1.8</v>
@@ -23651,10 +23663,10 @@
         <v>0.43</v>
       </c>
       <c r="AS118">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT118">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU118">
         <v>2.05</v>
@@ -23755,7 +23767,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23842,10 +23854,10 @@
         <v>2.6</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT119">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU119">
         <v>1.87</v>
@@ -23946,7 +23958,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24033,7 +24045,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT120">
         <v>1.8</v>
@@ -24227,7 +24239,7 @@
         <v>1.3</v>
       </c>
       <c r="AT121">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU121">
         <v>1.35</v>
@@ -24328,7 +24340,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24418,7 +24430,7 @@
         <v>1.2</v>
       </c>
       <c r="AT122">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU122">
         <v>1.76</v>
@@ -24606,7 +24618,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT123">
         <v>1.4</v>
@@ -24710,7 +24722,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24797,7 +24809,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT124">
         <v>0.9</v>
@@ -24901,7 +24913,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25283,7 +25295,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25561,7 +25573,7 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT128">
         <v>1.9</v>
@@ -25665,7 +25677,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25943,10 +25955,10 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26134,10 +26146,10 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT131">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26328,7 +26340,7 @@
         <v>0.91</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU132">
         <v>1.25</v>
@@ -26429,7 +26441,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26519,7 +26531,7 @@
         <v>1.8</v>
       </c>
       <c r="AT133">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26898,10 +26910,10 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT135">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU135">
         <v>2.25</v>
@@ -27002,7 +27014,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27280,7 +27292,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT137">
         <v>0.9</v>
@@ -27766,7 +27778,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -27856,7 +27868,7 @@
         <v>1.2</v>
       </c>
       <c r="AT140">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU140">
         <v>1.67</v>
@@ -28339,7 +28351,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28426,7 +28438,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT143">
         <v>2.5</v>
@@ -28530,7 +28542,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28617,10 +28629,10 @@
         <v>0.25</v>
       </c>
       <c r="AS144">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT144">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU144">
         <v>2.19</v>
@@ -28721,7 +28733,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -28811,7 +28823,7 @@
         <v>2.09</v>
       </c>
       <c r="AT145">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU145">
         <v>1.73</v>
@@ -28999,10 +29011,10 @@
         <v>0.44</v>
       </c>
       <c r="AS146">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU146">
         <v>1.46</v>
@@ -29193,7 +29205,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU147">
         <v>1.07</v>
@@ -29381,10 +29393,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT148">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU148">
         <v>2.01</v>
@@ -29572,7 +29584,7 @@
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT149">
         <v>1.09</v>
@@ -29676,7 +29688,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29766,7 +29778,7 @@
         <v>0.91</v>
       </c>
       <c r="AT150">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU150">
         <v>1.3</v>
@@ -29954,7 +29966,7 @@
         <v>1.56</v>
       </c>
       <c r="AS151">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT151">
         <v>1.4</v>
@@ -30148,7 +30160,7 @@
         <v>2.09</v>
       </c>
       <c r="AT152">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU152">
         <v>1.61</v>
@@ -30336,10 +30348,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT153">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU153">
         <v>1.51</v>
@@ -30822,7 +30834,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31204,7 +31216,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31586,7 +31598,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31673,7 +31685,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT160">
         <v>1.9</v>
@@ -31777,7 +31789,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31974,10 +31986,10 @@
         <v>5</v>
       </c>
       <c r="R162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S162">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -32159,7 +32171,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32301,6 +32313,1152 @@
       </c>
       <c r="BK163">
         <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2447712</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>65</v>
+      </c>
+      <c r="H164" t="s">
+        <v>69</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>6</v>
+      </c>
+      <c r="N164">
+        <v>6</v>
+      </c>
+      <c r="O164" t="s">
+        <v>84</v>
+      </c>
+      <c r="P164" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>12</v>
+      </c>
+      <c r="S164">
+        <v>13</v>
+      </c>
+      <c r="T164">
+        <v>8</v>
+      </c>
+      <c r="U164">
+        <v>2.55</v>
+      </c>
+      <c r="V164">
+        <v>1.65</v>
+      </c>
+      <c r="W164">
+        <v>1.31</v>
+      </c>
+      <c r="X164">
+        <v>3.26</v>
+      </c>
+      <c r="Y164">
+        <v>2.4</v>
+      </c>
+      <c r="Z164">
+        <v>1.51</v>
+      </c>
+      <c r="AA164">
+        <v>5.8</v>
+      </c>
+      <c r="AB164">
+        <v>1.11</v>
+      </c>
+      <c r="AC164">
+        <v>7.84</v>
+      </c>
+      <c r="AD164">
+        <v>3.52</v>
+      </c>
+      <c r="AE164">
+        <v>1.43</v>
+      </c>
+      <c r="AF164">
+        <v>1.03</v>
+      </c>
+      <c r="AG164">
+        <v>11</v>
+      </c>
+      <c r="AH164">
+        <v>1.2</v>
+      </c>
+      <c r="AI164">
+        <v>4.2</v>
+      </c>
+      <c r="AJ164">
+        <v>1.63</v>
+      </c>
+      <c r="AK164">
+        <v>2.23</v>
+      </c>
+      <c r="AL164">
+        <v>2.2</v>
+      </c>
+      <c r="AM164">
+        <v>1.62</v>
+      </c>
+      <c r="AN164">
+        <v>3.75</v>
+      </c>
+      <c r="AO164">
+        <v>1.09</v>
+      </c>
+      <c r="AP164">
+        <v>1.01</v>
+      </c>
+      <c r="AQ164">
+        <v>2</v>
+      </c>
+      <c r="AR164">
+        <v>2.8</v>
+      </c>
+      <c r="AS164">
+        <v>1.82</v>
+      </c>
+      <c r="AT164">
+        <v>2.82</v>
+      </c>
+      <c r="AU164">
+        <v>1.55</v>
+      </c>
+      <c r="AV164">
+        <v>2.19</v>
+      </c>
+      <c r="AW164">
+        <v>3.74</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>14</v>
+      </c>
+      <c r="BH164">
+        <v>2</v>
+      </c>
+      <c r="BI164">
+        <v>9</v>
+      </c>
+      <c r="BJ164">
+        <v>2</v>
+      </c>
+      <c r="BK164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2447708</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>76</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>191</v>
+      </c>
+      <c r="P165" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>8</v>
+      </c>
+      <c r="S165">
+        <v>14</v>
+      </c>
+      <c r="T165">
+        <v>2.05</v>
+      </c>
+      <c r="U165">
+        <v>2.1</v>
+      </c>
+      <c r="V165">
+        <v>6.5</v>
+      </c>
+      <c r="W165">
+        <v>1.48</v>
+      </c>
+      <c r="X165">
+        <v>2.5</v>
+      </c>
+      <c r="Y165">
+        <v>3.4</v>
+      </c>
+      <c r="Z165">
+        <v>1.3</v>
+      </c>
+      <c r="AA165">
+        <v>10</v>
+      </c>
+      <c r="AB165">
+        <v>1.05</v>
+      </c>
+      <c r="AC165">
+        <v>1.55</v>
+      </c>
+      <c r="AD165">
+        <v>2.88</v>
+      </c>
+      <c r="AE165">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AF165">
+        <v>1.1</v>
+      </c>
+      <c r="AG165">
+        <v>6.5</v>
+      </c>
+      <c r="AH165">
+        <v>1.4</v>
+      </c>
+      <c r="AI165">
+        <v>2.8</v>
+      </c>
+      <c r="AJ165">
+        <v>2.27</v>
+      </c>
+      <c r="AK165">
+        <v>1.61</v>
+      </c>
+      <c r="AL165">
+        <v>2.4</v>
+      </c>
+      <c r="AM165">
+        <v>1.53</v>
+      </c>
+      <c r="AN165">
+        <v>1.08</v>
+      </c>
+      <c r="AO165">
+        <v>1.23</v>
+      </c>
+      <c r="AP165">
+        <v>2.46</v>
+      </c>
+      <c r="AQ165">
+        <v>2</v>
+      </c>
+      <c r="AR165">
+        <v>0.4</v>
+      </c>
+      <c r="AS165">
+        <v>2.09</v>
+      </c>
+      <c r="AT165">
+        <v>0.36</v>
+      </c>
+      <c r="AU165">
+        <v>2.01</v>
+      </c>
+      <c r="AV165">
+        <v>1.27</v>
+      </c>
+      <c r="AW165">
+        <v>3.28</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>8</v>
+      </c>
+      <c r="BG165">
+        <v>2</v>
+      </c>
+      <c r="BH165">
+        <v>3</v>
+      </c>
+      <c r="BI165">
+        <v>2</v>
+      </c>
+      <c r="BJ165">
+        <v>11</v>
+      </c>
+      <c r="BK165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2447713</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>192</v>
+      </c>
+      <c r="P166" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q166">
+        <v>8</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>1.75</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>6.5</v>
+      </c>
+      <c r="W166">
+        <v>1.33</v>
+      </c>
+      <c r="X166">
+        <v>3.13</v>
+      </c>
+      <c r="Y166">
+        <v>2.6</v>
+      </c>
+      <c r="Z166">
+        <v>1.46</v>
+      </c>
+      <c r="AA166">
+        <v>6.25</v>
+      </c>
+      <c r="AB166">
+        <v>1.1</v>
+      </c>
+      <c r="AC166">
+        <v>1.32</v>
+      </c>
+      <c r="AD166">
+        <v>5.1</v>
+      </c>
+      <c r="AE166">
+        <v>8.5</v>
+      </c>
+      <c r="AF166">
+        <v>1.04</v>
+      </c>
+      <c r="AG166">
+        <v>10</v>
+      </c>
+      <c r="AH166">
+        <v>1.2</v>
+      </c>
+      <c r="AI166">
+        <v>4</v>
+      </c>
+      <c r="AJ166">
+        <v>1.57</v>
+      </c>
+      <c r="AK166">
+        <v>2.15</v>
+      </c>
+      <c r="AL166">
+        <v>2</v>
+      </c>
+      <c r="AM166">
+        <v>1.73</v>
+      </c>
+      <c r="AN166">
+        <v>1.04</v>
+      </c>
+      <c r="AO166">
+        <v>1.17</v>
+      </c>
+      <c r="AP166">
+        <v>3.3</v>
+      </c>
+      <c r="AQ166">
+        <v>2</v>
+      </c>
+      <c r="AR166">
+        <v>0.5</v>
+      </c>
+      <c r="AS166">
+        <v>2.09</v>
+      </c>
+      <c r="AT166">
+        <v>0.45</v>
+      </c>
+      <c r="AU166">
+        <v>1.73</v>
+      </c>
+      <c r="AV166">
+        <v>1.32</v>
+      </c>
+      <c r="AW166">
+        <v>3.05</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="AZ166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>7</v>
+      </c>
+      <c r="BG166">
+        <v>4</v>
+      </c>
+      <c r="BH166">
+        <v>3</v>
+      </c>
+      <c r="BI166">
+        <v>7</v>
+      </c>
+      <c r="BJ166">
+        <v>10</v>
+      </c>
+      <c r="BK166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2447709</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44968.60416666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>80</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>4</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>84</v>
+      </c>
+      <c r="P167" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q167">
+        <v>5</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>7</v>
+      </c>
+      <c r="T167">
+        <v>1.53</v>
+      </c>
+      <c r="U167">
+        <v>2.75</v>
+      </c>
+      <c r="V167">
+        <v>11</v>
+      </c>
+      <c r="W167">
+        <v>1.27</v>
+      </c>
+      <c r="X167">
+        <v>3.54</v>
+      </c>
+      <c r="Y167">
+        <v>2.27</v>
+      </c>
+      <c r="Z167">
+        <v>1.59</v>
+      </c>
+      <c r="AA167">
+        <v>5.1</v>
+      </c>
+      <c r="AB167">
+        <v>1.14</v>
+      </c>
+      <c r="AC167">
+        <v>1.14</v>
+      </c>
+      <c r="AD167">
+        <v>6.5</v>
+      </c>
+      <c r="AE167">
+        <v>20</v>
+      </c>
+      <c r="AF167">
+        <v>1.02</v>
+      </c>
+      <c r="AG167">
+        <v>12</v>
+      </c>
+      <c r="AH167">
+        <v>1.16</v>
+      </c>
+      <c r="AI167">
+        <v>4.75</v>
+      </c>
+      <c r="AJ167">
+        <v>1.44</v>
+      </c>
+      <c r="AK167">
+        <v>2.54</v>
+      </c>
+      <c r="AL167">
+        <v>2.4</v>
+      </c>
+      <c r="AM167">
+        <v>1.5</v>
+      </c>
+      <c r="AN167">
+        <v>1.02</v>
+      </c>
+      <c r="AO167">
+        <v>1.1</v>
+      </c>
+      <c r="AP167">
+        <v>4.8</v>
+      </c>
+      <c r="AQ167">
+        <v>2.1</v>
+      </c>
+      <c r="AR167">
+        <v>0.6</v>
+      </c>
+      <c r="AS167">
+        <v>1.91</v>
+      </c>
+      <c r="AT167">
+        <v>0.82</v>
+      </c>
+      <c r="AU167">
+        <v>2.21</v>
+      </c>
+      <c r="AV167">
+        <v>1.24</v>
+      </c>
+      <c r="AW167">
+        <v>3.45</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>4</v>
+      </c>
+      <c r="BG167">
+        <v>6</v>
+      </c>
+      <c r="BH167">
+        <v>12</v>
+      </c>
+      <c r="BI167">
+        <v>1</v>
+      </c>
+      <c r="BJ167">
+        <v>16</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2447710</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44969.41666666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>126</v>
+      </c>
+      <c r="P168" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168">
+        <v>2.8</v>
+      </c>
+      <c r="U168">
+        <v>2.05</v>
+      </c>
+      <c r="V168">
+        <v>3.6</v>
+      </c>
+      <c r="W168">
+        <v>1.43</v>
+      </c>
+      <c r="X168">
+        <v>2.65</v>
+      </c>
+      <c r="Y168">
+        <v>3</v>
+      </c>
+      <c r="Z168">
+        <v>1.36</v>
+      </c>
+      <c r="AA168">
+        <v>8</v>
+      </c>
+      <c r="AB168">
+        <v>1.08</v>
+      </c>
+      <c r="AC168">
+        <v>2.3</v>
+      </c>
+      <c r="AD168">
+        <v>3.25</v>
+      </c>
+      <c r="AE168">
+        <v>2.8</v>
+      </c>
+      <c r="AF168">
+        <v>1.06</v>
+      </c>
+      <c r="AG168">
+        <v>11</v>
+      </c>
+      <c r="AH168">
+        <v>1.3</v>
+      </c>
+      <c r="AI168">
+        <v>3.2</v>
+      </c>
+      <c r="AJ168">
+        <v>1.96</v>
+      </c>
+      <c r="AK168">
+        <v>1.75</v>
+      </c>
+      <c r="AL168">
+        <v>1.75</v>
+      </c>
+      <c r="AM168">
+        <v>1.95</v>
+      </c>
+      <c r="AN168">
+        <v>1.33</v>
+      </c>
+      <c r="AO168">
+        <v>1.3</v>
+      </c>
+      <c r="AP168">
+        <v>1.62</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>0.5</v>
+      </c>
+      <c r="AS168">
+        <v>1.18</v>
+      </c>
+      <c r="AT168">
+        <v>0.45</v>
+      </c>
+      <c r="AU168">
+        <v>1.44</v>
+      </c>
+      <c r="AV168">
+        <v>1.23</v>
+      </c>
+      <c r="AW168">
+        <v>2.67</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
+      <c r="AZ168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>1.93</v>
+      </c>
+      <c r="BC168">
+        <v>0</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>2</v>
+      </c>
+      <c r="BG168">
+        <v>4</v>
+      </c>
+      <c r="BH168">
+        <v>3</v>
+      </c>
+      <c r="BI168">
+        <v>3</v>
+      </c>
+      <c r="BJ168">
+        <v>5</v>
+      </c>
+      <c r="BK168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2447707</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44969.5</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>74</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>84</v>
+      </c>
+      <c r="P169" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q169">
+        <v>7</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>10</v>
+      </c>
+      <c r="T169">
+        <v>2.55</v>
+      </c>
+      <c r="U169">
+        <v>2.1</v>
+      </c>
+      <c r="V169">
+        <v>4</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>2.75</v>
+      </c>
+      <c r="Y169">
+        <v>2.75</v>
+      </c>
+      <c r="Z169">
+        <v>1.4</v>
+      </c>
+      <c r="AA169">
+        <v>8</v>
+      </c>
+      <c r="AB169">
+        <v>1.08</v>
+      </c>
+      <c r="AC169">
+        <v>1.95</v>
+      </c>
+      <c r="AD169">
+        <v>3.5</v>
+      </c>
+      <c r="AE169">
+        <v>3.32</v>
+      </c>
+      <c r="AF169">
+        <v>1.06</v>
+      </c>
+      <c r="AG169">
+        <v>8</v>
+      </c>
+      <c r="AH169">
+        <v>1.3</v>
+      </c>
+      <c r="AI169">
+        <v>3.3</v>
+      </c>
+      <c r="AJ169">
+        <v>1.96</v>
+      </c>
+      <c r="AK169">
+        <v>1.75</v>
+      </c>
+      <c r="AL169">
+        <v>1.8</v>
+      </c>
+      <c r="AM169">
+        <v>1.95</v>
+      </c>
+      <c r="AN169">
+        <v>1.22</v>
+      </c>
+      <c r="AO169">
+        <v>1.25</v>
+      </c>
+      <c r="AP169">
+        <v>1.8</v>
+      </c>
+      <c r="AQ169">
+        <v>2</v>
+      </c>
+      <c r="AR169">
+        <v>0.8</v>
+      </c>
+      <c r="AS169">
+        <v>1.91</v>
+      </c>
+      <c r="AT169">
+        <v>0.82</v>
+      </c>
+      <c r="AU169">
+        <v>1.68</v>
+      </c>
+      <c r="AV169">
+        <v>1.33</v>
+      </c>
+      <c r="AW169">
+        <v>3.01</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>1.98</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>6</v>
+      </c>
+      <c r="BG169">
+        <v>5</v>
+      </c>
+      <c r="BH169">
+        <v>6</v>
+      </c>
+      <c r="BI169">
+        <v>3</v>
+      </c>
+      <c r="BJ169">
+        <v>12</v>
+      </c>
+      <c r="BK169">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -33129,13 +33129,13 @@
         <v>84</v>
       </c>
       <c r="Q168">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R168">
         <v>2</v>
       </c>
       <c r="S168">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T168">
         <v>2.8</v>
@@ -33443,19 +33443,19 @@
         <v>0</v>
       </c>
       <c r="BF169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG169">
+        <v>3</v>
+      </c>
+      <c r="BH169">
+        <v>12</v>
+      </c>
+      <c r="BI169">
         <v>5</v>
       </c>
-      <c r="BH169">
-        <v>6</v>
-      </c>
-      <c r="BI169">
-        <v>3</v>
-      </c>
       <c r="BJ169">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK169">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -32320,7 +32320,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2447712</v>
+        <v>2447708</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -32335,175 +32335,175 @@
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H164" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>191</v>
+      </c>
+      <c r="P164" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q164">
         <v>6</v>
       </c>
-      <c r="N164">
-        <v>6</v>
-      </c>
-      <c r="O164" t="s">
-        <v>84</v>
-      </c>
-      <c r="P164" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q164">
-        <v>1</v>
-      </c>
       <c r="R164">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S164">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T164">
+        <v>2.05</v>
+      </c>
+      <c r="U164">
+        <v>2.1</v>
+      </c>
+      <c r="V164">
+        <v>6.5</v>
+      </c>
+      <c r="W164">
+        <v>1.48</v>
+      </c>
+      <c r="X164">
+        <v>2.5</v>
+      </c>
+      <c r="Y164">
+        <v>3.4</v>
+      </c>
+      <c r="Z164">
+        <v>1.3</v>
+      </c>
+      <c r="AA164">
+        <v>10</v>
+      </c>
+      <c r="AB164">
+        <v>1.05</v>
+      </c>
+      <c r="AC164">
+        <v>1.55</v>
+      </c>
+      <c r="AD164">
+        <v>2.88</v>
+      </c>
+      <c r="AE164">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AF164">
+        <v>1.1</v>
+      </c>
+      <c r="AG164">
+        <v>6.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.4</v>
+      </c>
+      <c r="AI164">
+        <v>2.8</v>
+      </c>
+      <c r="AJ164">
+        <v>2.27</v>
+      </c>
+      <c r="AK164">
+        <v>1.61</v>
+      </c>
+      <c r="AL164">
+        <v>2.4</v>
+      </c>
+      <c r="AM164">
+        <v>1.53</v>
+      </c>
+      <c r="AN164">
+        <v>1.08</v>
+      </c>
+      <c r="AO164">
+        <v>1.23</v>
+      </c>
+      <c r="AP164">
+        <v>2.46</v>
+      </c>
+      <c r="AQ164">
+        <v>2</v>
+      </c>
+      <c r="AR164">
+        <v>0.4</v>
+      </c>
+      <c r="AS164">
+        <v>2.09</v>
+      </c>
+      <c r="AT164">
+        <v>0.36</v>
+      </c>
+      <c r="AU164">
+        <v>2.01</v>
+      </c>
+      <c r="AV164">
+        <v>1.27</v>
+      </c>
+      <c r="AW164">
+        <v>3.28</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
         <v>8</v>
       </c>
-      <c r="U164">
-        <v>2.55</v>
-      </c>
-      <c r="V164">
-        <v>1.65</v>
-      </c>
-      <c r="W164">
-        <v>1.31</v>
-      </c>
-      <c r="X164">
-        <v>3.26</v>
-      </c>
-      <c r="Y164">
-        <v>2.4</v>
-      </c>
-      <c r="Z164">
-        <v>1.51</v>
-      </c>
-      <c r="AA164">
-        <v>5.8</v>
-      </c>
-      <c r="AB164">
-        <v>1.11</v>
-      </c>
-      <c r="AC164">
-        <v>7.84</v>
-      </c>
-      <c r="AD164">
-        <v>3.52</v>
-      </c>
-      <c r="AE164">
-        <v>1.43</v>
-      </c>
-      <c r="AF164">
-        <v>1.03</v>
-      </c>
-      <c r="AG164">
+      <c r="BG164">
+        <v>2</v>
+      </c>
+      <c r="BH164">
+        <v>3</v>
+      </c>
+      <c r="BI164">
+        <v>2</v>
+      </c>
+      <c r="BJ164">
         <v>11</v>
       </c>
-      <c r="AH164">
-        <v>1.2</v>
-      </c>
-      <c r="AI164">
-        <v>4.2</v>
-      </c>
-      <c r="AJ164">
-        <v>1.63</v>
-      </c>
-      <c r="AK164">
-        <v>2.23</v>
-      </c>
-      <c r="AL164">
-        <v>2.2</v>
-      </c>
-      <c r="AM164">
-        <v>1.62</v>
-      </c>
-      <c r="AN164">
-        <v>3.75</v>
-      </c>
-      <c r="AO164">
-        <v>1.09</v>
-      </c>
-      <c r="AP164">
-        <v>1.01</v>
-      </c>
-      <c r="AQ164">
-        <v>2</v>
-      </c>
-      <c r="AR164">
-        <v>2.8</v>
-      </c>
-      <c r="AS164">
-        <v>1.82</v>
-      </c>
-      <c r="AT164">
-        <v>2.82</v>
-      </c>
-      <c r="AU164">
-        <v>1.55</v>
-      </c>
-      <c r="AV164">
-        <v>2.19</v>
-      </c>
-      <c r="AW164">
-        <v>3.74</v>
-      </c>
-      <c r="AX164">
-        <v>0</v>
-      </c>
-      <c r="AY164">
-        <v>0</v>
-      </c>
-      <c r="AZ164">
-        <v>0</v>
-      </c>
-      <c r="BA164">
-        <v>0</v>
-      </c>
-      <c r="BB164">
-        <v>0</v>
-      </c>
-      <c r="BC164">
-        <v>0</v>
-      </c>
-      <c r="BD164">
-        <v>0</v>
-      </c>
-      <c r="BE164">
-        <v>0</v>
-      </c>
-      <c r="BF164">
-        <v>0</v>
-      </c>
-      <c r="BG164">
-        <v>14</v>
-      </c>
-      <c r="BH164">
-        <v>2</v>
-      </c>
-      <c r="BI164">
-        <v>9</v>
-      </c>
-      <c r="BJ164">
-        <v>2</v>
-      </c>
       <c r="BK164">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:63">
@@ -32511,7 +32511,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2447708</v>
+        <v>2447712</v>
       </c>
       <c r="C165" t="s">
         <v>63</v>
@@ -32526,175 +32526,175 @@
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H165" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M165">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O165" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="Q165">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R165">
+        <v>12</v>
+      </c>
+      <c r="S165">
+        <v>13</v>
+      </c>
+      <c r="T165">
         <v>8</v>
       </c>
-      <c r="S165">
+      <c r="U165">
+        <v>2.55</v>
+      </c>
+      <c r="V165">
+        <v>1.65</v>
+      </c>
+      <c r="W165">
+        <v>1.31</v>
+      </c>
+      <c r="X165">
+        <v>3.26</v>
+      </c>
+      <c r="Y165">
+        <v>2.4</v>
+      </c>
+      <c r="Z165">
+        <v>1.51</v>
+      </c>
+      <c r="AA165">
+        <v>5.8</v>
+      </c>
+      <c r="AB165">
+        <v>1.11</v>
+      </c>
+      <c r="AC165">
+        <v>7.84</v>
+      </c>
+      <c r="AD165">
+        <v>3.52</v>
+      </c>
+      <c r="AE165">
+        <v>1.43</v>
+      </c>
+      <c r="AF165">
+        <v>1.03</v>
+      </c>
+      <c r="AG165">
+        <v>11</v>
+      </c>
+      <c r="AH165">
+        <v>1.2</v>
+      </c>
+      <c r="AI165">
+        <v>4.2</v>
+      </c>
+      <c r="AJ165">
+        <v>1.63</v>
+      </c>
+      <c r="AK165">
+        <v>2.23</v>
+      </c>
+      <c r="AL165">
+        <v>2.2</v>
+      </c>
+      <c r="AM165">
+        <v>1.62</v>
+      </c>
+      <c r="AN165">
+        <v>3.75</v>
+      </c>
+      <c r="AO165">
+        <v>1.09</v>
+      </c>
+      <c r="AP165">
+        <v>1.01</v>
+      </c>
+      <c r="AQ165">
+        <v>2</v>
+      </c>
+      <c r="AR165">
+        <v>2.8</v>
+      </c>
+      <c r="AS165">
+        <v>1.82</v>
+      </c>
+      <c r="AT165">
+        <v>2.82</v>
+      </c>
+      <c r="AU165">
+        <v>1.55</v>
+      </c>
+      <c r="AV165">
+        <v>2.19</v>
+      </c>
+      <c r="AW165">
+        <v>3.74</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
         <v>14</v>
       </c>
-      <c r="T165">
-        <v>2.05</v>
-      </c>
-      <c r="U165">
-        <v>2.1</v>
-      </c>
-      <c r="V165">
-        <v>6.5</v>
-      </c>
-      <c r="W165">
-        <v>1.48</v>
-      </c>
-      <c r="X165">
-        <v>2.5</v>
-      </c>
-      <c r="Y165">
-        <v>3.4</v>
-      </c>
-      <c r="Z165">
-        <v>1.3</v>
-      </c>
-      <c r="AA165">
-        <v>10</v>
-      </c>
-      <c r="AB165">
-        <v>1.05</v>
-      </c>
-      <c r="AC165">
-        <v>1.55</v>
-      </c>
-      <c r="AD165">
-        <v>2.88</v>
-      </c>
-      <c r="AE165">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="AF165">
-        <v>1.1</v>
-      </c>
-      <c r="AG165">
-        <v>6.5</v>
-      </c>
-      <c r="AH165">
-        <v>1.4</v>
-      </c>
-      <c r="AI165">
-        <v>2.8</v>
-      </c>
-      <c r="AJ165">
-        <v>2.27</v>
-      </c>
-      <c r="AK165">
-        <v>1.61</v>
-      </c>
-      <c r="AL165">
-        <v>2.4</v>
-      </c>
-      <c r="AM165">
-        <v>1.53</v>
-      </c>
-      <c r="AN165">
-        <v>1.08</v>
-      </c>
-      <c r="AO165">
-        <v>1.23</v>
-      </c>
-      <c r="AP165">
-        <v>2.46</v>
-      </c>
-      <c r="AQ165">
-        <v>2</v>
-      </c>
-      <c r="AR165">
-        <v>0.4</v>
-      </c>
-      <c r="AS165">
-        <v>2.09</v>
-      </c>
-      <c r="AT165">
-        <v>0.36</v>
-      </c>
-      <c r="AU165">
-        <v>2.01</v>
-      </c>
-      <c r="AV165">
-        <v>1.27</v>
-      </c>
-      <c r="AW165">
-        <v>3.28</v>
-      </c>
-      <c r="AX165">
-        <v>0</v>
-      </c>
-      <c r="AY165">
-        <v>0</v>
-      </c>
-      <c r="AZ165">
-        <v>0</v>
-      </c>
-      <c r="BA165">
-        <v>0</v>
-      </c>
-      <c r="BB165">
-        <v>0</v>
-      </c>
-      <c r="BC165">
-        <v>0</v>
-      </c>
-      <c r="BD165">
-        <v>0</v>
-      </c>
-      <c r="BE165">
-        <v>0</v>
-      </c>
-      <c r="BF165">
-        <v>8</v>
-      </c>
-      <c r="BG165">
-        <v>2</v>
-      </c>
       <c r="BH165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI165">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ165">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BK165">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT3">
         <v>0.45</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT9">
         <v>1.09</v>
@@ -3993,7 +3993,7 @@
         <v>0.7</v>
       </c>
       <c r="AT15">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT21">
         <v>2.82</v>
@@ -6285,7 +6285,7 @@
         <v>1.3</v>
       </c>
       <c r="AT27">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU27">
         <v>1.94</v>
@@ -6667,7 +6667,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU29">
         <v>2.1</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT31">
         <v>0.27</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
         <v>0.82</v>
@@ -8765,10 +8765,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU40">
         <v>1.64</v>
@@ -9150,7 +9150,7 @@
         <v>2.6</v>
       </c>
       <c r="AT42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU42">
         <v>2.77</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
         <v>0.1</v>
@@ -10102,7 +10102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT47">
         <v>0.82</v>
@@ -11442,7 +11442,7 @@
         <v>0.91</v>
       </c>
       <c r="AT54">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU54">
         <v>1.12</v>
@@ -12203,10 +12203,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT58">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU58">
         <v>0.95</v>
@@ -12394,7 +12394,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT59">
         <v>1.8</v>
@@ -14877,7 +14877,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT72">
         <v>2.5</v>
@@ -15071,7 +15071,7 @@
         <v>2.09</v>
       </c>
       <c r="AT73">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU73">
         <v>1.99</v>
@@ -15641,7 +15641,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT76">
         <v>0.9</v>
@@ -16790,7 +16790,7 @@
         <v>2.09</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -17742,7 +17742,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT87">
         <v>1.9</v>
@@ -18697,7 +18697,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT92">
         <v>1.4</v>
@@ -19464,7 +19464,7 @@
         <v>1.18</v>
       </c>
       <c r="AT96">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU96">
         <v>1.36</v>
@@ -20228,7 +20228,7 @@
         <v>1.91</v>
       </c>
       <c r="AT100">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20798,7 +20798,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
         <v>0.36</v>
@@ -20989,7 +20989,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT104">
         <v>0.82</v>
@@ -22329,7 +22329,7 @@
         <v>1.91</v>
       </c>
       <c r="AT111">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU111">
         <v>1.62</v>
@@ -22520,7 +22520,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU112">
         <v>2.15</v>
@@ -24621,7 +24621,7 @@
         <v>1.91</v>
       </c>
       <c r="AT123">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU123">
         <v>1.56</v>
@@ -25385,7 +25385,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU127">
         <v>1.5</v>
@@ -26528,7 +26528,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT133">
         <v>2.82</v>
@@ -26719,7 +26719,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT134">
         <v>1.09</v>
@@ -27104,7 +27104,7 @@
         <v>0.7</v>
       </c>
       <c r="AT136">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU136">
         <v>1.11</v>
@@ -28059,7 +28059,7 @@
         <v>1.3</v>
       </c>
       <c r="AT141">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -29202,7 +29202,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT147">
         <v>0.45</v>
@@ -30539,7 +30539,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT154">
         <v>0.1</v>
@@ -30733,7 +30733,7 @@
         <v>1.3</v>
       </c>
       <c r="AT155">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31115,7 +31115,7 @@
         <v>2.6</v>
       </c>
       <c r="AT157">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU157">
         <v>2.72</v>
@@ -33459,6 +33459,388 @@
       </c>
       <c r="BK169">
         <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2447716</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44974.5</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>66</v>
+      </c>
+      <c r="H170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>156</v>
+      </c>
+      <c r="P170" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q170">
+        <v>8</v>
+      </c>
+      <c r="R170">
+        <v>11</v>
+      </c>
+      <c r="S170">
+        <v>19</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>3.69</v>
+      </c>
+      <c r="AD170">
+        <v>3.05</v>
+      </c>
+      <c r="AE170">
+        <v>1.92</v>
+      </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>0</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>2.1</v>
+      </c>
+      <c r="AK170">
+        <v>1.73</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>0</v>
+      </c>
+      <c r="AO170">
+        <v>0</v>
+      </c>
+      <c r="AP170">
+        <v>0</v>
+      </c>
+      <c r="AQ170">
+        <v>1.5</v>
+      </c>
+      <c r="AR170">
+        <v>1.4</v>
+      </c>
+      <c r="AS170">
+        <v>1.45</v>
+      </c>
+      <c r="AT170">
+        <v>1.36</v>
+      </c>
+      <c r="AU170">
+        <v>1.13</v>
+      </c>
+      <c r="AV170">
+        <v>1.31</v>
+      </c>
+      <c r="AW170">
+        <v>2.44</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>5</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>4</v>
+      </c>
+      <c r="BI170">
+        <v>6</v>
+      </c>
+      <c r="BJ170">
+        <v>9</v>
+      </c>
+      <c r="BK170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2447717</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44974.58333333334</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>72</v>
+      </c>
+      <c r="H171" t="s">
+        <v>65</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>95</v>
+      </c>
+      <c r="P171" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q171">
+        <v>6</v>
+      </c>
+      <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>10</v>
+      </c>
+      <c r="T171">
+        <v>3.75</v>
+      </c>
+      <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
+        <v>2.95</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>2.55</v>
+      </c>
+      <c r="Y171">
+        <v>3</v>
+      </c>
+      <c r="Z171">
+        <v>1.36</v>
+      </c>
+      <c r="AA171">
+        <v>7.5</v>
+      </c>
+      <c r="AB171">
+        <v>1.07</v>
+      </c>
+      <c r="AC171">
+        <v>2.93</v>
+      </c>
+      <c r="AD171">
+        <v>3.22</v>
+      </c>
+      <c r="AE171">
+        <v>2.4</v>
+      </c>
+      <c r="AF171">
+        <v>1.08</v>
+      </c>
+      <c r="AG171">
+        <v>8.85</v>
+      </c>
+      <c r="AH171">
+        <v>1.33</v>
+      </c>
+      <c r="AI171">
+        <v>3</v>
+      </c>
+      <c r="AJ171">
+        <v>2.25</v>
+      </c>
+      <c r="AK171">
+        <v>1.57</v>
+      </c>
+      <c r="AL171">
+        <v>1.85</v>
+      </c>
+      <c r="AM171">
+        <v>1.91</v>
+      </c>
+      <c r="AN171">
+        <v>1.53</v>
+      </c>
+      <c r="AO171">
+        <v>1.28</v>
+      </c>
+      <c r="AP171">
+        <v>1.3</v>
+      </c>
+      <c r="AQ171">
+        <v>1.8</v>
+      </c>
+      <c r="AR171">
+        <v>1.4</v>
+      </c>
+      <c r="AS171">
+        <v>1.91</v>
+      </c>
+      <c r="AT171">
+        <v>1.27</v>
+      </c>
+      <c r="AU171">
+        <v>1.39</v>
+      </c>
+      <c r="AV171">
+        <v>1.22</v>
+      </c>
+      <c r="AW171">
+        <v>2.61</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>3</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>3</v>
+      </c>
+      <c r="BI171">
+        <v>6</v>
+      </c>
+      <c r="BJ171">
+        <v>6</v>
+      </c>
+      <c r="BK171">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['46', '65', '74']</t>
   </si>
   <si>
+    <t>['13', '17', '67']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -815,6 +821,15 @@
   </si>
   <si>
     <t>['4', '11', '54', '58']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['16', '31']</t>
+  </si>
+  <si>
+    <t>['41', '67']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1525,7 @@
         <v>1.82</v>
       </c>
       <c r="AT2">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1611,7 +1626,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1802,7 +1817,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1892,7 +1907,7 @@
         <v>2.09</v>
       </c>
       <c r="AT4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1993,7 +2008,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2083,7 +2098,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2271,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT6">
         <v>0.82</v>
@@ -2375,7 +2390,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2948,7 +2963,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3035,10 +3050,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT10">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3139,7 +3154,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3229,7 +3244,7 @@
         <v>1.91</v>
       </c>
       <c r="AT11">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3417,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3611,7 +3626,7 @@
         <v>2.09</v>
       </c>
       <c r="AT13">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3799,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT14">
         <v>0.45</v>
@@ -3903,7 +3918,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3990,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT15">
         <v>1.36</v>
@@ -4181,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT16">
         <v>0.27</v>
@@ -4372,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT17">
         <v>1.27</v>
@@ -4476,7 +4491,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4566,7 +4581,7 @@
         <v>1.18</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU18">
         <v>1</v>
@@ -4948,7 +4963,7 @@
         <v>1.91</v>
       </c>
       <c r="AT20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5049,7 +5064,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5903,7 +5918,7 @@
         <v>1.91</v>
       </c>
       <c r="AT25">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -6091,10 +6106,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT26">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU26">
         <v>2.62</v>
@@ -6195,7 +6210,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6282,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
         <v>1.36</v>
@@ -6386,7 +6401,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6473,10 +6488,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU28">
         <v>1.06</v>
@@ -6664,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT29">
         <v>1.27</v>
@@ -6768,7 +6783,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6855,10 +6870,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.51</v>
@@ -6959,7 +6974,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7150,7 +7165,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7237,10 +7252,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT32">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU32">
         <v>0.74</v>
@@ -7622,7 +7637,7 @@
         <v>2.09</v>
       </c>
       <c r="AT34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU34">
         <v>1.75</v>
@@ -7723,7 +7738,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8487,7 +8502,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8574,10 +8589,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT39">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8678,7 +8693,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8956,10 +8971,10 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -9147,7 +9162,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT42">
         <v>1.27</v>
@@ -9251,7 +9266,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9341,7 +9356,7 @@
         <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU43">
         <v>0.95</v>
@@ -9442,7 +9457,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9529,10 +9544,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT44">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9633,7 +9648,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9720,10 +9735,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT45">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU45">
         <v>0.7</v>
@@ -9824,7 +9839,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9911,10 +9926,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -10588,7 +10603,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10779,7 +10794,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11543,7 +11558,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11630,10 +11645,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT55">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU55">
         <v>0.8</v>
@@ -11821,10 +11836,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>2.14</v>
@@ -11925,7 +11940,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12012,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT57">
         <v>0.36</v>
@@ -12116,7 +12131,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12307,7 +12322,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12397,7 +12412,7 @@
         <v>1.91</v>
       </c>
       <c r="AT59">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU59">
         <v>1.5</v>
@@ -12498,7 +12513,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12585,10 +12600,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT60">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU60">
         <v>2.53</v>
@@ -12776,10 +12791,10 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU61">
         <v>1.31</v>
@@ -13158,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
         <v>0.82</v>
@@ -13543,7 +13558,7 @@
         <v>1.82</v>
       </c>
       <c r="AT65">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU65">
         <v>1.44</v>
@@ -14026,7 +14041,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14217,7 +14232,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14408,7 +14423,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14495,7 +14510,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT70">
         <v>0.82</v>
@@ -14599,7 +14614,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14686,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT71">
         <v>0.36</v>
@@ -14790,7 +14805,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14880,7 +14895,7 @@
         <v>1.91</v>
       </c>
       <c r="AT72">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -14981,7 +14996,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15259,10 +15274,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU74">
         <v>2.65</v>
@@ -15363,7 +15378,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15450,10 +15465,10 @@
         <v>1.8</v>
       </c>
       <c r="AS75">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU75">
         <v>1.33</v>
@@ -15554,7 +15569,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15644,7 +15659,7 @@
         <v>1.45</v>
       </c>
       <c r="AT76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU76">
         <v>1.09</v>
@@ -15745,7 +15760,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15835,7 +15850,7 @@
         <v>0.91</v>
       </c>
       <c r="AT77">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU77">
         <v>1.1</v>
@@ -16214,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT79">
         <v>1.09</v>
@@ -16318,7 +16333,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16596,7 +16611,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT81">
         <v>0.45</v>
@@ -17082,7 +17097,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17172,7 +17187,7 @@
         <v>1.18</v>
       </c>
       <c r="AT84">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU84">
         <v>1.37</v>
@@ -17551,7 +17566,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT86">
         <v>0.82</v>
@@ -17655,7 +17670,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17745,7 +17760,7 @@
         <v>1.45</v>
       </c>
       <c r="AT87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.14</v>
@@ -17846,7 +17861,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17936,7 +17951,7 @@
         <v>1.82</v>
       </c>
       <c r="AT88">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -18124,7 +18139,7 @@
         <v>0.6</v>
       </c>
       <c r="AS89">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT89">
         <v>0.36</v>
@@ -18318,7 +18333,7 @@
         <v>2.09</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18509,7 +18524,7 @@
         <v>0.91</v>
       </c>
       <c r="AT91">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU91">
         <v>1.15</v>
@@ -18700,7 +18715,7 @@
         <v>1.91</v>
       </c>
       <c r="AT92">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18888,7 +18903,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT93">
         <v>0.45</v>
@@ -18992,7 +19007,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19183,7 +19198,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19273,7 +19288,7 @@
         <v>2.09</v>
       </c>
       <c r="AT95">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU95">
         <v>2.07</v>
@@ -19374,7 +19389,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19652,7 +19667,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT97">
         <v>0.45</v>
@@ -19756,7 +19771,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19843,7 +19858,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT98">
         <v>1.09</v>
@@ -19947,7 +19962,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20034,7 +20049,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT99">
         <v>2.82</v>
@@ -20138,7 +20153,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20329,7 +20344,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20610,7 +20625,7 @@
         <v>0.91</v>
       </c>
       <c r="AT102">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU102">
         <v>1.21</v>
@@ -20711,7 +20726,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21093,7 +21108,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21183,7 +21198,7 @@
         <v>2.09</v>
       </c>
       <c r="AT105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21374,7 +21389,7 @@
         <v>2.09</v>
       </c>
       <c r="AT106">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU106">
         <v>1.85</v>
@@ -21562,7 +21577,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT107">
         <v>0.45</v>
@@ -21666,7 +21681,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21756,7 +21771,7 @@
         <v>1.82</v>
       </c>
       <c r="AT108">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -21857,7 +21872,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21944,7 +21959,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT109">
         <v>1.09</v>
@@ -22135,7 +22150,7 @@
         <v>0.17</v>
       </c>
       <c r="AS110">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT110">
         <v>0.27</v>
@@ -22239,7 +22254,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22621,7 +22636,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22708,7 +22723,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT113">
         <v>0.45</v>
@@ -22812,7 +22827,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23090,10 +23105,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT115">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23194,7 +23209,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23281,7 +23296,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
         <v>2.82</v>
@@ -23385,7 +23400,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23475,7 +23490,7 @@
         <v>1.91</v>
       </c>
       <c r="AT117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU117">
         <v>2.04</v>
@@ -23767,7 +23782,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23958,7 +23973,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24048,7 +24063,7 @@
         <v>2.09</v>
       </c>
       <c r="AT120">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU120">
         <v>2.14</v>
@@ -24236,7 +24251,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT121">
         <v>0.45</v>
@@ -24340,7 +24355,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24427,7 +24442,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT122">
         <v>2.82</v>
@@ -24722,7 +24737,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24812,7 +24827,7 @@
         <v>1.91</v>
       </c>
       <c r="AT124">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -24913,7 +24928,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25000,10 +25015,10 @@
         <v>0.14</v>
       </c>
       <c r="AS125">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT125">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU125">
         <v>1.07</v>
@@ -25191,7 +25206,7 @@
         <v>0.29</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
         <v>0.27</v>
@@ -25295,7 +25310,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25382,7 +25397,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT127">
         <v>1.36</v>
@@ -25576,7 +25591,7 @@
         <v>1.18</v>
       </c>
       <c r="AT128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU128">
         <v>1.46</v>
@@ -25677,7 +25692,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25767,7 +25782,7 @@
         <v>2.09</v>
       </c>
       <c r="AT129">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU129">
         <v>1.79</v>
@@ -26441,7 +26456,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -27014,7 +27029,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27101,7 +27116,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT136">
         <v>1.27</v>
@@ -27295,7 +27310,7 @@
         <v>1.91</v>
       </c>
       <c r="AT137">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU137">
         <v>1.58</v>
@@ -27483,10 +27498,10 @@
         <v>1.75</v>
       </c>
       <c r="AS138">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT138">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU138">
         <v>1.52</v>
@@ -27674,10 +27689,10 @@
         <v>0.13</v>
       </c>
       <c r="AS139">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU139">
         <v>1.44</v>
@@ -27778,7 +27793,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -27865,7 +27880,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT140">
         <v>0.45</v>
@@ -28056,7 +28071,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT141">
         <v>1.36</v>
@@ -28247,7 +28262,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT142">
         <v>0.27</v>
@@ -28351,7 +28366,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28441,7 +28456,7 @@
         <v>2.09</v>
       </c>
       <c r="AT143">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU143">
         <v>2.09</v>
@@ -28542,7 +28557,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28733,7 +28748,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29688,7 +29703,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29969,7 +29984,7 @@
         <v>1.91</v>
       </c>
       <c r="AT151">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU151">
         <v>2.19</v>
@@ -30542,7 +30557,7 @@
         <v>1.91</v>
       </c>
       <c r="AT154">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -30730,7 +30745,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
         <v>1.27</v>
@@ -30834,7 +30849,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30921,7 +30936,7 @@
         <v>0.33</v>
       </c>
       <c r="AS156">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT156">
         <v>0.27</v>
@@ -31112,7 +31127,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT157">
         <v>1.36</v>
@@ -31216,7 +31231,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31303,10 +31318,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT158">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU158">
         <v>1.75</v>
@@ -31494,10 +31509,10 @@
         <v>2.44</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT159">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU159">
         <v>1.51</v>
@@ -31598,7 +31613,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31688,7 +31703,7 @@
         <v>1.91</v>
       </c>
       <c r="AT160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -31789,7 +31804,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31876,10 +31891,10 @@
         <v>0.67</v>
       </c>
       <c r="AS161">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT161">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU161">
         <v>1.17</v>
@@ -32171,7 +32186,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32553,7 +32568,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32935,7 +32950,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33841,6 +33856,1152 @@
       </c>
       <c r="BK171">
         <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2447715</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44975.375</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>73</v>
+      </c>
+      <c r="H172" t="s">
+        <v>70</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>84</v>
+      </c>
+      <c r="P172" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q172">
+        <v>8</v>
+      </c>
+      <c r="R172">
+        <v>5</v>
+      </c>
+      <c r="S172">
+        <v>13</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>4.5</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>2.75</v>
+      </c>
+      <c r="Y172">
+        <v>3</v>
+      </c>
+      <c r="Z172">
+        <v>1.36</v>
+      </c>
+      <c r="AA172">
+        <v>7</v>
+      </c>
+      <c r="AB172">
+        <v>1.08</v>
+      </c>
+      <c r="AC172">
+        <v>1.77</v>
+      </c>
+      <c r="AD172">
+        <v>3.3</v>
+      </c>
+      <c r="AE172">
+        <v>3.65</v>
+      </c>
+      <c r="AF172">
+        <v>1.08</v>
+      </c>
+      <c r="AG172">
+        <v>8.9</v>
+      </c>
+      <c r="AH172">
+        <v>1.33</v>
+      </c>
+      <c r="AI172">
+        <v>3</v>
+      </c>
+      <c r="AJ172">
+        <v>2.12</v>
+      </c>
+      <c r="AK172">
+        <v>1.65</v>
+      </c>
+      <c r="AL172">
+        <v>1.91</v>
+      </c>
+      <c r="AM172">
+        <v>1.8</v>
+      </c>
+      <c r="AN172">
+        <v>1.18</v>
+      </c>
+      <c r="AO172">
+        <v>1.3</v>
+      </c>
+      <c r="AP172">
+        <v>1.91</v>
+      </c>
+      <c r="AQ172">
+        <v>1.2</v>
+      </c>
+      <c r="AR172">
+        <v>0.1</v>
+      </c>
+      <c r="AS172">
+        <v>1.18</v>
+      </c>
+      <c r="AT172">
+        <v>0.18</v>
+      </c>
+      <c r="AU172">
+        <v>1.66</v>
+      </c>
+      <c r="AV172">
+        <v>1.22</v>
+      </c>
+      <c r="AW172">
+        <v>2.88</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>2</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>8</v>
+      </c>
+      <c r="BG172">
+        <v>8</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>3</v>
+      </c>
+      <c r="BJ172">
+        <v>11</v>
+      </c>
+      <c r="BK172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2447718</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>69</v>
+      </c>
+      <c r="H173" t="s">
+        <v>67</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>193</v>
+      </c>
+      <c r="P173" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q173">
+        <v>7</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>10</v>
+      </c>
+      <c r="T173">
+        <v>1.55</v>
+      </c>
+      <c r="U173">
+        <v>2.9</v>
+      </c>
+      <c r="V173">
+        <v>7.5</v>
+      </c>
+      <c r="W173">
+        <v>1.25</v>
+      </c>
+      <c r="X173">
+        <v>3.75</v>
+      </c>
+      <c r="Y173">
+        <v>2.06</v>
+      </c>
+      <c r="Z173">
+        <v>1.69</v>
+      </c>
+      <c r="AA173">
+        <v>4.33</v>
+      </c>
+      <c r="AB173">
+        <v>1.2</v>
+      </c>
+      <c r="AC173">
+        <v>1.2</v>
+      </c>
+      <c r="AD173">
+        <v>5.5</v>
+      </c>
+      <c r="AE173">
+        <v>8</v>
+      </c>
+      <c r="AF173">
+        <v>1.03</v>
+      </c>
+      <c r="AG173">
+        <v>13</v>
+      </c>
+      <c r="AH173">
+        <v>1.16</v>
+      </c>
+      <c r="AI173">
+        <v>4.75</v>
+      </c>
+      <c r="AJ173">
+        <v>1.53</v>
+      </c>
+      <c r="AK173">
+        <v>2.35</v>
+      </c>
+      <c r="AL173">
+        <v>1.95</v>
+      </c>
+      <c r="AM173">
+        <v>1.8</v>
+      </c>
+      <c r="AN173">
+        <v>1.02</v>
+      </c>
+      <c r="AO173">
+        <v>1.06</v>
+      </c>
+      <c r="AP173">
+        <v>3.8</v>
+      </c>
+      <c r="AQ173">
+        <v>2.6</v>
+      </c>
+      <c r="AR173">
+        <v>1.8</v>
+      </c>
+      <c r="AS173">
+        <v>2.64</v>
+      </c>
+      <c r="AT173">
+        <v>1.64</v>
+      </c>
+      <c r="AU173">
+        <v>2.68</v>
+      </c>
+      <c r="AV173">
+        <v>1.86</v>
+      </c>
+      <c r="AW173">
+        <v>4.54</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>3</v>
+      </c>
+      <c r="BH173">
+        <v>2</v>
+      </c>
+      <c r="BI173">
+        <v>1</v>
+      </c>
+      <c r="BJ173">
+        <v>7</v>
+      </c>
+      <c r="BK173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2447722</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44975.54166666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>79</v>
+      </c>
+      <c r="H174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>84</v>
+      </c>
+      <c r="P174" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q174">
+        <v>6</v>
+      </c>
+      <c r="R174">
+        <v>5</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>3.1</v>
+      </c>
+      <c r="U174">
+        <v>1.95</v>
+      </c>
+      <c r="V174">
+        <v>3.5</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>2.62</v>
+      </c>
+      <c r="Y174">
+        <v>3</v>
+      </c>
+      <c r="Z174">
+        <v>1.36</v>
+      </c>
+      <c r="AA174">
+        <v>7.5</v>
+      </c>
+      <c r="AB174">
+        <v>1.07</v>
+      </c>
+      <c r="AC174">
+        <v>2.5</v>
+      </c>
+      <c r="AD174">
+        <v>2.85</v>
+      </c>
+      <c r="AE174">
+        <v>2.6</v>
+      </c>
+      <c r="AF174">
+        <v>1.08</v>
+      </c>
+      <c r="AG174">
+        <v>7</v>
+      </c>
+      <c r="AH174">
+        <v>1.36</v>
+      </c>
+      <c r="AI174">
+        <v>3</v>
+      </c>
+      <c r="AJ174">
+        <v>2.4</v>
+      </c>
+      <c r="AK174">
+        <v>1.5</v>
+      </c>
+      <c r="AL174">
+        <v>1.85</v>
+      </c>
+      <c r="AM174">
+        <v>1.85</v>
+      </c>
+      <c r="AN174">
+        <v>1.3</v>
+      </c>
+      <c r="AO174">
+        <v>1.3</v>
+      </c>
+      <c r="AP174">
+        <v>1.53</v>
+      </c>
+      <c r="AQ174">
+        <v>1.5</v>
+      </c>
+      <c r="AR174">
+        <v>1.4</v>
+      </c>
+      <c r="AS174">
+        <v>1.36</v>
+      </c>
+      <c r="AT174">
+        <v>1.55</v>
+      </c>
+      <c r="AU174">
+        <v>1.5</v>
+      </c>
+      <c r="AV174">
+        <v>1.42</v>
+      </c>
+      <c r="AW174">
+        <v>2.92</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>3</v>
+      </c>
+      <c r="BG174">
+        <v>5</v>
+      </c>
+      <c r="BH174">
+        <v>10</v>
+      </c>
+      <c r="BI174">
+        <v>2</v>
+      </c>
+      <c r="BJ174">
+        <v>13</v>
+      </c>
+      <c r="BK174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2447719</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44976.375</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>68</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>84</v>
+      </c>
+      <c r="P175" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>6</v>
+      </c>
+      <c r="T175">
+        <v>2.8</v>
+      </c>
+      <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
+        <v>4</v>
+      </c>
+      <c r="W175">
+        <v>1.44</v>
+      </c>
+      <c r="X175">
+        <v>2.62</v>
+      </c>
+      <c r="Y175">
+        <v>3</v>
+      </c>
+      <c r="Z175">
+        <v>1.36</v>
+      </c>
+      <c r="AA175">
+        <v>7.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.07</v>
+      </c>
+      <c r="AC175">
+        <v>1.98</v>
+      </c>
+      <c r="AD175">
+        <v>3.32</v>
+      </c>
+      <c r="AE175">
+        <v>3.8</v>
+      </c>
+      <c r="AF175">
+        <v>1.08</v>
+      </c>
+      <c r="AG175">
+        <v>7</v>
+      </c>
+      <c r="AH175">
+        <v>1.4</v>
+      </c>
+      <c r="AI175">
+        <v>2.75</v>
+      </c>
+      <c r="AJ175">
+        <v>2.2</v>
+      </c>
+      <c r="AK175">
+        <v>1.57</v>
+      </c>
+      <c r="AL175">
+        <v>1.91</v>
+      </c>
+      <c r="AM175">
+        <v>1.8</v>
+      </c>
+      <c r="AN175">
+        <v>1.25</v>
+      </c>
+      <c r="AO175">
+        <v>1.3</v>
+      </c>
+      <c r="AP175">
+        <v>1.66</v>
+      </c>
+      <c r="AQ175">
+        <v>1.3</v>
+      </c>
+      <c r="AR175">
+        <v>0.9</v>
+      </c>
+      <c r="AS175">
+        <v>1.27</v>
+      </c>
+      <c r="AT175">
+        <v>0.91</v>
+      </c>
+      <c r="AU175">
+        <v>1.47</v>
+      </c>
+      <c r="AV175">
+        <v>1.37</v>
+      </c>
+      <c r="AW175">
+        <v>2.84</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>1.9</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>8</v>
+      </c>
+      <c r="BI175">
+        <v>5</v>
+      </c>
+      <c r="BJ175">
+        <v>12</v>
+      </c>
+      <c r="BK175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2447721</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>157</v>
+      </c>
+      <c r="P176" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q176">
+        <v>10</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>11</v>
+      </c>
+      <c r="T176">
+        <v>4.4</v>
+      </c>
+      <c r="U176">
+        <v>2.05</v>
+      </c>
+      <c r="V176">
+        <v>2.52</v>
+      </c>
+      <c r="W176">
+        <v>1.4</v>
+      </c>
+      <c r="X176">
+        <v>2.75</v>
+      </c>
+      <c r="Y176">
+        <v>2.75</v>
+      </c>
+      <c r="Z176">
+        <v>1.4</v>
+      </c>
+      <c r="AA176">
+        <v>7</v>
+      </c>
+      <c r="AB176">
+        <v>1.08</v>
+      </c>
+      <c r="AC176">
+        <v>3.78</v>
+      </c>
+      <c r="AD176">
+        <v>3.38</v>
+      </c>
+      <c r="AE176">
+        <v>1.96</v>
+      </c>
+      <c r="AF176">
+        <v>1.07</v>
+      </c>
+      <c r="AG176">
+        <v>7.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.36</v>
+      </c>
+      <c r="AI176">
+        <v>3</v>
+      </c>
+      <c r="AJ176">
+        <v>2.13</v>
+      </c>
+      <c r="AK176">
+        <v>1.71</v>
+      </c>
+      <c r="AL176">
+        <v>1.91</v>
+      </c>
+      <c r="AM176">
+        <v>1.85</v>
+      </c>
+      <c r="AN176">
+        <v>1.83</v>
+      </c>
+      <c r="AO176">
+        <v>1.3</v>
+      </c>
+      <c r="AP176">
+        <v>1.22</v>
+      </c>
+      <c r="AQ176">
+        <v>0.7</v>
+      </c>
+      <c r="AR176">
+        <v>1.9</v>
+      </c>
+      <c r="AS176">
+        <v>0.64</v>
+      </c>
+      <c r="AT176">
+        <v>2</v>
+      </c>
+      <c r="AU176">
+        <v>1.27</v>
+      </c>
+      <c r="AV176">
+        <v>1.49</v>
+      </c>
+      <c r="AW176">
+        <v>2.76</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>0</v>
+      </c>
+      <c r="AZ176">
+        <v>0</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>1.83</v>
+      </c>
+      <c r="BC176">
+        <v>0</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>3</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>1</v>
+      </c>
+      <c r="BI176">
+        <v>3</v>
+      </c>
+      <c r="BJ176">
+        <v>4</v>
+      </c>
+      <c r="BK176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2447720</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44976.54166666666</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s">
+        <v>80</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>194</v>
+      </c>
+      <c r="P177" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q177">
+        <v>5</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>7</v>
+      </c>
+      <c r="T177">
+        <v>6</v>
+      </c>
+      <c r="U177">
+        <v>2.45</v>
+      </c>
+      <c r="V177">
+        <v>1.8</v>
+      </c>
+      <c r="W177">
+        <v>1.3</v>
+      </c>
+      <c r="X177">
+        <v>3.4</v>
+      </c>
+      <c r="Y177">
+        <v>2.3</v>
+      </c>
+      <c r="Z177">
+        <v>1.57</v>
+      </c>
+      <c r="AA177">
+        <v>5</v>
+      </c>
+      <c r="AB177">
+        <v>1.14</v>
+      </c>
+      <c r="AC177">
+        <v>7.2</v>
+      </c>
+      <c r="AD177">
+        <v>4.6</v>
+      </c>
+      <c r="AE177">
+        <v>1.4</v>
+      </c>
+      <c r="AF177">
+        <v>1.04</v>
+      </c>
+      <c r="AG177">
+        <v>10</v>
+      </c>
+      <c r="AH177">
+        <v>1.22</v>
+      </c>
+      <c r="AI177">
+        <v>4</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>2</v>
+      </c>
+      <c r="AL177">
+        <v>1.91</v>
+      </c>
+      <c r="AM177">
+        <v>1.8</v>
+      </c>
+      <c r="AN177">
+        <v>3</v>
+      </c>
+      <c r="AO177">
+        <v>1.18</v>
+      </c>
+      <c r="AP177">
+        <v>1.06</v>
+      </c>
+      <c r="AQ177">
+        <v>1.3</v>
+      </c>
+      <c r="AR177">
+        <v>2.5</v>
+      </c>
+      <c r="AS177">
+        <v>1.18</v>
+      </c>
+      <c r="AT177">
+        <v>2.55</v>
+      </c>
+      <c r="AU177">
+        <v>1.79</v>
+      </c>
+      <c r="AV177">
+        <v>1.8</v>
+      </c>
+      <c r="AW177">
+        <v>3.59</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>2</v>
+      </c>
+      <c r="BG177">
+        <v>5</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>2</v>
+      </c>
+      <c r="BK177">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['56', '65']</t>
   </si>
   <si>
     <t>['40']</t>
@@ -1191,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT2">
         <v>1.55</v>
@@ -1626,7 +1629,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1817,7 +1820,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2008,7 +2011,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2289,7 +2292,7 @@
         <v>2.64</v>
       </c>
       <c r="AT6">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2390,7 +2393,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2963,7 +2966,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3154,7 +3157,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3918,7 +3921,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4199,7 +4202,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4387,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>1.27</v>
@@ -4491,7 +4494,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5064,7 +5067,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5533,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
         <v>0.82</v>
@@ -6210,7 +6213,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6401,7 +6404,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6488,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
         <v>0.91</v>
@@ -6783,7 +6786,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6974,7 +6977,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7064,7 +7067,7 @@
         <v>1.91</v>
       </c>
       <c r="AT31">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7165,7 +7168,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7443,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
         <v>1.09</v>
@@ -7738,7 +7741,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7828,7 +7831,7 @@
         <v>1.45</v>
       </c>
       <c r="AT35">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU35">
         <v>0.86</v>
@@ -8502,7 +8505,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8693,7 +8696,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8971,7 +8974,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
         <v>2</v>
@@ -9266,7 +9269,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9457,7 +9460,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9648,7 +9651,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9839,7 +9842,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10120,7 +10123,7 @@
         <v>1.91</v>
       </c>
       <c r="AT47">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.58</v>
@@ -10502,7 +10505,7 @@
         <v>2.09</v>
       </c>
       <c r="AT49">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10603,7 +10606,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10794,7 +10797,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10884,7 +10887,7 @@
         <v>0.91</v>
       </c>
       <c r="AT51">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11263,7 +11266,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
         <v>0.45</v>
@@ -11558,7 +11561,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11940,7 +11943,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12131,7 +12134,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12322,7 +12325,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12513,7 +12516,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13173,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.82</v>
@@ -13367,7 +13370,7 @@
         <v>2.09</v>
       </c>
       <c r="AT64">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13555,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
         <v>0.18</v>
@@ -14041,7 +14044,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14232,7 +14235,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14322,7 +14325,7 @@
         <v>2.09</v>
       </c>
       <c r="AT69">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU69">
         <v>2.05</v>
@@ -14423,7 +14426,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14614,7 +14617,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14805,7 +14808,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14996,7 +14999,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15378,7 +15381,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15569,7 +15572,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15760,7 +15763,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16229,7 +16232,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
         <v>1.09</v>
@@ -16333,7 +16336,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16996,7 +16999,7 @@
         <v>1.91</v>
       </c>
       <c r="AT83">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU83">
         <v>1.58</v>
@@ -17097,7 +17100,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17375,10 +17378,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17670,7 +17673,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17861,7 +17864,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17948,7 +17951,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
         <v>1.64</v>
@@ -19007,7 +19010,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19097,7 +19100,7 @@
         <v>1.91</v>
       </c>
       <c r="AT94">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -19198,7 +19201,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19389,7 +19392,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19667,7 +19670,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
         <v>0.45</v>
@@ -19771,7 +19774,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19962,7 +19965,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20153,7 +20156,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20344,7 +20347,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20434,7 +20437,7 @@
         <v>2.09</v>
       </c>
       <c r="AT101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.83</v>
@@ -20726,7 +20729,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21108,7 +21111,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21681,7 +21684,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21768,7 +21771,7 @@
         <v>2.29</v>
       </c>
       <c r="AS108">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT108">
         <v>2.55</v>
@@ -21872,7 +21875,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22153,7 +22156,7 @@
         <v>0.64</v>
       </c>
       <c r="AT110">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU110">
         <v>1.06</v>
@@ -22254,7 +22257,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22636,7 +22639,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22827,7 +22830,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22917,7 +22920,7 @@
         <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -23105,7 +23108,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>0.18</v>
@@ -23209,7 +23212,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23400,7 +23403,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23782,7 +23785,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23973,7 +23976,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24355,7 +24358,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24737,7 +24740,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24928,7 +24931,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25209,7 +25212,7 @@
         <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25310,7 +25313,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25397,7 +25400,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT127">
         <v>1.36</v>
@@ -25692,7 +25695,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25970,7 +25973,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT130">
         <v>0.36</v>
@@ -26456,7 +26459,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26928,7 +26931,7 @@
         <v>1.91</v>
       </c>
       <c r="AT135">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU135">
         <v>2.25</v>
@@ -27029,7 +27032,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27498,7 +27501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT138">
         <v>1.64</v>
@@ -27793,7 +27796,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -28265,7 +28268,7 @@
         <v>2.64</v>
       </c>
       <c r="AT142">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU142">
         <v>2.72</v>
@@ -28366,7 +28369,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28557,7 +28560,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28748,7 +28751,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29411,7 +29414,7 @@
         <v>2.09</v>
       </c>
       <c r="AT148">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU148">
         <v>2.01</v>
@@ -29703,7 +29706,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30363,7 +30366,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT153">
         <v>0.45</v>
@@ -30849,7 +30852,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30939,7 +30942,7 @@
         <v>1.18</v>
       </c>
       <c r="AT156">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU156">
         <v>1.68</v>
@@ -31231,7 +31234,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31509,7 +31512,7 @@
         <v>2.44</v>
       </c>
       <c r="AS159">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT159">
         <v>2.55</v>
@@ -31613,7 +31616,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31804,7 +31807,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32085,7 +32088,7 @@
         <v>0.91</v>
       </c>
       <c r="AT162">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU162">
         <v>1.24</v>
@@ -32186,7 +32189,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32568,7 +32571,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32655,7 +32658,7 @@
         <v>2.8</v>
       </c>
       <c r="AS165">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT165">
         <v>2.82</v>
@@ -32950,7 +32953,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33422,7 +33425,7 @@
         <v>1.91</v>
       </c>
       <c r="AT169">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU169">
         <v>1.68</v>
@@ -34287,7 +34290,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34374,7 +34377,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT174">
         <v>1.55</v>
@@ -34669,7 +34672,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34860,7 +34863,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35002,6 +35005,388 @@
       </c>
       <c r="BK177">
         <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2447723</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44980.4375</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>79</v>
+      </c>
+      <c r="H178" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>195</v>
+      </c>
+      <c r="P178" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>8</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>3.6</v>
+      </c>
+      <c r="W178">
+        <v>1.48</v>
+      </c>
+      <c r="X178">
+        <v>2.5</v>
+      </c>
+      <c r="Y178">
+        <v>3.05</v>
+      </c>
+      <c r="Z178">
+        <v>1.32</v>
+      </c>
+      <c r="AA178">
+        <v>7.25</v>
+      </c>
+      <c r="AB178">
+        <v>1.06</v>
+      </c>
+      <c r="AC178">
+        <v>2.3</v>
+      </c>
+      <c r="AD178">
+        <v>3</v>
+      </c>
+      <c r="AE178">
+        <v>2.88</v>
+      </c>
+      <c r="AF178">
+        <v>1.07</v>
+      </c>
+      <c r="AG178">
+        <v>7</v>
+      </c>
+      <c r="AH178">
+        <v>1.36</v>
+      </c>
+      <c r="AI178">
+        <v>3</v>
+      </c>
+      <c r="AJ178">
+        <v>2.36</v>
+      </c>
+      <c r="AK178">
+        <v>1.52</v>
+      </c>
+      <c r="AL178">
+        <v>1.83</v>
+      </c>
+      <c r="AM178">
+        <v>1.9</v>
+      </c>
+      <c r="AN178">
+        <v>1.3</v>
+      </c>
+      <c r="AO178">
+        <v>1.3</v>
+      </c>
+      <c r="AP178">
+        <v>1.55</v>
+      </c>
+      <c r="AQ178">
+        <v>1.36</v>
+      </c>
+      <c r="AR178">
+        <v>0.82</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>0.75</v>
+      </c>
+      <c r="AU178">
+        <v>1.52</v>
+      </c>
+      <c r="AV178">
+        <v>1.31</v>
+      </c>
+      <c r="AW178">
+        <v>2.83</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>2</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>2</v>
+      </c>
+      <c r="BH178">
+        <v>2</v>
+      </c>
+      <c r="BI178">
+        <v>4</v>
+      </c>
+      <c r="BJ178">
+        <v>5</v>
+      </c>
+      <c r="BK178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2447729</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44980.52083333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" t="s">
+        <v>66</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>141</v>
+      </c>
+      <c r="P179" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>1</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>1.95</v>
+      </c>
+      <c r="AD179">
+        <v>3</v>
+      </c>
+      <c r="AE179">
+        <v>3.75</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>2.19</v>
+      </c>
+      <c r="AK179">
+        <v>1.6</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>0</v>
+      </c>
+      <c r="AO179">
+        <v>0</v>
+      </c>
+      <c r="AP179">
+        <v>0</v>
+      </c>
+      <c r="AQ179">
+        <v>1.82</v>
+      </c>
+      <c r="AR179">
+        <v>0.27</v>
+      </c>
+      <c r="AS179">
+        <v>1.75</v>
+      </c>
+      <c r="AT179">
+        <v>0.33</v>
+      </c>
+      <c r="AU179">
+        <v>1.42</v>
+      </c>
+      <c r="AV179">
+        <v>0.89</v>
+      </c>
+      <c r="AW179">
+        <v>2.31</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>3</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>7</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,12 @@
     <t>['56', '65']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['60', '74', '82']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -833,6 +839,9 @@
   </si>
   <si>
     <t>['41', '67']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,7 +1638,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1820,7 +1829,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1907,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -2011,7 +2020,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2393,7 +2402,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2671,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0.36</v>
@@ -2966,7 +2975,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3157,7 +3166,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3438,7 +3447,7 @@
         <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3820,7 +3829,7 @@
         <v>2.64</v>
       </c>
       <c r="AT14">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU14">
         <v>2.22</v>
@@ -3921,7 +3930,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4494,7 +4503,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5067,7 +5076,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5345,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.45</v>
@@ -5727,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT24">
         <v>0.36</v>
@@ -6112,7 +6121,7 @@
         <v>2.64</v>
       </c>
       <c r="AT26">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU26">
         <v>2.62</v>
@@ -6213,7 +6222,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6404,7 +6413,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6786,7 +6795,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6977,7 +6986,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7168,7 +7177,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7741,7 +7750,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8022,7 +8031,7 @@
         <v>0.91</v>
       </c>
       <c r="AT36">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU36">
         <v>0.95</v>
@@ -8210,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT37">
         <v>0.45</v>
@@ -8505,7 +8514,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8696,7 +8705,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9269,7 +9278,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9359,7 +9368,7 @@
         <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU43">
         <v>0.95</v>
@@ -9460,7 +9469,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9651,7 +9660,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9842,7 +9851,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10502,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>0.33</v>
@@ -10606,7 +10615,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10797,7 +10806,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11269,7 +11278,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU53">
         <v>1.45</v>
@@ -11561,7 +11570,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11943,7 +11952,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12134,7 +12143,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12325,7 +12334,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12516,7 +12525,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13367,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>0.75</v>
@@ -13561,7 +13570,7 @@
         <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU65">
         <v>1.44</v>
@@ -13752,7 +13761,7 @@
         <v>1.18</v>
       </c>
       <c r="AT66">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU66">
         <v>1.27</v>
@@ -14044,7 +14053,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14235,7 +14244,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14322,7 +14331,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT69">
         <v>0.33</v>
@@ -14426,7 +14435,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14617,7 +14626,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14808,7 +14817,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14999,7 +15008,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15086,7 +15095,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>1.27</v>
@@ -15381,7 +15390,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15572,7 +15581,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15763,7 +15772,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16044,7 +16053,7 @@
         <v>2.09</v>
       </c>
       <c r="AT78">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU78">
         <v>2.01</v>
@@ -16336,7 +16345,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16805,7 +16814,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT82">
         <v>1.36</v>
@@ -17100,7 +17109,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17190,7 +17199,7 @@
         <v>1.18</v>
       </c>
       <c r="AT84">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU84">
         <v>1.37</v>
@@ -17673,7 +17682,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17864,7 +17873,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18333,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -19010,7 +19019,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19201,7 +19210,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19291,7 +19300,7 @@
         <v>2.09</v>
       </c>
       <c r="AT95">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU95">
         <v>2.07</v>
@@ -19392,7 +19401,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19673,7 +19682,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU97">
         <v>1.29</v>
@@ -19774,7 +19783,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19965,7 +19974,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20156,7 +20165,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20347,7 +20356,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20434,7 +20443,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT101">
         <v>0.75</v>
@@ -20729,7 +20738,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21111,7 +21120,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21198,7 +21207,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>2</v>
@@ -21389,7 +21398,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT106">
         <v>0.91</v>
@@ -21684,7 +21693,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21875,7 +21884,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22257,7 +22266,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22639,7 +22648,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22729,7 +22738,7 @@
         <v>1.18</v>
       </c>
       <c r="AT113">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU113">
         <v>1.73</v>
@@ -22830,7 +22839,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23111,7 +23120,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23212,7 +23221,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23403,7 +23412,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23785,7 +23794,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23872,7 +23881,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>2.82</v>
@@ -23976,7 +23985,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24257,7 +24266,7 @@
         <v>1.27</v>
       </c>
       <c r="AT121">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU121">
         <v>1.35</v>
@@ -24358,7 +24367,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24740,7 +24749,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24931,7 +24940,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25021,7 +25030,7 @@
         <v>0.64</v>
       </c>
       <c r="AT125">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU125">
         <v>1.07</v>
@@ -25313,7 +25322,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25695,7 +25704,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25782,7 +25791,7 @@
         <v>1.63</v>
       </c>
       <c r="AS129">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT129">
         <v>1.55</v>
@@ -26164,7 +26173,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>0.82</v>
@@ -26459,7 +26468,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -27032,7 +27041,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27695,7 +27704,7 @@
         <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU139">
         <v>1.44</v>
@@ -27796,7 +27805,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -27886,7 +27895,7 @@
         <v>1.18</v>
       </c>
       <c r="AT140">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU140">
         <v>1.67</v>
@@ -28369,7 +28378,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28560,7 +28569,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28751,7 +28760,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -28838,7 +28847,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT145">
         <v>2.82</v>
@@ -29223,7 +29232,7 @@
         <v>1.45</v>
       </c>
       <c r="AT147">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU147">
         <v>1.07</v>
@@ -29602,7 +29611,7 @@
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT149">
         <v>1.09</v>
@@ -29706,7 +29715,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30175,7 +30184,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT152">
         <v>0.82</v>
@@ -30560,7 +30569,7 @@
         <v>1.91</v>
       </c>
       <c r="AT154">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -30852,7 +30861,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31234,7 +31243,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31616,7 +31625,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31807,7 +31816,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32189,7 +32198,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32276,7 +32285,7 @@
         <v>1.2</v>
       </c>
       <c r="AS163">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT163">
         <v>1.09</v>
@@ -32571,7 +32580,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32849,10 +32858,10 @@
         <v>0.5</v>
       </c>
       <c r="AS166">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT166">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU166">
         <v>1.73</v>
@@ -32953,7 +32962,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33998,7 +34007,7 @@
         <v>1.18</v>
       </c>
       <c r="AT172">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU172">
         <v>1.66</v>
@@ -34290,7 +34299,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34672,7 +34681,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34863,7 +34872,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35387,6 +35396,388 @@
       </c>
       <c r="BK179">
         <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2447730</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44981.5</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>196</v>
+      </c>
+      <c r="P180" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q180">
+        <v>12</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>14</v>
+      </c>
+      <c r="T180">
+        <v>1.95</v>
+      </c>
+      <c r="U180">
+        <v>2.25</v>
+      </c>
+      <c r="V180">
+        <v>6</v>
+      </c>
+      <c r="W180">
+        <v>1.38</v>
+      </c>
+      <c r="X180">
+        <v>2.85</v>
+      </c>
+      <c r="Y180">
+        <v>2.7</v>
+      </c>
+      <c r="Z180">
+        <v>1.4</v>
+      </c>
+      <c r="AA180">
+        <v>6.25</v>
+      </c>
+      <c r="AB180">
+        <v>1.09</v>
+      </c>
+      <c r="AC180">
+        <v>1.4</v>
+      </c>
+      <c r="AD180">
+        <v>4.33</v>
+      </c>
+      <c r="AE180">
+        <v>6</v>
+      </c>
+      <c r="AF180">
+        <v>1.05</v>
+      </c>
+      <c r="AG180">
+        <v>12.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.28</v>
+      </c>
+      <c r="AI180">
+        <v>3.5</v>
+      </c>
+      <c r="AJ180">
+        <v>1.9</v>
+      </c>
+      <c r="AK180">
+        <v>1.9</v>
+      </c>
+      <c r="AL180">
+        <v>2.05</v>
+      </c>
+      <c r="AM180">
+        <v>1.72</v>
+      </c>
+      <c r="AN180">
+        <v>1.05</v>
+      </c>
+      <c r="AO180">
+        <v>1.17</v>
+      </c>
+      <c r="AP180">
+        <v>2.5</v>
+      </c>
+      <c r="AQ180">
+        <v>2.09</v>
+      </c>
+      <c r="AR180">
+        <v>0.18</v>
+      </c>
+      <c r="AS180">
+        <v>2</v>
+      </c>
+      <c r="AT180">
+        <v>0.25</v>
+      </c>
+      <c r="AU180">
+        <v>1.72</v>
+      </c>
+      <c r="AV180">
+        <v>1.26</v>
+      </c>
+      <c r="AW180">
+        <v>2.98</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>5</v>
+      </c>
+      <c r="BG180">
+        <v>5</v>
+      </c>
+      <c r="BH180">
+        <v>12</v>
+      </c>
+      <c r="BI180">
+        <v>6</v>
+      </c>
+      <c r="BJ180">
+        <v>17</v>
+      </c>
+      <c r="BK180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2447728</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44981.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>67</v>
+      </c>
+      <c r="H181" t="s">
+        <v>72</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>197</v>
+      </c>
+      <c r="P181" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>7</v>
+      </c>
+      <c r="T181">
+        <v>1.83</v>
+      </c>
+      <c r="U181">
+        <v>2.45</v>
+      </c>
+      <c r="V181">
+        <v>6</v>
+      </c>
+      <c r="W181">
+        <v>1.34</v>
+      </c>
+      <c r="X181">
+        <v>3.1</v>
+      </c>
+      <c r="Y181">
+        <v>2.55</v>
+      </c>
+      <c r="Z181">
+        <v>1.46</v>
+      </c>
+      <c r="AA181">
+        <v>6.3</v>
+      </c>
+      <c r="AB181">
+        <v>1.1</v>
+      </c>
+      <c r="AC181">
+        <v>1.4</v>
+      </c>
+      <c r="AD181">
+        <v>4.33</v>
+      </c>
+      <c r="AE181">
+        <v>6</v>
+      </c>
+      <c r="AF181">
+        <v>1</v>
+      </c>
+      <c r="AG181">
+        <v>10.25</v>
+      </c>
+      <c r="AH181">
+        <v>1.22</v>
+      </c>
+      <c r="AI181">
+        <v>4</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>2</v>
+      </c>
+      <c r="AL181">
+        <v>2</v>
+      </c>
+      <c r="AM181">
+        <v>1.75</v>
+      </c>
+      <c r="AN181">
+        <v>1.04</v>
+      </c>
+      <c r="AO181">
+        <v>1.12</v>
+      </c>
+      <c r="AP181">
+        <v>2.75</v>
+      </c>
+      <c r="AQ181">
+        <v>2.09</v>
+      </c>
+      <c r="AR181">
+        <v>0.45</v>
+      </c>
+      <c r="AS181">
+        <v>2.17</v>
+      </c>
+      <c r="AT181">
+        <v>0.42</v>
+      </c>
+      <c r="AU181">
+        <v>1.62</v>
+      </c>
+      <c r="AV181">
+        <v>1.32</v>
+      </c>
+      <c r="AW181">
+        <v>2.94</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>6</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>9</v>
+      </c>
+      <c r="BI181">
+        <v>3</v>
+      </c>
+      <c r="BJ181">
+        <v>15</v>
+      </c>
+      <c r="BK181">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['60', '74', '82']</t>
   </si>
   <si>
+    <t>['12', '21']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -842,6 +845,12 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['38', '56']</t>
+  </si>
+  <si>
+    <t>['50', '75']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1638,7 +1647,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1728,7 +1737,7 @@
         <v>1.45</v>
       </c>
       <c r="AT3">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1829,7 +1838,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2020,7 +2029,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT5">
         <v>2.55</v>
@@ -2402,7 +2411,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2492,7 +2501,7 @@
         <v>0.91</v>
       </c>
       <c r="AT7">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2975,7 +2984,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3166,7 +3175,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3253,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.64</v>
@@ -3635,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>0.91</v>
@@ -3930,7 +3939,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4503,7 +4512,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4590,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT18">
         <v>1.55</v>
@@ -5076,7 +5085,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5166,7 +5175,7 @@
         <v>1.45</v>
       </c>
       <c r="AT21">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU21">
         <v>0.95</v>
@@ -5357,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU22">
         <v>2.29</v>
@@ -5548,7 +5557,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5927,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>2.55</v>
@@ -6222,7 +6231,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6413,7 +6422,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6795,7 +6804,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6986,7 +6995,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7177,7 +7186,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7646,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <v>1.55</v>
@@ -7750,7 +7759,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8222,7 +8231,7 @@
         <v>2.17</v>
       </c>
       <c r="AT37">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>2.19</v>
@@ -8410,10 +8419,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8514,7 +8523,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8705,7 +8714,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9278,7 +9287,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9469,7 +9478,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9660,7 +9669,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9851,7 +9860,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10320,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>0.36</v>
@@ -10615,7 +10624,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10702,7 +10711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS50">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT50">
         <v>1.09</v>
@@ -10806,7 +10815,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11084,10 +11093,10 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.68</v>
@@ -11570,7 +11579,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11952,7 +11961,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12143,7 +12152,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12334,7 +12343,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12525,7 +12534,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12994,10 +13003,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13188,7 +13197,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.35</v>
@@ -13758,7 +13767,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT66">
         <v>0.42</v>
@@ -13949,7 +13958,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1.09</v>
@@ -14053,7 +14062,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14143,7 +14152,7 @@
         <v>1.91</v>
       </c>
       <c r="AT68">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU68">
         <v>1.94</v>
@@ -14244,7 +14253,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14435,7 +14444,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14525,7 +14534,7 @@
         <v>1.18</v>
       </c>
       <c r="AT70">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14626,7 +14635,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14817,7 +14826,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15008,7 +15017,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15390,7 +15399,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15581,7 +15590,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15772,7 +15781,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16050,7 +16059,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT78">
         <v>0.42</v>
@@ -16345,7 +16354,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16432,10 +16441,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT80">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16626,7 +16635,7 @@
         <v>0.64</v>
       </c>
       <c r="AT81">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>0.96</v>
@@ -17109,7 +17118,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17196,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT84">
         <v>0.25</v>
@@ -17581,7 +17590,7 @@
         <v>1.27</v>
       </c>
       <c r="AT86">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU86">
         <v>1.33</v>
@@ -17682,7 +17691,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17873,7 +17882,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18918,7 +18927,7 @@
         <v>1.18</v>
       </c>
       <c r="AT93">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU93">
         <v>1.74</v>
@@ -19019,7 +19028,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19106,7 +19115,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>0.33</v>
@@ -19210,7 +19219,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19297,7 +19306,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.25</v>
@@ -19401,7 +19410,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19488,7 +19497,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT96">
         <v>1.27</v>
@@ -19783,7 +19792,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19974,7 +19983,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20064,7 +20073,7 @@
         <v>0.64</v>
       </c>
       <c r="AT99">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU99">
         <v>1.07</v>
@@ -20165,7 +20174,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20356,7 +20365,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20738,7 +20747,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21019,7 +21028,7 @@
         <v>1.91</v>
       </c>
       <c r="AT104">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21120,7 +21129,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21592,7 +21601,7 @@
         <v>2.64</v>
       </c>
       <c r="AT107">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU107">
         <v>2.74</v>
@@ -21693,7 +21702,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21884,7 +21893,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22266,7 +22275,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22353,7 +22362,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>1.36</v>
@@ -22544,7 +22553,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>1.27</v>
@@ -22648,7 +22657,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22839,7 +22848,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22926,7 +22935,7 @@
         <v>0.71</v>
       </c>
       <c r="AS114">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
         <v>0.75</v>
@@ -23221,7 +23230,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23311,7 +23320,7 @@
         <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU116">
         <v>1.44</v>
@@ -23412,7 +23421,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23794,7 +23803,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23884,7 +23893,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU119">
         <v>1.87</v>
@@ -23985,7 +23994,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24072,7 +24081,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT120">
         <v>1.64</v>
@@ -24367,7 +24376,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24457,7 +24466,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU122">
         <v>1.76</v>
@@ -24645,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>1.27</v>
@@ -24749,7 +24758,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24940,7 +24949,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25322,7 +25331,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25600,7 +25609,7 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT128">
         <v>2</v>
@@ -25704,7 +25713,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26176,7 +26185,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26367,7 +26376,7 @@
         <v>0.91</v>
       </c>
       <c r="AT132">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.25</v>
@@ -26468,7 +26477,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26558,7 +26567,7 @@
         <v>1.91</v>
       </c>
       <c r="AT133">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -27041,7 +27050,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27319,7 +27328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.91</v>
@@ -27805,7 +27814,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -28378,7 +28387,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28465,7 +28474,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>2.55</v>
@@ -28569,7 +28578,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28659,7 +28668,7 @@
         <v>1.91</v>
       </c>
       <c r="AT144">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU144">
         <v>2.19</v>
@@ -28760,7 +28769,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -28850,7 +28859,7 @@
         <v>2.17</v>
       </c>
       <c r="AT145">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU145">
         <v>1.73</v>
@@ -29038,7 +29047,7 @@
         <v>0.44</v>
       </c>
       <c r="AS146">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT146">
         <v>0.36</v>
@@ -29420,7 +29429,7 @@
         <v>0.89</v>
       </c>
       <c r="AS148">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT148">
         <v>0.75</v>
@@ -29715,7 +29724,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29805,7 +29814,7 @@
         <v>0.91</v>
       </c>
       <c r="AT150">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU150">
         <v>1.3</v>
@@ -30187,7 +30196,7 @@
         <v>2.17</v>
       </c>
       <c r="AT152">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU152">
         <v>1.61</v>
@@ -30378,7 +30387,7 @@
         <v>1.75</v>
       </c>
       <c r="AT153">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU153">
         <v>1.51</v>
@@ -30861,7 +30870,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31243,7 +31252,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31625,7 +31634,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31712,7 +31721,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>2</v>
@@ -31816,7 +31825,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32198,7 +32207,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32476,7 +32485,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT164">
         <v>0.36</v>
@@ -32580,7 +32589,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32670,7 +32679,7 @@
         <v>1.75</v>
       </c>
       <c r="AT165">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU165">
         <v>1.55</v>
@@ -32962,7 +32971,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33052,7 +33061,7 @@
         <v>1.91</v>
       </c>
       <c r="AT167">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU167">
         <v>2.21</v>
@@ -33240,10 +33249,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT168">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU168">
         <v>1.44</v>
@@ -33431,7 +33440,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT169">
         <v>0.75</v>
@@ -34299,7 +34308,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34681,7 +34690,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34872,7 +34881,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35445,7 +35454,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35778,6 +35787,579 @@
       </c>
       <c r="BK181">
         <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2447727</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>69</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>84</v>
+      </c>
+      <c r="P182" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q182">
+        <v>5</v>
+      </c>
+      <c r="R182">
+        <v>11</v>
+      </c>
+      <c r="S182">
+        <v>16</v>
+      </c>
+      <c r="T182">
+        <v>9</v>
+      </c>
+      <c r="U182">
+        <v>2.6</v>
+      </c>
+      <c r="V182">
+        <v>1.6</v>
+      </c>
+      <c r="W182">
+        <v>1.3</v>
+      </c>
+      <c r="X182">
+        <v>3.25</v>
+      </c>
+      <c r="Y182">
+        <v>2.35</v>
+      </c>
+      <c r="Z182">
+        <v>1.52</v>
+      </c>
+      <c r="AA182">
+        <v>5.25</v>
+      </c>
+      <c r="AB182">
+        <v>1.13</v>
+      </c>
+      <c r="AC182">
+        <v>9.25</v>
+      </c>
+      <c r="AD182">
+        <v>6.2</v>
+      </c>
+      <c r="AE182">
+        <v>1.18</v>
+      </c>
+      <c r="AF182">
+        <v>1.03</v>
+      </c>
+      <c r="AG182">
+        <v>17.5</v>
+      </c>
+      <c r="AH182">
+        <v>1.18</v>
+      </c>
+      <c r="AI182">
+        <v>4.5</v>
+      </c>
+      <c r="AJ182">
+        <v>1.63</v>
+      </c>
+      <c r="AK182">
+        <v>2.23</v>
+      </c>
+      <c r="AL182">
+        <v>2.3</v>
+      </c>
+      <c r="AM182">
+        <v>1.57</v>
+      </c>
+      <c r="AN182">
+        <v>4.2</v>
+      </c>
+      <c r="AO182">
+        <v>1.08</v>
+      </c>
+      <c r="AP182">
+        <v>1.05</v>
+      </c>
+      <c r="AQ182">
+        <v>1.18</v>
+      </c>
+      <c r="AR182">
+        <v>2.82</v>
+      </c>
+      <c r="AS182">
+        <v>1.08</v>
+      </c>
+      <c r="AT182">
+        <v>2.83</v>
+      </c>
+      <c r="AU182">
+        <v>1.41</v>
+      </c>
+      <c r="AV182">
+        <v>2.24</v>
+      </c>
+      <c r="AW182">
+        <v>3.65</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>8</v>
+      </c>
+      <c r="BH182">
+        <v>7</v>
+      </c>
+      <c r="BI182">
+        <v>17</v>
+      </c>
+      <c r="BJ182">
+        <v>10</v>
+      </c>
+      <c r="BK182">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2447725</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>76</v>
+      </c>
+      <c r="H183" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183" t="s">
+        <v>198</v>
+      </c>
+      <c r="P183" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q183">
+        <v>5</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>7</v>
+      </c>
+      <c r="T183">
+        <v>1.9</v>
+      </c>
+      <c r="U183">
+        <v>2.35</v>
+      </c>
+      <c r="V183">
+        <v>6</v>
+      </c>
+      <c r="W183">
+        <v>1.35</v>
+      </c>
+      <c r="X183">
+        <v>2.9</v>
+      </c>
+      <c r="Y183">
+        <v>2.65</v>
+      </c>
+      <c r="Z183">
+        <v>1.43</v>
+      </c>
+      <c r="AA183">
+        <v>6</v>
+      </c>
+      <c r="AB183">
+        <v>1.09</v>
+      </c>
+      <c r="AC183">
+        <v>1.42</v>
+      </c>
+      <c r="AD183">
+        <v>3.95</v>
+      </c>
+      <c r="AE183">
+        <v>6.2</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>12.75</v>
+      </c>
+      <c r="AH183">
+        <v>1.25</v>
+      </c>
+      <c r="AI183">
+        <v>3.6</v>
+      </c>
+      <c r="AJ183">
+        <v>1.94</v>
+      </c>
+      <c r="AK183">
+        <v>1.88</v>
+      </c>
+      <c r="AL183">
+        <v>2.05</v>
+      </c>
+      <c r="AM183">
+        <v>1.72</v>
+      </c>
+      <c r="AN183">
+        <v>1.05</v>
+      </c>
+      <c r="AO183">
+        <v>1.15</v>
+      </c>
+      <c r="AP183">
+        <v>2.7</v>
+      </c>
+      <c r="AQ183">
+        <v>2.09</v>
+      </c>
+      <c r="AR183">
+        <v>0.45</v>
+      </c>
+      <c r="AS183">
+        <v>2</v>
+      </c>
+      <c r="AT183">
+        <v>0.5</v>
+      </c>
+      <c r="AU183">
+        <v>1.98</v>
+      </c>
+      <c r="AV183">
+        <v>1.23</v>
+      </c>
+      <c r="AW183">
+        <v>3.21</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>6</v>
+      </c>
+      <c r="BG183">
+        <v>4</v>
+      </c>
+      <c r="BH183">
+        <v>6</v>
+      </c>
+      <c r="BI183">
+        <v>3</v>
+      </c>
+      <c r="BJ183">
+        <v>12</v>
+      </c>
+      <c r="BK183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2447724</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44982.58333333334</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>74</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>141</v>
+      </c>
+      <c r="P184" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q184">
+        <v>5</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>6</v>
+      </c>
+      <c r="T184">
+        <v>2.15</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>5.5</v>
+      </c>
+      <c r="W184">
+        <v>1.4</v>
+      </c>
+      <c r="X184">
+        <v>2.75</v>
+      </c>
+      <c r="Y184">
+        <v>2.75</v>
+      </c>
+      <c r="Z184">
+        <v>1.4</v>
+      </c>
+      <c r="AA184">
+        <v>8</v>
+      </c>
+      <c r="AB184">
+        <v>1.08</v>
+      </c>
+      <c r="AC184">
+        <v>1.72</v>
+      </c>
+      <c r="AD184">
+        <v>3.5</v>
+      </c>
+      <c r="AE184">
+        <v>3.95</v>
+      </c>
+      <c r="AF184">
+        <v>1.03</v>
+      </c>
+      <c r="AG184">
+        <v>9.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.28</v>
+      </c>
+      <c r="AI184">
+        <v>3.5</v>
+      </c>
+      <c r="AJ184">
+        <v>1.99</v>
+      </c>
+      <c r="AK184">
+        <v>1.83</v>
+      </c>
+      <c r="AL184">
+        <v>1.87</v>
+      </c>
+      <c r="AM184">
+        <v>1.87</v>
+      </c>
+      <c r="AN184">
+        <v>1.09</v>
+      </c>
+      <c r="AO184">
+        <v>1.22</v>
+      </c>
+      <c r="AP184">
+        <v>2.25</v>
+      </c>
+      <c r="AQ184">
+        <v>1.91</v>
+      </c>
+      <c r="AR184">
+        <v>0.82</v>
+      </c>
+      <c r="AS184">
+        <v>2</v>
+      </c>
+      <c r="AT184">
+        <v>0.75</v>
+      </c>
+      <c r="AU184">
+        <v>1.69</v>
+      </c>
+      <c r="AV184">
+        <v>1.23</v>
+      </c>
+      <c r="AW184">
+        <v>2.92</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>1.9</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>10</v>
+      </c>
+      <c r="BG184">
+        <v>6</v>
+      </c>
+      <c r="BH184">
+        <v>6</v>
+      </c>
+      <c r="BI184">
+        <v>9</v>
+      </c>
+      <c r="BJ184">
+        <v>16</v>
+      </c>
+      <c r="BK184">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,15 @@
     <t>['12', '21']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['67', '77']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -748,9 +757,6 @@
     <t>['12', '70', '84', '87']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['24', '89']</t>
   </si>
   <si>
@@ -851,6 +857,9 @@
   </si>
   <si>
     <t>['50', '75']</t>
+  </si>
+  <si>
+    <t>['9', '18', '58', '64']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1656,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1838,7 +1847,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2029,7 +2038,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2411,7 +2420,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2498,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT7">
         <v>0.75</v>
@@ -2692,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2883,7 +2892,7 @@
         <v>1.91</v>
       </c>
       <c r="AT9">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2984,7 +2993,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3071,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
         <v>2.55</v>
@@ -3175,7 +3184,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3939,7 +3948,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4026,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4411,7 +4420,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4512,7 +4521,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4790,10 +4799,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT19">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU19">
         <v>0.99</v>
@@ -4981,7 +4990,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -5085,7 +5094,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5748,7 +5757,7 @@
         <v>2.17</v>
       </c>
       <c r="AT24">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -6231,7 +6240,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6321,7 +6330,7 @@
         <v>1.27</v>
       </c>
       <c r="AT27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU27">
         <v>1.94</v>
@@ -6422,7 +6431,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6703,7 +6712,7 @@
         <v>1.18</v>
       </c>
       <c r="AT29">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU29">
         <v>2.1</v>
@@ -6804,7 +6813,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6891,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -6995,7 +7004,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7186,7 +7195,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7273,7 +7282,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT32">
         <v>1.64</v>
@@ -7467,7 +7476,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU33">
         <v>1.49</v>
@@ -7759,7 +7768,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8037,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
         <v>0.42</v>
@@ -8523,7 +8532,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8610,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
         <v>1.55</v>
@@ -8714,7 +8723,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8804,7 +8813,7 @@
         <v>1.91</v>
       </c>
       <c r="AT40">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.64</v>
@@ -9186,7 +9195,7 @@
         <v>2.64</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU42">
         <v>2.77</v>
@@ -9287,7 +9296,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9478,7 +9487,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9669,7 +9678,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9756,7 +9765,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT45">
         <v>2.55</v>
@@ -9860,7 +9869,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10332,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU48">
         <v>1.54</v>
@@ -10624,7 +10633,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10714,7 +10723,7 @@
         <v>1.08</v>
       </c>
       <c r="AT50">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU50">
         <v>1.08</v>
@@ -10815,7 +10824,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10902,7 +10911,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
         <v>0.75</v>
@@ -11475,10 +11484,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.12</v>
@@ -11579,7 +11588,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11666,7 +11675,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT55">
         <v>1.55</v>
@@ -11961,7 +11970,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12048,10 +12057,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT57">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU57">
         <v>1.65</v>
@@ -12152,7 +12161,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12242,7 +12251,7 @@
         <v>1.45</v>
       </c>
       <c r="AT58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU58">
         <v>0.95</v>
@@ -12343,7 +12352,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12534,7 +12543,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13961,7 +13970,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14062,7 +14071,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14149,7 +14158,7 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT68">
         <v>2.83</v>
@@ -14253,7 +14262,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14444,7 +14453,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14531,7 +14540,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
         <v>0.75</v>
@@ -14635,7 +14644,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14725,7 +14734,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU71">
         <v>1.87</v>
@@ -14826,7 +14835,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15017,7 +15026,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15107,7 +15116,7 @@
         <v>2</v>
       </c>
       <c r="AT73">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU73">
         <v>1.99</v>
@@ -15399,7 +15408,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15590,7 +15599,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15781,7 +15790,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15868,7 +15877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT77">
         <v>1.64</v>
@@ -16253,7 +16262,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -16354,7 +16363,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16632,7 +16641,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT81">
         <v>0.5</v>
@@ -16826,7 +16835,7 @@
         <v>2.17</v>
       </c>
       <c r="AT82">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -17014,7 +17023,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT83">
         <v>0.33</v>
@@ -17118,7 +17127,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17691,7 +17700,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17882,7 +17891,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18163,7 +18172,7 @@
         <v>2.64</v>
       </c>
       <c r="AT89">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU89">
         <v>2.78</v>
@@ -18542,7 +18551,7 @@
         <v>2.17</v>
       </c>
       <c r="AS91">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT91">
         <v>2.55</v>
@@ -18924,7 +18933,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT93">
         <v>0.5</v>
@@ -19028,7 +19037,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19219,7 +19228,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19410,7 +19419,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19500,7 +19509,7 @@
         <v>1.08</v>
       </c>
       <c r="AT96">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU96">
         <v>1.36</v>
@@ -19792,7 +19801,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19882,7 +19891,7 @@
         <v>1.18</v>
       </c>
       <c r="AT98">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19983,7 +19992,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20070,7 +20079,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT99">
         <v>2.83</v>
@@ -20174,7 +20183,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20261,10 +20270,10 @@
         <v>1.6</v>
       </c>
       <c r="AS100">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20365,7 +20374,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20643,7 +20652,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT102">
         <v>1.55</v>
@@ -20747,7 +20756,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20837,7 +20846,7 @@
         <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU103">
         <v>1.11</v>
@@ -21129,7 +21138,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21702,7 +21711,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21893,7 +21902,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21980,10 +21989,10 @@
         <v>1.14</v>
       </c>
       <c r="AS109">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT109">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU109">
         <v>1.8</v>
@@ -22171,7 +22180,7 @@
         <v>0.17</v>
       </c>
       <c r="AS110">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT110">
         <v>0.33</v>
@@ -22275,7 +22284,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22365,7 +22374,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU111">
         <v>1.62</v>
@@ -22556,7 +22565,7 @@
         <v>2</v>
       </c>
       <c r="AT112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU112">
         <v>2.15</v>
@@ -22657,7 +22666,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22848,7 +22857,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23230,7 +23239,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23421,7 +23430,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23508,7 +23517,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT117">
         <v>1.64</v>
@@ -23699,10 +23708,10 @@
         <v>0.43</v>
       </c>
       <c r="AS118">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU118">
         <v>2.05</v>
@@ -23803,7 +23812,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23994,7 +24003,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24376,7 +24385,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24463,7 +24472,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT122">
         <v>2.83</v>
@@ -24657,7 +24666,7 @@
         <v>2</v>
       </c>
       <c r="AT123">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU123">
         <v>1.56</v>
@@ -24758,7 +24767,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24845,7 +24854,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT124">
         <v>0.91</v>
@@ -24949,7 +24958,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25036,7 +25045,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT125">
         <v>0.25</v>
@@ -25331,7 +25340,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25421,7 +25430,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU127">
         <v>1.5</v>
@@ -25713,7 +25722,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25994,7 +26003,7 @@
         <v>1.75</v>
       </c>
       <c r="AT130">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26373,7 +26382,7 @@
         <v>0.29</v>
       </c>
       <c r="AS132">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26477,7 +26486,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26758,7 +26767,7 @@
         <v>1.45</v>
       </c>
       <c r="AT134">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU134">
         <v>1.08</v>
@@ -26946,7 +26955,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT135">
         <v>0.75</v>
@@ -27050,7 +27059,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27137,10 +27146,10 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT136">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU136">
         <v>1.11</v>
@@ -27814,7 +27823,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -27901,7 +27910,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT140">
         <v>0.42</v>
@@ -28095,7 +28104,7 @@
         <v>1.18</v>
       </c>
       <c r="AT141">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28387,7 +28396,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28578,7 +28587,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28665,7 +28674,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT144">
         <v>0.5</v>
@@ -28769,7 +28778,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29050,7 +29059,7 @@
         <v>1.08</v>
       </c>
       <c r="AT146">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU146">
         <v>1.46</v>
@@ -29623,7 +29632,7 @@
         <v>2</v>
       </c>
       <c r="AT149">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU149">
         <v>1.7</v>
@@ -29724,7 +29733,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29811,7 +29820,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT150">
         <v>2.83</v>
@@ -30002,7 +30011,7 @@
         <v>1.56</v>
       </c>
       <c r="AS151">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT151">
         <v>1.55</v>
@@ -30769,7 +30778,7 @@
         <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -30870,7 +30879,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30957,7 +30966,7 @@
         <v>0.33</v>
       </c>
       <c r="AS156">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT156">
         <v>0.33</v>
@@ -31151,7 +31160,7 @@
         <v>2.64</v>
       </c>
       <c r="AT157">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU157">
         <v>2.72</v>
@@ -31252,7 +31261,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31634,7 +31643,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31825,7 +31834,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31912,7 +31921,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT161">
         <v>0.91</v>
@@ -32103,7 +32112,7 @@
         <v>0.3</v>
       </c>
       <c r="AS162">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT162">
         <v>0.33</v>
@@ -32207,7 +32216,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32297,7 +32306,7 @@
         <v>2.17</v>
       </c>
       <c r="AT163">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32488,7 +32497,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU164">
         <v>2.01</v>
@@ -32589,7 +32598,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32971,7 +32980,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33058,7 +33067,7 @@
         <v>0.6</v>
       </c>
       <c r="AS167">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT167">
         <v>0.75</v>
@@ -33634,7 +33643,7 @@
         <v>1.45</v>
       </c>
       <c r="AT170">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU170">
         <v>1.13</v>
@@ -33825,7 +33834,7 @@
         <v>1.91</v>
       </c>
       <c r="AT171">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU171">
         <v>1.39</v>
@@ -34013,7 +34022,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT172">
         <v>0.25</v>
@@ -34308,7 +34317,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34690,7 +34699,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34777,7 +34786,7 @@
         <v>1.9</v>
       </c>
       <c r="AS176">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT176">
         <v>2</v>
@@ -34881,7 +34890,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35454,7 +35463,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35836,7 +35845,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36027,7 +36036,7 @@
         <v>198</v>
       </c>
       <c r="P183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36360,6 +36369,770 @@
       </c>
       <c r="BK184">
         <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2447726</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44984.41666666666</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>80</v>
+      </c>
+      <c r="H185" t="s">
+        <v>78</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>199</v>
+      </c>
+      <c r="P185" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185">
+        <v>5</v>
+      </c>
+      <c r="T185">
+        <v>1.69</v>
+      </c>
+      <c r="U185">
+        <v>2.6</v>
+      </c>
+      <c r="V185">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W185">
+        <v>1.27</v>
+      </c>
+      <c r="X185">
+        <v>3.5</v>
+      </c>
+      <c r="Y185">
+        <v>2.21</v>
+      </c>
+      <c r="Z185">
+        <v>1.61</v>
+      </c>
+      <c r="AA185">
+        <v>4.8</v>
+      </c>
+      <c r="AB185">
+        <v>1.15</v>
+      </c>
+      <c r="AC185">
+        <v>1.25</v>
+      </c>
+      <c r="AD185">
+        <v>5.75</v>
+      </c>
+      <c r="AE185">
+        <v>7.5</v>
+      </c>
+      <c r="AF185">
+        <v>1.02</v>
+      </c>
+      <c r="AG185">
+        <v>20</v>
+      </c>
+      <c r="AH185">
+        <v>1.17</v>
+      </c>
+      <c r="AI185">
+        <v>4.83</v>
+      </c>
+      <c r="AJ185">
+        <v>1.57</v>
+      </c>
+      <c r="AK185">
+        <v>2.15</v>
+      </c>
+      <c r="AL185">
+        <v>2.1</v>
+      </c>
+      <c r="AM185">
+        <v>1.7</v>
+      </c>
+      <c r="AN185">
+        <v>1.06</v>
+      </c>
+      <c r="AO185">
+        <v>1.08</v>
+      </c>
+      <c r="AP185">
+        <v>3.75</v>
+      </c>
+      <c r="AQ185">
+        <v>1.91</v>
+      </c>
+      <c r="AR185">
+        <v>1.09</v>
+      </c>
+      <c r="AS185">
+        <v>1.83</v>
+      </c>
+      <c r="AT185">
+        <v>1.08</v>
+      </c>
+      <c r="AU185">
+        <v>2.17</v>
+      </c>
+      <c r="AV185">
+        <v>1.36</v>
+      </c>
+      <c r="AW185">
+        <v>3.53</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>5</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>2</v>
+      </c>
+      <c r="BJ185">
+        <v>7</v>
+      </c>
+      <c r="BK185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2447731</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44985.5</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>71</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>4</v>
+      </c>
+      <c r="N186">
+        <v>5</v>
+      </c>
+      <c r="O186" t="s">
+        <v>200</v>
+      </c>
+      <c r="P186" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>4</v>
+      </c>
+      <c r="S186">
+        <v>7</v>
+      </c>
+      <c r="T186">
+        <v>3.38</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>3.24</v>
+      </c>
+      <c r="W186">
+        <v>1.49</v>
+      </c>
+      <c r="X186">
+        <v>2.51</v>
+      </c>
+      <c r="Y186">
+        <v>3.32</v>
+      </c>
+      <c r="Z186">
+        <v>1.3</v>
+      </c>
+      <c r="AA186">
+        <v>8.9</v>
+      </c>
+      <c r="AB186">
+        <v>1.05</v>
+      </c>
+      <c r="AC186">
+        <v>2.3</v>
+      </c>
+      <c r="AD186">
+        <v>3</v>
+      </c>
+      <c r="AE186">
+        <v>2.87</v>
+      </c>
+      <c r="AF186">
+        <v>1.06</v>
+      </c>
+      <c r="AG186">
+        <v>8.25</v>
+      </c>
+      <c r="AH186">
+        <v>1.4</v>
+      </c>
+      <c r="AI186">
+        <v>2.7</v>
+      </c>
+      <c r="AJ186">
+        <v>2.1</v>
+      </c>
+      <c r="AK186">
+        <v>1.67</v>
+      </c>
+      <c r="AL186">
+        <v>1.91</v>
+      </c>
+      <c r="AM186">
+        <v>1.85</v>
+      </c>
+      <c r="AN186">
+        <v>1.45</v>
+      </c>
+      <c r="AO186">
+        <v>1.33</v>
+      </c>
+      <c r="AP186">
+        <v>1.43</v>
+      </c>
+      <c r="AQ186">
+        <v>1.18</v>
+      </c>
+      <c r="AR186">
+        <v>1.36</v>
+      </c>
+      <c r="AS186">
+        <v>1.08</v>
+      </c>
+      <c r="AT186">
+        <v>1.5</v>
+      </c>
+      <c r="AU186">
+        <v>1.68</v>
+      </c>
+      <c r="AV186">
+        <v>1.28</v>
+      </c>
+      <c r="AW186">
+        <v>2.96</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>2</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>7</v>
+      </c>
+      <c r="BG186">
+        <v>8</v>
+      </c>
+      <c r="BH186">
+        <v>7</v>
+      </c>
+      <c r="BI186">
+        <v>2</v>
+      </c>
+      <c r="BJ186">
+        <v>14</v>
+      </c>
+      <c r="BK186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2447732</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44985.58333333334</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>70</v>
+      </c>
+      <c r="H187" t="s">
+        <v>65</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>201</v>
+      </c>
+      <c r="P187" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q187">
+        <v>8</v>
+      </c>
+      <c r="R187">
+        <v>3</v>
+      </c>
+      <c r="S187">
+        <v>11</v>
+      </c>
+      <c r="T187">
+        <v>3.5</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>3.2</v>
+      </c>
+      <c r="W187">
+        <v>1.49</v>
+      </c>
+      <c r="X187">
+        <v>2.51</v>
+      </c>
+      <c r="Y187">
+        <v>3.32</v>
+      </c>
+      <c r="Z187">
+        <v>1.3</v>
+      </c>
+      <c r="AA187">
+        <v>8.9</v>
+      </c>
+      <c r="AB187">
+        <v>1.04</v>
+      </c>
+      <c r="AC187">
+        <v>2.69</v>
+      </c>
+      <c r="AD187">
+        <v>3.05</v>
+      </c>
+      <c r="AE187">
+        <v>2.5</v>
+      </c>
+      <c r="AF187">
+        <v>1.05</v>
+      </c>
+      <c r="AG187">
+        <v>7.2</v>
+      </c>
+      <c r="AH187">
+        <v>1.39</v>
+      </c>
+      <c r="AI187">
+        <v>2.67</v>
+      </c>
+      <c r="AJ187">
+        <v>2.14</v>
+      </c>
+      <c r="AK187">
+        <v>1.63</v>
+      </c>
+      <c r="AL187">
+        <v>1.91</v>
+      </c>
+      <c r="AM187">
+        <v>1.76</v>
+      </c>
+      <c r="AN187">
+        <v>1.51</v>
+      </c>
+      <c r="AO187">
+        <v>1.33</v>
+      </c>
+      <c r="AP187">
+        <v>1.38</v>
+      </c>
+      <c r="AQ187">
+        <v>0.91</v>
+      </c>
+      <c r="AR187">
+        <v>1.27</v>
+      </c>
+      <c r="AS187">
+        <v>1.08</v>
+      </c>
+      <c r="AT187">
+        <v>1.17</v>
+      </c>
+      <c r="AU187">
+        <v>1.2</v>
+      </c>
+      <c r="AV187">
+        <v>1.19</v>
+      </c>
+      <c r="AW187">
+        <v>2.39</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>1.83</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>6</v>
+      </c>
+      <c r="BG187">
+        <v>3</v>
+      </c>
+      <c r="BH187">
+        <v>10</v>
+      </c>
+      <c r="BI187">
+        <v>3</v>
+      </c>
+      <c r="BJ187">
+        <v>16</v>
+      </c>
+      <c r="BK187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2447738</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44986.41666666666</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>77</v>
+      </c>
+      <c r="H188" t="s">
+        <v>79</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>84</v>
+      </c>
+      <c r="P188" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q188">
+        <v>12</v>
+      </c>
+      <c r="R188">
+        <v>9</v>
+      </c>
+      <c r="S188">
+        <v>21</v>
+      </c>
+      <c r="T188">
+        <v>3.2</v>
+      </c>
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>3.5</v>
+      </c>
+      <c r="W188">
+        <v>1.5</v>
+      </c>
+      <c r="X188">
+        <v>2.48</v>
+      </c>
+      <c r="Y188">
+        <v>3.32</v>
+      </c>
+      <c r="Z188">
+        <v>1.3</v>
+      </c>
+      <c r="AA188">
+        <v>9.1</v>
+      </c>
+      <c r="AB188">
+        <v>1.04</v>
+      </c>
+      <c r="AC188">
+        <v>2.37</v>
+      </c>
+      <c r="AD188">
+        <v>3.08</v>
+      </c>
+      <c r="AE188">
+        <v>2.68</v>
+      </c>
+      <c r="AF188">
+        <v>1.05</v>
+      </c>
+      <c r="AG188">
+        <v>7.1</v>
+      </c>
+      <c r="AH188">
+        <v>1.46</v>
+      </c>
+      <c r="AI188">
+        <v>2.55</v>
+      </c>
+      <c r="AJ188">
+        <v>2.32</v>
+      </c>
+      <c r="AK188">
+        <v>1.54</v>
+      </c>
+      <c r="AL188">
+        <v>1.93</v>
+      </c>
+      <c r="AM188">
+        <v>1.83</v>
+      </c>
+      <c r="AN188">
+        <v>1.38</v>
+      </c>
+      <c r="AO188">
+        <v>1.33</v>
+      </c>
+      <c r="AP188">
+        <v>1.5</v>
+      </c>
+      <c r="AQ188">
+        <v>0.64</v>
+      </c>
+      <c r="AR188">
+        <v>0.36</v>
+      </c>
+      <c r="AS188">
+        <v>0.58</v>
+      </c>
+      <c r="AT188">
+        <v>0.58</v>
+      </c>
+      <c r="AU188">
+        <v>1.23</v>
+      </c>
+      <c r="AV188">
+        <v>1.22</v>
+      </c>
+      <c r="AW188">
+        <v>2.45</v>
+      </c>
+      <c r="AX188">
+        <v>2.1</v>
+      </c>
+      <c r="AY188">
+        <v>5.7</v>
+      </c>
+      <c r="AZ188">
+        <v>2.24</v>
+      </c>
+      <c r="BA188">
+        <v>1.48</v>
+      </c>
+      <c r="BB188">
+        <v>1.93</v>
+      </c>
+      <c r="BC188">
+        <v>2.44</v>
+      </c>
+      <c r="BD188">
+        <v>3.4</v>
+      </c>
+      <c r="BE188">
+        <v>5</v>
+      </c>
+      <c r="BF188">
+        <v>6</v>
+      </c>
+      <c r="BG188">
+        <v>6</v>
+      </c>
+      <c r="BH188">
+        <v>9</v>
+      </c>
+      <c r="BI188">
+        <v>6</v>
+      </c>
+      <c r="BJ188">
+        <v>15</v>
+      </c>
+      <c r="BK188">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['67', '77']</t>
   </si>
   <si>
+    <t>['22', '86']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1221,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1558,7 @@
         <v>1.75</v>
       </c>
       <c r="AT2">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1656,7 +1659,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0.5</v>
@@ -1847,7 +1850,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2038,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2420,7 +2423,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2993,7 +2996,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3184,7 +3187,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3274,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3462,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>0.25</v>
@@ -3948,7 +3951,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4521,7 +4524,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4611,7 +4614,7 @@
         <v>1.08</v>
       </c>
       <c r="AT18">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU18">
         <v>1</v>
@@ -5094,7 +5097,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>2.83</v>
@@ -6240,7 +6243,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6431,7 +6434,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6709,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
         <v>1.17</v>
@@ -6813,7 +6816,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7004,7 +7007,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7195,7 +7198,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7285,7 +7288,7 @@
         <v>0.58</v>
       </c>
       <c r="AT32">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU32">
         <v>0.74</v>
@@ -7667,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU34">
         <v>1.75</v>
@@ -7768,7 +7771,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7855,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
         <v>0.75</v>
@@ -8532,7 +8535,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8622,7 +8625,7 @@
         <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8723,7 +8726,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9296,7 +9299,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9383,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
         <v>0.25</v>
@@ -9487,7 +9490,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9574,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT44">
         <v>0.91</v>
@@ -9678,7 +9681,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9869,7 +9872,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9959,7 +9962,7 @@
         <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -10633,7 +10636,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10824,7 +10827,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11588,7 +11591,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11678,7 +11681,7 @@
         <v>0.58</v>
       </c>
       <c r="AT55">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU55">
         <v>0.8</v>
@@ -11866,7 +11869,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
         <v>2</v>
@@ -11970,7 +11973,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12161,7 +12164,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12248,7 +12251,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT58">
         <v>1.17</v>
@@ -12352,7 +12355,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12442,7 +12445,7 @@
         <v>1.91</v>
       </c>
       <c r="AT59">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU59">
         <v>1.5</v>
@@ -12543,7 +12546,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -14071,7 +14074,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14262,7 +14265,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14453,7 +14456,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14644,7 +14647,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14731,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>0.58</v>
@@ -14835,7 +14838,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15026,7 +15029,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15408,7 +15411,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15498,7 +15501,7 @@
         <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU75">
         <v>1.33</v>
@@ -15599,7 +15602,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15686,7 +15689,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
         <v>0.91</v>
@@ -15790,7 +15793,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15880,7 +15883,7 @@
         <v>1.08</v>
       </c>
       <c r="AT77">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU77">
         <v>1.1</v>
@@ -16363,7 +16366,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17127,7 +17130,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17700,7 +17703,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17787,7 +17790,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17891,7 +17894,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17981,7 +17984,7 @@
         <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -18745,7 +18748,7 @@
         <v>1.91</v>
       </c>
       <c r="AT92">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -19037,7 +19040,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19228,7 +19231,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19419,7 +19422,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19801,7 +19804,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19888,7 +19891,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>1.08</v>
@@ -19992,7 +19995,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20374,7 +20377,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20655,7 +20658,7 @@
         <v>1.08</v>
       </c>
       <c r="AT102">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU102">
         <v>1.21</v>
@@ -20756,7 +20759,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20843,7 +20846,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>0.58</v>
@@ -21138,7 +21141,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21711,7 +21714,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21902,7 +21905,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22284,7 +22287,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22666,7 +22669,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22753,7 +22756,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
         <v>0.42</v>
@@ -22857,7 +22860,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23239,7 +23242,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23430,7 +23433,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23520,7 +23523,7 @@
         <v>1.83</v>
       </c>
       <c r="AT117">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU117">
         <v>2.04</v>
@@ -23812,7 +23815,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24003,7 +24006,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24093,7 +24096,7 @@
         <v>2</v>
       </c>
       <c r="AT120">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU120">
         <v>2.14</v>
@@ -24385,7 +24388,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24767,7 +24770,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24958,7 +24961,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25236,7 +25239,7 @@
         <v>0.29</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT126">
         <v>0.33</v>
@@ -25340,7 +25343,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25722,7 +25725,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25812,7 +25815,7 @@
         <v>2.17</v>
       </c>
       <c r="AT129">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU129">
         <v>1.79</v>
@@ -26486,7 +26489,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26764,7 +26767,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
         <v>1.08</v>
@@ -27059,7 +27062,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27531,7 +27534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU138">
         <v>1.52</v>
@@ -27823,7 +27826,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -28101,7 +28104,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT141">
         <v>1.5</v>
@@ -28396,7 +28399,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28587,7 +28590,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28778,7 +28781,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29247,7 +29250,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT147">
         <v>0.42</v>
@@ -29733,7 +29736,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30014,7 +30017,7 @@
         <v>1.83</v>
       </c>
       <c r="AT151">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU151">
         <v>2.19</v>
@@ -30879,7 +30882,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31261,7 +31264,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31348,10 +31351,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT158">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU158">
         <v>1.75</v>
@@ -31643,7 +31646,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31834,7 +31837,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32216,7 +32219,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32598,7 +32601,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32980,7 +32983,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33640,7 +33643,7 @@
         <v>1.4</v>
       </c>
       <c r="AS170">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>1.5</v>
@@ -34216,7 +34219,7 @@
         <v>2.64</v>
       </c>
       <c r="AT173">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU173">
         <v>2.68</v>
@@ -34317,7 +34320,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34407,7 +34410,7 @@
         <v>1.5</v>
       </c>
       <c r="AT174">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU174">
         <v>1.5</v>
@@ -34699,7 +34702,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34890,7 +34893,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -34977,7 +34980,7 @@
         <v>2.5</v>
       </c>
       <c r="AS177">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT177">
         <v>2.55</v>
@@ -35463,7 +35466,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35845,7 +35848,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36036,7 +36039,7 @@
         <v>198</v>
       </c>
       <c r="P183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36418,7 +36421,7 @@
         <v>199</v>
       </c>
       <c r="P185" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36609,7 +36612,7 @@
         <v>200</v>
       </c>
       <c r="P186" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36991,7 +36994,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37133,6 +37136,388 @@
       </c>
       <c r="BK188">
         <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2447737</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44986.5</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>202</v>
+      </c>
+      <c r="P189" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q189">
+        <v>7</v>
+      </c>
+      <c r="R189">
+        <v>6</v>
+      </c>
+      <c r="S189">
+        <v>13</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
+        <v>3.4</v>
+      </c>
+      <c r="W189">
+        <v>1.5</v>
+      </c>
+      <c r="X189">
+        <v>2.45</v>
+      </c>
+      <c r="Y189">
+        <v>3.2</v>
+      </c>
+      <c r="Z189">
+        <v>1.3</v>
+      </c>
+      <c r="AA189">
+        <v>7.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.06</v>
+      </c>
+      <c r="AC189">
+        <v>2.5</v>
+      </c>
+      <c r="AD189">
+        <v>2.99</v>
+      </c>
+      <c r="AE189">
+        <v>2.6</v>
+      </c>
+      <c r="AF189">
+        <v>1.06</v>
+      </c>
+      <c r="AG189">
+        <v>7.5</v>
+      </c>
+      <c r="AH189">
+        <v>1.36</v>
+      </c>
+      <c r="AI189">
+        <v>2.88</v>
+      </c>
+      <c r="AJ189">
+        <v>2.15</v>
+      </c>
+      <c r="AK189">
+        <v>1.57</v>
+      </c>
+      <c r="AL189">
+        <v>1.9</v>
+      </c>
+      <c r="AM189">
+        <v>1.8</v>
+      </c>
+      <c r="AN189">
+        <v>1.4</v>
+      </c>
+      <c r="AO189">
+        <v>1.3</v>
+      </c>
+      <c r="AP189">
+        <v>1.45</v>
+      </c>
+      <c r="AQ189">
+        <v>1.18</v>
+      </c>
+      <c r="AR189">
+        <v>1.55</v>
+      </c>
+      <c r="AS189">
+        <v>1.33</v>
+      </c>
+      <c r="AT189">
+        <v>1.42</v>
+      </c>
+      <c r="AU189">
+        <v>1.7</v>
+      </c>
+      <c r="AV189">
+        <v>1.4</v>
+      </c>
+      <c r="AW189">
+        <v>3.1</v>
+      </c>
+      <c r="AX189">
+        <v>2.05</v>
+      </c>
+      <c r="AY189">
+        <v>7.2</v>
+      </c>
+      <c r="AZ189">
+        <v>2.05</v>
+      </c>
+      <c r="BA189">
+        <v>1.33</v>
+      </c>
+      <c r="BB189">
+        <v>1.7</v>
+      </c>
+      <c r="BC189">
+        <v>2.15</v>
+      </c>
+      <c r="BD189">
+        <v>2.95</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>5</v>
+      </c>
+      <c r="BG189">
+        <v>5</v>
+      </c>
+      <c r="BH189">
+        <v>1</v>
+      </c>
+      <c r="BI189">
+        <v>3</v>
+      </c>
+      <c r="BJ189">
+        <v>6</v>
+      </c>
+      <c r="BK189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2447733</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44986.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>66</v>
+      </c>
+      <c r="H190" t="s">
+        <v>67</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>84</v>
+      </c>
+      <c r="P190" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q190">
+        <v>2</v>
+      </c>
+      <c r="R190">
+        <v>8</v>
+      </c>
+      <c r="S190">
+        <v>10</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>3.6</v>
+      </c>
+      <c r="AD190">
+        <v>3.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.95</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>0</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>1.87</v>
+      </c>
+      <c r="AK190">
+        <v>1.87</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <v>0</v>
+      </c>
+      <c r="AP190">
+        <v>0</v>
+      </c>
+      <c r="AQ190">
+        <v>1.45</v>
+      </c>
+      <c r="AR190">
+        <v>1.64</v>
+      </c>
+      <c r="AS190">
+        <v>1.33</v>
+      </c>
+      <c r="AT190">
+        <v>1.75</v>
+      </c>
+      <c r="AU190">
+        <v>1.16</v>
+      </c>
+      <c r="AV190">
+        <v>1.76</v>
+      </c>
+      <c r="AW190">
+        <v>2.92</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>2</v>
+      </c>
+      <c r="BG190">
+        <v>4</v>
+      </c>
+      <c r="BH190">
+        <v>1</v>
+      </c>
+      <c r="BI190">
+        <v>2</v>
+      </c>
+      <c r="BJ190">
+        <v>3</v>
+      </c>
+      <c r="BK190">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -864,6 +864,9 @@
   <si>
     <t>['9', '18', '58', '64']</t>
   </si>
+  <si>
+    <t>['4', '31']</t>
+  </si>
 </sst>
 </file>
 
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1940,7 +1943,7 @@
         <v>2.17</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2131,7 +2134,7 @@
         <v>1.08</v>
       </c>
       <c r="AT5">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2319,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT6">
         <v>0.75</v>
@@ -2892,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>1.08</v>
@@ -3086,7 +3089,7 @@
         <v>1.08</v>
       </c>
       <c r="AT10">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3659,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3847,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT14">
         <v>0.42</v>
@@ -4229,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT16">
         <v>0.33</v>
@@ -4996,7 +4999,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5951,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -6139,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT26">
         <v>0.25</v>
@@ -6330,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6524,7 +6527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU28">
         <v>1.06</v>
@@ -6906,7 +6909,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU30">
         <v>1.51</v>
@@ -7094,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>0.33</v>
@@ -8813,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1.5</v>
@@ -9007,7 +9010,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -9195,7 +9198,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT42">
         <v>1.17</v>
@@ -9580,7 +9583,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9771,7 +9774,7 @@
         <v>0.58</v>
       </c>
       <c r="AT45">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU45">
         <v>0.7</v>
@@ -9959,7 +9962,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
         <v>1.75</v>
@@ -10150,7 +10153,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.75</v>
@@ -11872,7 +11875,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU56">
         <v>2.14</v>
@@ -12442,7 +12445,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT59">
         <v>1.75</v>
@@ -12633,10 +12636,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT60">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU60">
         <v>2.53</v>
@@ -12824,10 +12827,10 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT61">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>1.31</v>
@@ -14925,10 +14928,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -15307,10 +15310,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU74">
         <v>2.65</v>
@@ -15498,7 +15501,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT75">
         <v>1.42</v>
@@ -15692,7 +15695,7 @@
         <v>1.33</v>
       </c>
       <c r="AT76">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU76">
         <v>1.09</v>
@@ -17599,7 +17602,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT86">
         <v>0.75</v>
@@ -17793,7 +17796,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU87">
         <v>1.14</v>
@@ -18172,7 +18175,7 @@
         <v>0.6</v>
       </c>
       <c r="AS89">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT89">
         <v>0.58</v>
@@ -18366,7 +18369,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18557,7 +18560,7 @@
         <v>1.08</v>
       </c>
       <c r="AT91">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU91">
         <v>1.15</v>
@@ -18745,7 +18748,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>1.42</v>
@@ -21037,7 +21040,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT104">
         <v>0.75</v>
@@ -21231,7 +21234,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21422,7 +21425,7 @@
         <v>2.17</v>
       </c>
       <c r="AT106">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU106">
         <v>1.85</v>
@@ -21610,7 +21613,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT107">
         <v>0.5</v>
@@ -21804,7 +21807,7 @@
         <v>1.75</v>
       </c>
       <c r="AT108">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -23329,7 +23332,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT116">
         <v>2.83</v>
@@ -24284,7 +24287,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT121">
         <v>0.42</v>
@@ -24860,7 +24863,7 @@
         <v>1.83</v>
       </c>
       <c r="AT124">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -25624,7 +25627,7 @@
         <v>1.08</v>
       </c>
       <c r="AT128">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU128">
         <v>1.46</v>
@@ -26576,7 +26579,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT133">
         <v>2.83</v>
@@ -27343,7 +27346,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU137">
         <v>1.58</v>
@@ -27722,7 +27725,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT139">
         <v>0.25</v>
@@ -28295,7 +28298,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT142">
         <v>0.33</v>
@@ -28489,7 +28492,7 @@
         <v>2</v>
       </c>
       <c r="AT143">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU143">
         <v>2.09</v>
@@ -30587,7 +30590,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT154">
         <v>0.25</v>
@@ -30778,7 +30781,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
         <v>1.17</v>
@@ -31160,7 +31163,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT157">
         <v>1.5</v>
@@ -31545,7 +31548,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU159">
         <v>1.51</v>
@@ -31736,7 +31739,7 @@
         <v>2</v>
       </c>
       <c r="AT160">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -31927,7 +31930,7 @@
         <v>0.58</v>
       </c>
       <c r="AT161">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU161">
         <v>1.17</v>
@@ -33834,7 +33837,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT171">
         <v>1.17</v>
@@ -34216,7 +34219,7 @@
         <v>1.8</v>
       </c>
       <c r="AS173">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT173">
         <v>1.75</v>
@@ -34598,10 +34601,10 @@
         <v>0.9</v>
       </c>
       <c r="AS175">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT175">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU175">
         <v>1.47</v>
@@ -34792,7 +34795,7 @@
         <v>0.58</v>
       </c>
       <c r="AT176">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU176">
         <v>1.27</v>
@@ -34983,7 +34986,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU177">
         <v>1.79</v>
@@ -37518,6 +37521,579 @@
       </c>
       <c r="BK190">
         <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2447736</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44987.41666666666</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>78</v>
+      </c>
+      <c r="H191" t="s">
+        <v>76</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>84</v>
+      </c>
+      <c r="P191" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q191">
+        <v>2</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>5</v>
+      </c>
+      <c r="T191">
+        <v>3.75</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
+        <v>2.88</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>2.63</v>
+      </c>
+      <c r="Y191">
+        <v>3.25</v>
+      </c>
+      <c r="Z191">
+        <v>1.33</v>
+      </c>
+      <c r="AA191">
+        <v>10</v>
+      </c>
+      <c r="AB191">
+        <v>1.06</v>
+      </c>
+      <c r="AC191">
+        <v>2.95</v>
+      </c>
+      <c r="AD191">
+        <v>3.05</v>
+      </c>
+      <c r="AE191">
+        <v>2.3</v>
+      </c>
+      <c r="AF191">
+        <v>1.05</v>
+      </c>
+      <c r="AG191">
+        <v>8.5</v>
+      </c>
+      <c r="AH191">
+        <v>1.38</v>
+      </c>
+      <c r="AI191">
+        <v>2.71</v>
+      </c>
+      <c r="AJ191">
+        <v>2.15</v>
+      </c>
+      <c r="AK191">
+        <v>1.68</v>
+      </c>
+      <c r="AL191">
+        <v>1.91</v>
+      </c>
+      <c r="AM191">
+        <v>1.8</v>
+      </c>
+      <c r="AN191">
+        <v>1.58</v>
+      </c>
+      <c r="AO191">
+        <v>1.29</v>
+      </c>
+      <c r="AP191">
+        <v>1.33</v>
+      </c>
+      <c r="AQ191">
+        <v>1.27</v>
+      </c>
+      <c r="AR191">
+        <v>2</v>
+      </c>
+      <c r="AS191">
+        <v>1.17</v>
+      </c>
+      <c r="AT191">
+        <v>2.08</v>
+      </c>
+      <c r="AU191">
+        <v>1.49</v>
+      </c>
+      <c r="AV191">
+        <v>1.44</v>
+      </c>
+      <c r="AW191">
+        <v>2.93</v>
+      </c>
+      <c r="AX191">
+        <v>2.67</v>
+      </c>
+      <c r="AY191">
+        <v>6</v>
+      </c>
+      <c r="AZ191">
+        <v>1.82</v>
+      </c>
+      <c r="BA191">
+        <v>1.33</v>
+      </c>
+      <c r="BB191">
+        <v>1.6</v>
+      </c>
+      <c r="BC191">
+        <v>2.03</v>
+      </c>
+      <c r="BD191">
+        <v>2.7</v>
+      </c>
+      <c r="BE191">
+        <v>3.8</v>
+      </c>
+      <c r="BF191">
+        <v>3</v>
+      </c>
+      <c r="BG191">
+        <v>5</v>
+      </c>
+      <c r="BH191">
+        <v>6</v>
+      </c>
+      <c r="BI191">
+        <v>3</v>
+      </c>
+      <c r="BJ191">
+        <v>9</v>
+      </c>
+      <c r="BK191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2447734</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44987.58333333334</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>72</v>
+      </c>
+      <c r="H192" t="s">
+        <v>68</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>116</v>
+      </c>
+      <c r="P192" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q192">
+        <v>5</v>
+      </c>
+      <c r="R192">
+        <v>4</v>
+      </c>
+      <c r="S192">
+        <v>9</v>
+      </c>
+      <c r="T192">
+        <v>3.1</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>3.4</v>
+      </c>
+      <c r="W192">
+        <v>1.45</v>
+      </c>
+      <c r="X192">
+        <v>2.55</v>
+      </c>
+      <c r="Y192">
+        <v>3.05</v>
+      </c>
+      <c r="Z192">
+        <v>1.32</v>
+      </c>
+      <c r="AA192">
+        <v>7.25</v>
+      </c>
+      <c r="AB192">
+        <v>1.06</v>
+      </c>
+      <c r="AC192">
+        <v>2.35</v>
+      </c>
+      <c r="AD192">
+        <v>3</v>
+      </c>
+      <c r="AE192">
+        <v>2.87</v>
+      </c>
+      <c r="AF192">
+        <v>1.08</v>
+      </c>
+      <c r="AG192">
+        <v>8.9</v>
+      </c>
+      <c r="AH192">
+        <v>1.36</v>
+      </c>
+      <c r="AI192">
+        <v>3.05</v>
+      </c>
+      <c r="AJ192">
+        <v>2.15</v>
+      </c>
+      <c r="AK192">
+        <v>1.61</v>
+      </c>
+      <c r="AL192">
+        <v>1.83</v>
+      </c>
+      <c r="AM192">
+        <v>1.83</v>
+      </c>
+      <c r="AN192">
+        <v>1.4</v>
+      </c>
+      <c r="AO192">
+        <v>1.38</v>
+      </c>
+      <c r="AP192">
+        <v>1.48</v>
+      </c>
+      <c r="AQ192">
+        <v>1.91</v>
+      </c>
+      <c r="AR192">
+        <v>0.91</v>
+      </c>
+      <c r="AS192">
+        <v>2</v>
+      </c>
+      <c r="AT192">
+        <v>0.83</v>
+      </c>
+      <c r="AU192">
+        <v>1.35</v>
+      </c>
+      <c r="AV192">
+        <v>1.32</v>
+      </c>
+      <c r="AW192">
+        <v>2.67</v>
+      </c>
+      <c r="AX192">
+        <v>2.17</v>
+      </c>
+      <c r="AY192">
+        <v>5.6</v>
+      </c>
+      <c r="AZ192">
+        <v>2.18</v>
+      </c>
+      <c r="BA192">
+        <v>1.48</v>
+      </c>
+      <c r="BB192">
+        <v>1.85</v>
+      </c>
+      <c r="BC192">
+        <v>2.44</v>
+      </c>
+      <c r="BD192">
+        <v>3.4</v>
+      </c>
+      <c r="BE192">
+        <v>5</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>3</v>
+      </c>
+      <c r="BH192">
+        <v>1</v>
+      </c>
+      <c r="BI192">
+        <v>4</v>
+      </c>
+      <c r="BJ192">
+        <v>5</v>
+      </c>
+      <c r="BK192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2447735</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44988.625</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>69</v>
+      </c>
+      <c r="H193" t="s">
+        <v>80</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>135</v>
+      </c>
+      <c r="P193" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q193">
+        <v>6</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>10</v>
+      </c>
+      <c r="T193">
+        <v>2.4</v>
+      </c>
+      <c r="U193">
+        <v>2.05</v>
+      </c>
+      <c r="V193">
+        <v>4.75</v>
+      </c>
+      <c r="W193">
+        <v>1.45</v>
+      </c>
+      <c r="X193">
+        <v>2.6</v>
+      </c>
+      <c r="Y193">
+        <v>3</v>
+      </c>
+      <c r="Z193">
+        <v>1.35</v>
+      </c>
+      <c r="AA193">
+        <v>7</v>
+      </c>
+      <c r="AB193">
+        <v>1.07</v>
+      </c>
+      <c r="AC193">
+        <v>1.68</v>
+      </c>
+      <c r="AD193">
+        <v>3.45</v>
+      </c>
+      <c r="AE193">
+        <v>4.3</v>
+      </c>
+      <c r="AF193">
+        <v>1.07</v>
+      </c>
+      <c r="AG193">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH193">
+        <v>1.3</v>
+      </c>
+      <c r="AI193">
+        <v>3.2</v>
+      </c>
+      <c r="AJ193">
+        <v>2.05</v>
+      </c>
+      <c r="AK193">
+        <v>1.72</v>
+      </c>
+      <c r="AL193">
+        <v>1.9</v>
+      </c>
+      <c r="AM193">
+        <v>1.78</v>
+      </c>
+      <c r="AN193">
+        <v>1.22</v>
+      </c>
+      <c r="AO193">
+        <v>1.32</v>
+      </c>
+      <c r="AP193">
+        <v>1.9</v>
+      </c>
+      <c r="AQ193">
+        <v>2.64</v>
+      </c>
+      <c r="AR193">
+        <v>2.55</v>
+      </c>
+      <c r="AS193">
+        <v>2.67</v>
+      </c>
+      <c r="AT193">
+        <v>2.33</v>
+      </c>
+      <c r="AU193">
+        <v>2.57</v>
+      </c>
+      <c r="AV193">
+        <v>1.74</v>
+      </c>
+      <c r="AW193">
+        <v>4.31</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>1.28</v>
+      </c>
+      <c r="BB193">
+        <v>1.52</v>
+      </c>
+      <c r="BC193">
+        <v>2</v>
+      </c>
+      <c r="BD193">
+        <v>2.55</v>
+      </c>
+      <c r="BE193">
+        <v>3.5</v>
+      </c>
+      <c r="BF193">
+        <v>3</v>
+      </c>
+      <c r="BG193">
+        <v>7</v>
+      </c>
+      <c r="BH193">
+        <v>4</v>
+      </c>
+      <c r="BI193">
+        <v>4</v>
+      </c>
+      <c r="BJ193">
+        <v>7</v>
+      </c>
+      <c r="BK193">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['22', '86']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1227,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT2">
         <v>1.42</v>
@@ -1662,7 +1665,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1752,7 +1755,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1853,7 +1856,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT4">
         <v>2.08</v>
@@ -2044,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2426,7 +2429,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2898,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2999,7 +3002,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3190,7 +3193,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3277,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT11">
         <v>1.75</v>
@@ -3471,7 +3474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3954,7 +3957,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4044,7 +4047,7 @@
         <v>0.58</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4423,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT17">
         <v>1.17</v>
@@ -4527,7 +4530,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4808,7 +4811,7 @@
         <v>1.08</v>
       </c>
       <c r="AT19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0.99</v>
@@ -5100,7 +5103,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5381,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU22">
         <v>2.29</v>
@@ -5569,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT23">
         <v>0.75</v>
@@ -5760,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT24">
         <v>0.58</v>
@@ -5951,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT25">
         <v>2.33</v>
@@ -6145,7 +6148,7 @@
         <v>2.67</v>
       </c>
       <c r="AT26">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU26">
         <v>2.62</v>
@@ -6246,7 +6249,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6336,7 +6339,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU27">
         <v>1.94</v>
@@ -6437,7 +6440,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6524,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT28">
         <v>0.83</v>
@@ -6819,7 +6822,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7010,7 +7013,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7201,7 +7204,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7479,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT33">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.49</v>
@@ -7774,7 +7777,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8243,10 +8246,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU37">
         <v>2.19</v>
@@ -8538,7 +8541,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8729,7 +8732,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8819,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU40">
         <v>1.64</v>
@@ -9007,7 +9010,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT41">
         <v>2.08</v>
@@ -9302,7 +9305,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9392,7 +9395,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU43">
         <v>0.95</v>
@@ -9493,7 +9496,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9684,7 +9687,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9875,7 +9878,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT48">
         <v>0.58</v>
@@ -10639,7 +10642,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10729,7 +10732,7 @@
         <v>1.08</v>
       </c>
       <c r="AT50">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.08</v>
@@ -10830,7 +10833,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11299,7 +11302,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT53">
         <v>0.42</v>
@@ -11493,7 +11496,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU54">
         <v>1.12</v>
@@ -11594,7 +11597,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11976,7 +11979,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12167,7 +12170,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12358,7 +12361,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12549,7 +12552,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13018,10 +13021,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT62">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13209,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
         <v>0.75</v>
@@ -13591,10 +13594,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT65">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU65">
         <v>1.44</v>
@@ -13976,7 +13979,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14077,7 +14080,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14268,7 +14271,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14355,7 +14358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT69">
         <v>0.33</v>
@@ -14459,7 +14462,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14650,7 +14653,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14841,7 +14844,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15032,7 +15035,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15414,7 +15417,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15605,7 +15608,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15796,7 +15799,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16265,10 +16268,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -16369,7 +16372,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16456,7 +16459,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT80">
         <v>2.83</v>
@@ -16650,7 +16653,7 @@
         <v>0.58</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU81">
         <v>0.96</v>
@@ -16838,10 +16841,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -17133,7 +17136,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17223,7 +17226,7 @@
         <v>1.08</v>
       </c>
       <c r="AT84">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU84">
         <v>1.37</v>
@@ -17411,7 +17414,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT85">
         <v>0.75</v>
@@ -17706,7 +17709,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17897,7 +17900,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17984,7 +17987,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT88">
         <v>1.75</v>
@@ -18942,7 +18945,7 @@
         <v>1.08</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU93">
         <v>1.74</v>
@@ -19043,7 +19046,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19130,7 +19133,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT94">
         <v>0.33</v>
@@ -19234,7 +19237,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19324,7 +19327,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU95">
         <v>2.07</v>
@@ -19425,7 +19428,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19703,7 +19706,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT97">
         <v>0.42</v>
@@ -19807,7 +19810,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19897,7 +19900,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19998,7 +20001,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20279,7 +20282,7 @@
         <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20380,7 +20383,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20467,7 +20470,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT101">
         <v>0.75</v>
@@ -20762,7 +20765,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21144,7 +21147,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21422,7 +21425,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT106">
         <v>0.83</v>
@@ -21616,7 +21619,7 @@
         <v>2.67</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU107">
         <v>2.74</v>
@@ -21717,7 +21720,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21804,7 +21807,7 @@
         <v>2.29</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT108">
         <v>2.33</v>
@@ -21908,7 +21911,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21998,7 +22001,7 @@
         <v>1.08</v>
       </c>
       <c r="AT109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.8</v>
@@ -22290,7 +22293,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22377,10 +22380,10 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU111">
         <v>1.62</v>
@@ -22672,7 +22675,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22863,7 +22866,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23141,10 +23144,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT115">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23245,7 +23248,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23436,7 +23439,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23818,7 +23821,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24009,7 +24012,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24391,7 +24394,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24669,7 +24672,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT123">
         <v>1.17</v>
@@ -24773,7 +24776,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24964,7 +24967,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25054,7 +25057,7 @@
         <v>0.58</v>
       </c>
       <c r="AT125">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU125">
         <v>1.07</v>
@@ -25346,7 +25349,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25433,10 +25436,10 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT127">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU127">
         <v>1.5</v>
@@ -25728,7 +25731,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25815,7 +25818,7 @@
         <v>1.63</v>
       </c>
       <c r="AS129">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT129">
         <v>1.42</v>
@@ -26006,7 +26009,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT130">
         <v>0.58</v>
@@ -26391,7 +26394,7 @@
         <v>1.08</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU132">
         <v>1.25</v>
@@ -26492,7 +26495,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26773,7 +26776,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU134">
         <v>1.08</v>
@@ -27065,7 +27068,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27343,7 +27346,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT137">
         <v>0.83</v>
@@ -27534,7 +27537,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT138">
         <v>1.75</v>
@@ -27728,7 +27731,7 @@
         <v>1.17</v>
       </c>
       <c r="AT139">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU139">
         <v>1.44</v>
@@ -27829,7 +27832,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -28110,7 +28113,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28402,7 +28405,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28593,7 +28596,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28683,7 +28686,7 @@
         <v>1.83</v>
       </c>
       <c r="AT144">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU144">
         <v>2.19</v>
@@ -28784,7 +28787,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -28871,7 +28874,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT145">
         <v>2.83</v>
@@ -29638,7 +29641,7 @@
         <v>2</v>
       </c>
       <c r="AT149">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.7</v>
@@ -29739,7 +29742,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30208,7 +30211,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT152">
         <v>0.75</v>
@@ -30399,10 +30402,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT153">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU153">
         <v>1.51</v>
@@ -30593,7 +30596,7 @@
         <v>2</v>
       </c>
       <c r="AT154">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -30885,7 +30888,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31166,7 +31169,7 @@
         <v>2.67</v>
       </c>
       <c r="AT157">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU157">
         <v>2.72</v>
@@ -31267,7 +31270,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31545,7 +31548,7 @@
         <v>2.44</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT159">
         <v>2.33</v>
@@ -31649,7 +31652,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31736,7 +31739,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT160">
         <v>2.08</v>
@@ -31840,7 +31843,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32222,7 +32225,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32309,10 +32312,10 @@
         <v>1.2</v>
       </c>
       <c r="AS163">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT163">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32604,7 +32607,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32691,7 +32694,7 @@
         <v>2.8</v>
       </c>
       <c r="AS165">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT165">
         <v>2.83</v>
@@ -32986,7 +32989,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33267,7 +33270,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU168">
         <v>1.44</v>
@@ -33455,7 +33458,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT169">
         <v>0.75</v>
@@ -33649,7 +33652,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU170">
         <v>1.13</v>
@@ -34031,7 +34034,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU172">
         <v>1.66</v>
@@ -34323,7 +34326,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34410,7 +34413,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT174">
         <v>1.42</v>
@@ -34705,7 +34708,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34896,7 +34899,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35174,7 +35177,7 @@
         <v>0.82</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT178">
         <v>0.75</v>
@@ -35365,7 +35368,7 @@
         <v>0.27</v>
       </c>
       <c r="AS179">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT179">
         <v>0.33</v>
@@ -35469,7 +35472,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35559,7 +35562,7 @@
         <v>2</v>
       </c>
       <c r="AT180">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU180">
         <v>1.72</v>
@@ -35747,7 +35750,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT181">
         <v>0.42</v>
@@ -35851,7 +35854,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36042,7 +36045,7 @@
         <v>198</v>
       </c>
       <c r="P183" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36132,7 +36135,7 @@
         <v>2</v>
       </c>
       <c r="AT183">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU183">
         <v>1.98</v>
@@ -36320,7 +36323,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT184">
         <v>0.75</v>
@@ -36424,7 +36427,7 @@
         <v>199</v>
       </c>
       <c r="P185" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36514,7 +36517,7 @@
         <v>1.83</v>
       </c>
       <c r="AT185">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU185">
         <v>2.17</v>
@@ -36615,7 +36618,7 @@
         <v>200</v>
       </c>
       <c r="P186" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36705,7 +36708,7 @@
         <v>1.08</v>
       </c>
       <c r="AT186">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU186">
         <v>1.68</v>
@@ -36997,7 +37000,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37570,7 +37573,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38094,6 +38097,770 @@
       </c>
       <c r="BK193">
         <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2447745</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44990.41666666666</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>67</v>
+      </c>
+      <c r="H194" t="s">
+        <v>70</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>86</v>
+      </c>
+      <c r="P194" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q194">
+        <v>8</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>10</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
+        <v>2.3</v>
+      </c>
+      <c r="V194">
+        <v>6.25</v>
+      </c>
+      <c r="W194">
+        <v>1.36</v>
+      </c>
+      <c r="X194">
+        <v>3</v>
+      </c>
+      <c r="Y194">
+        <v>2.75</v>
+      </c>
+      <c r="Z194">
+        <v>1.4</v>
+      </c>
+      <c r="AA194">
+        <v>6.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.1</v>
+      </c>
+      <c r="AC194">
+        <v>1.44</v>
+      </c>
+      <c r="AD194">
+        <v>3.93</v>
+      </c>
+      <c r="AE194">
+        <v>5.9</v>
+      </c>
+      <c r="AF194">
+        <v>1.05</v>
+      </c>
+      <c r="AG194">
+        <v>12.25</v>
+      </c>
+      <c r="AH194">
+        <v>1.29</v>
+      </c>
+      <c r="AI194">
+        <v>3.57</v>
+      </c>
+      <c r="AJ194">
+        <v>1.83</v>
+      </c>
+      <c r="AK194">
+        <v>1.86</v>
+      </c>
+      <c r="AL194">
+        <v>1.95</v>
+      </c>
+      <c r="AM194">
+        <v>1.78</v>
+      </c>
+      <c r="AN194">
+        <v>1.08</v>
+      </c>
+      <c r="AO194">
+        <v>1.16</v>
+      </c>
+      <c r="AP194">
+        <v>2.4</v>
+      </c>
+      <c r="AQ194">
+        <v>2.17</v>
+      </c>
+      <c r="AR194">
+        <v>0.25</v>
+      </c>
+      <c r="AS194">
+        <v>2.23</v>
+      </c>
+      <c r="AT194">
+        <v>0.23</v>
+      </c>
+      <c r="AU194">
+        <v>1.65</v>
+      </c>
+      <c r="AV194">
+        <v>1.28</v>
+      </c>
+      <c r="AW194">
+        <v>2.93</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>6</v>
+      </c>
+      <c r="BG194">
+        <v>2</v>
+      </c>
+      <c r="BH194">
+        <v>8</v>
+      </c>
+      <c r="BI194">
+        <v>3</v>
+      </c>
+      <c r="BJ194">
+        <v>14</v>
+      </c>
+      <c r="BK194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2447740</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44990.5</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>79</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>203</v>
+      </c>
+      <c r="P195" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>5</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.85</v>
+      </c>
+      <c r="V195">
+        <v>4.6</v>
+      </c>
+      <c r="W195">
+        <v>1.58</v>
+      </c>
+      <c r="X195">
+        <v>2.29</v>
+      </c>
+      <c r="Y195">
+        <v>3.7</v>
+      </c>
+      <c r="Z195">
+        <v>1.25</v>
+      </c>
+      <c r="AA195">
+        <v>10.25</v>
+      </c>
+      <c r="AB195">
+        <v>1.03</v>
+      </c>
+      <c r="AC195">
+        <v>2.04</v>
+      </c>
+      <c r="AD195">
+        <v>2.89</v>
+      </c>
+      <c r="AE195">
+        <v>3.52</v>
+      </c>
+      <c r="AF195">
+        <v>1.08</v>
+      </c>
+      <c r="AG195">
+        <v>6.05</v>
+      </c>
+      <c r="AH195">
+        <v>1.5</v>
+      </c>
+      <c r="AI195">
+        <v>2.4</v>
+      </c>
+      <c r="AJ195">
+        <v>2.47</v>
+      </c>
+      <c r="AK195">
+        <v>1.46</v>
+      </c>
+      <c r="AL195">
+        <v>2.12</v>
+      </c>
+      <c r="AM195">
+        <v>1.61</v>
+      </c>
+      <c r="AN195">
+        <v>1.25</v>
+      </c>
+      <c r="AO195">
+        <v>1.38</v>
+      </c>
+      <c r="AP195">
+        <v>1.67</v>
+      </c>
+      <c r="AQ195">
+        <v>1.5</v>
+      </c>
+      <c r="AR195">
+        <v>0.5</v>
+      </c>
+      <c r="AS195">
+        <v>1.46</v>
+      </c>
+      <c r="AT195">
+        <v>0.54</v>
+      </c>
+      <c r="AU195">
+        <v>1.47</v>
+      </c>
+      <c r="AV195">
+        <v>1.21</v>
+      </c>
+      <c r="AW195">
+        <v>2.68</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>4</v>
+      </c>
+      <c r="BH195">
+        <v>9</v>
+      </c>
+      <c r="BI195">
+        <v>8</v>
+      </c>
+      <c r="BJ195">
+        <v>13</v>
+      </c>
+      <c r="BK195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2447746</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44990.58333333334</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>65</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>84</v>
+      </c>
+      <c r="P196" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q196">
+        <v>4</v>
+      </c>
+      <c r="R196">
+        <v>8</v>
+      </c>
+      <c r="S196">
+        <v>12</v>
+      </c>
+      <c r="T196">
+        <v>3.75</v>
+      </c>
+      <c r="U196">
+        <v>2.1</v>
+      </c>
+      <c r="V196">
+        <v>2.75</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>2.75</v>
+      </c>
+      <c r="Y196">
+        <v>2.85</v>
+      </c>
+      <c r="Z196">
+        <v>1.38</v>
+      </c>
+      <c r="AA196">
+        <v>6.75</v>
+      </c>
+      <c r="AB196">
+        <v>1.08</v>
+      </c>
+      <c r="AC196">
+        <v>3.24</v>
+      </c>
+      <c r="AD196">
+        <v>3.24</v>
+      </c>
+      <c r="AE196">
+        <v>1.99</v>
+      </c>
+      <c r="AF196">
+        <v>1.06</v>
+      </c>
+      <c r="AG196">
+        <v>10.75</v>
+      </c>
+      <c r="AH196">
+        <v>1.32</v>
+      </c>
+      <c r="AI196">
+        <v>3.32</v>
+      </c>
+      <c r="AJ196">
+        <v>1.97</v>
+      </c>
+      <c r="AK196">
+        <v>1.73</v>
+      </c>
+      <c r="AL196">
+        <v>1.78</v>
+      </c>
+      <c r="AM196">
+        <v>1.95</v>
+      </c>
+      <c r="AN196">
+        <v>1.68</v>
+      </c>
+      <c r="AO196">
+        <v>1.32</v>
+      </c>
+      <c r="AP196">
+        <v>1.32</v>
+      </c>
+      <c r="AQ196">
+        <v>1.75</v>
+      </c>
+      <c r="AR196">
+        <v>1.5</v>
+      </c>
+      <c r="AS196">
+        <v>1.69</v>
+      </c>
+      <c r="AT196">
+        <v>1.46</v>
+      </c>
+      <c r="AU196">
+        <v>1.41</v>
+      </c>
+      <c r="AV196">
+        <v>1.31</v>
+      </c>
+      <c r="AW196">
+        <v>2.72</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>4</v>
+      </c>
+      <c r="BG196">
+        <v>5</v>
+      </c>
+      <c r="BH196">
+        <v>3</v>
+      </c>
+      <c r="BI196">
+        <v>3</v>
+      </c>
+      <c r="BJ196">
+        <v>7</v>
+      </c>
+      <c r="BK196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2447741</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44991.41666666666</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>74</v>
+      </c>
+      <c r="H197" t="s">
+        <v>78</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>196</v>
+      </c>
+      <c r="P197" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q197">
+        <v>6</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>2.05</v>
+      </c>
+      <c r="V197">
+        <v>4.5</v>
+      </c>
+      <c r="W197">
+        <v>1.45</v>
+      </c>
+      <c r="X197">
+        <v>2.6</v>
+      </c>
+      <c r="Y197">
+        <v>3</v>
+      </c>
+      <c r="Z197">
+        <v>1.35</v>
+      </c>
+      <c r="AA197">
+        <v>7</v>
+      </c>
+      <c r="AB197">
+        <v>1.07</v>
+      </c>
+      <c r="AC197">
+        <v>1.88</v>
+      </c>
+      <c r="AD197">
+        <v>3.1</v>
+      </c>
+      <c r="AE197">
+        <v>3.8</v>
+      </c>
+      <c r="AF197">
+        <v>1.07</v>
+      </c>
+      <c r="AG197">
+        <v>9.65</v>
+      </c>
+      <c r="AH197">
+        <v>1.35</v>
+      </c>
+      <c r="AI197">
+        <v>3.12</v>
+      </c>
+      <c r="AJ197">
+        <v>2.3</v>
+      </c>
+      <c r="AK197">
+        <v>1.5</v>
+      </c>
+      <c r="AL197">
+        <v>1.9</v>
+      </c>
+      <c r="AM197">
+        <v>1.78</v>
+      </c>
+      <c r="AN197">
+        <v>1.22</v>
+      </c>
+      <c r="AO197">
+        <v>1.3</v>
+      </c>
+      <c r="AP197">
+        <v>1.9</v>
+      </c>
+      <c r="AQ197">
+        <v>2</v>
+      </c>
+      <c r="AR197">
+        <v>1.08</v>
+      </c>
+      <c r="AS197">
+        <v>2.08</v>
+      </c>
+      <c r="AT197">
+        <v>1</v>
+      </c>
+      <c r="AU197">
+        <v>1.74</v>
+      </c>
+      <c r="AV197">
+        <v>1.34</v>
+      </c>
+      <c r="AW197">
+        <v>3.08</v>
+      </c>
+      <c r="AX197">
+        <v>1.7</v>
+      </c>
+      <c r="AY197">
+        <v>5.9</v>
+      </c>
+      <c r="AZ197">
+        <v>3.02</v>
+      </c>
+      <c r="BA197">
+        <v>1.4</v>
+      </c>
+      <c r="BB197">
+        <v>1.72</v>
+      </c>
+      <c r="BC197">
+        <v>2.23</v>
+      </c>
+      <c r="BD197">
+        <v>3</v>
+      </c>
+      <c r="BE197">
+        <v>4.3</v>
+      </c>
+      <c r="BF197">
+        <v>3</v>
+      </c>
+      <c r="BG197">
+        <v>3</v>
+      </c>
+      <c r="BH197">
+        <v>2</v>
+      </c>
+      <c r="BI197">
+        <v>3</v>
+      </c>
+      <c r="BJ197">
+        <v>5</v>
+      </c>
+      <c r="BK197">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -870,6 +870,9 @@
   <si>
     <t>['4', '31']</t>
   </si>
+  <si>
+    <t>['21', '46']</t>
+  </si>
 </sst>
 </file>
 
@@ -1230,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2328,7 +2331,7 @@
         <v>2.67</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3662,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT13">
         <v>0.83</v>
@@ -4044,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT15">
         <v>1.46</v>
@@ -4238,7 +4241,7 @@
         <v>1.17</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -5193,7 +5196,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU21">
         <v>0.95</v>
@@ -7103,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="AT31">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7291,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT32">
         <v>1.75</v>
@@ -7673,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
         <v>1.42</v>
@@ -7867,7 +7870,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU35">
         <v>0.86</v>
@@ -9774,7 +9777,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT45">
         <v>2.33</v>
@@ -10159,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU47">
         <v>1.58</v>
@@ -10541,7 +10544,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10923,7 +10926,7 @@
         <v>1.08</v>
       </c>
       <c r="AT51">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11111,7 +11114,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT52">
         <v>0.75</v>
@@ -11684,7 +11687,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT55">
         <v>1.42</v>
@@ -13406,7 +13409,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13976,7 +13979,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14170,7 +14173,7 @@
         <v>1.83</v>
       </c>
       <c r="AT68">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU68">
         <v>1.94</v>
@@ -14361,7 +14364,7 @@
         <v>2.23</v>
       </c>
       <c r="AT69">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU69">
         <v>2.05</v>
@@ -16077,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT78">
         <v>0.42</v>
@@ -16462,7 +16465,7 @@
         <v>2.08</v>
       </c>
       <c r="AT80">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16650,7 +16653,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT81">
         <v>0.54</v>
@@ -17035,7 +17038,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU83">
         <v>1.58</v>
@@ -17417,7 +17420,7 @@
         <v>1.69</v>
       </c>
       <c r="AT85">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -19136,7 +19139,7 @@
         <v>2.08</v>
       </c>
       <c r="AT94">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -19324,7 +19327,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT95">
         <v>0.23</v>
@@ -20088,10 +20091,10 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT99">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU99">
         <v>1.07</v>
@@ -20473,7 +20476,7 @@
         <v>2.23</v>
       </c>
       <c r="AT101">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU101">
         <v>1.83</v>
@@ -22189,10 +22192,10 @@
         <v>0.17</v>
       </c>
       <c r="AS110">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT110">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU110">
         <v>1.06</v>
@@ -22571,7 +22574,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT112">
         <v>1.17</v>
@@ -22956,7 +22959,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -23338,7 +23341,7 @@
         <v>1.17</v>
       </c>
       <c r="AT116">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU116">
         <v>1.44</v>
@@ -23911,7 +23914,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU119">
         <v>1.87</v>
@@ -24099,7 +24102,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT120">
         <v>1.75</v>
@@ -24484,7 +24487,7 @@
         <v>1.08</v>
       </c>
       <c r="AT122">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU122">
         <v>1.76</v>
@@ -25054,7 +25057,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT125">
         <v>0.23</v>
@@ -25248,7 +25251,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -26585,7 +26588,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26967,7 +26970,7 @@
         <v>1.83</v>
       </c>
       <c r="AT135">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU135">
         <v>2.25</v>
@@ -27155,7 +27158,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT136">
         <v>1.17</v>
@@ -28304,7 +28307,7 @@
         <v>2.67</v>
       </c>
       <c r="AT142">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU142">
         <v>2.72</v>
@@ -28492,7 +28495,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT143">
         <v>2.33</v>
@@ -28877,7 +28880,7 @@
         <v>2.23</v>
       </c>
       <c r="AT145">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU145">
         <v>1.73</v>
@@ -29447,10 +29450,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT148">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU148">
         <v>2.01</v>
@@ -29832,7 +29835,7 @@
         <v>1.08</v>
       </c>
       <c r="AT150">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU150">
         <v>1.3</v>
@@ -30978,7 +30981,7 @@
         <v>1.08</v>
       </c>
       <c r="AT156">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU156">
         <v>1.68</v>
@@ -31930,7 +31933,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT161">
         <v>0.83</v>
@@ -32124,7 +32127,7 @@
         <v>1.08</v>
       </c>
       <c r="AT162">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU162">
         <v>1.24</v>
@@ -32503,7 +32506,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT164">
         <v>0.58</v>
@@ -32697,7 +32700,7 @@
         <v>1.69</v>
       </c>
       <c r="AT165">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU165">
         <v>1.55</v>
@@ -33461,7 +33464,7 @@
         <v>2.08</v>
       </c>
       <c r="AT169">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU169">
         <v>1.68</v>
@@ -34795,7 +34798,7 @@
         <v>1.9</v>
       </c>
       <c r="AS176">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT176">
         <v>2.08</v>
@@ -35180,7 +35183,7 @@
         <v>1.46</v>
       </c>
       <c r="AT178">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU178">
         <v>1.52</v>
@@ -35371,7 +35374,7 @@
         <v>1.69</v>
       </c>
       <c r="AT179">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU179">
         <v>1.42</v>
@@ -35944,7 +35947,7 @@
         <v>1.08</v>
       </c>
       <c r="AT182">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU182">
         <v>1.41</v>
@@ -36132,7 +36135,7 @@
         <v>0.45</v>
       </c>
       <c r="AS183">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT183">
         <v>0.54</v>
@@ -37087,7 +37090,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT188">
         <v>0.58</v>
@@ -38861,6 +38864,579 @@
       </c>
       <c r="BK197">
         <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2447744</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44991.5</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" t="s">
+        <v>66</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>167</v>
+      </c>
+      <c r="P198" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q198">
+        <v>5</v>
+      </c>
+      <c r="R198">
+        <v>4</v>
+      </c>
+      <c r="S198">
+        <v>9</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>2.25</v>
+      </c>
+      <c r="AD198">
+        <v>3</v>
+      </c>
+      <c r="AE198">
+        <v>3</v>
+      </c>
+      <c r="AF198">
+        <v>0</v>
+      </c>
+      <c r="AG198">
+        <v>0</v>
+      </c>
+      <c r="AH198">
+        <v>0</v>
+      </c>
+      <c r="AI198">
+        <v>0</v>
+      </c>
+      <c r="AJ198">
+        <v>2</v>
+      </c>
+      <c r="AK198">
+        <v>1.67</v>
+      </c>
+      <c r="AL198">
+        <v>0</v>
+      </c>
+      <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AN198">
+        <v>0</v>
+      </c>
+      <c r="AO198">
+        <v>0</v>
+      </c>
+      <c r="AP198">
+        <v>0</v>
+      </c>
+      <c r="AQ198">
+        <v>1.08</v>
+      </c>
+      <c r="AR198">
+        <v>0.33</v>
+      </c>
+      <c r="AS198">
+        <v>1.08</v>
+      </c>
+      <c r="AT198">
+        <v>0.38</v>
+      </c>
+      <c r="AU198">
+        <v>1.4</v>
+      </c>
+      <c r="AV198">
+        <v>0.85</v>
+      </c>
+      <c r="AW198">
+        <v>2.25</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>2</v>
+      </c>
+      <c r="BG198">
+        <v>4</v>
+      </c>
+      <c r="BH198">
+        <v>2</v>
+      </c>
+      <c r="BI198">
+        <v>1</v>
+      </c>
+      <c r="BJ198">
+        <v>4</v>
+      </c>
+      <c r="BK198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2447739</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44991.58333333334</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>77</v>
+      </c>
+      <c r="H199" t="s">
+        <v>73</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199" t="s">
+        <v>84</v>
+      </c>
+      <c r="P199" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>5</v>
+      </c>
+      <c r="S199">
+        <v>8</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
+        <v>3.4</v>
+      </c>
+      <c r="W199">
+        <v>1.45</v>
+      </c>
+      <c r="X199">
+        <v>2.63</v>
+      </c>
+      <c r="Y199">
+        <v>3</v>
+      </c>
+      <c r="Z199">
+        <v>1.36</v>
+      </c>
+      <c r="AA199">
+        <v>7.5</v>
+      </c>
+      <c r="AB199">
+        <v>1.07</v>
+      </c>
+      <c r="AC199">
+        <v>2.6</v>
+      </c>
+      <c r="AD199">
+        <v>2.9</v>
+      </c>
+      <c r="AE199">
+        <v>2.62</v>
+      </c>
+      <c r="AF199">
+        <v>1.08</v>
+      </c>
+      <c r="AG199">
+        <v>7</v>
+      </c>
+      <c r="AH199">
+        <v>1.4</v>
+      </c>
+      <c r="AI199">
+        <v>2.75</v>
+      </c>
+      <c r="AJ199">
+        <v>2.15</v>
+      </c>
+      <c r="AK199">
+        <v>1.57</v>
+      </c>
+      <c r="AL199">
+        <v>1.91</v>
+      </c>
+      <c r="AM199">
+        <v>1.85</v>
+      </c>
+      <c r="AN199">
+        <v>1.42</v>
+      </c>
+      <c r="AO199">
+        <v>1.35</v>
+      </c>
+      <c r="AP199">
+        <v>1.45</v>
+      </c>
+      <c r="AQ199">
+        <v>0.58</v>
+      </c>
+      <c r="AR199">
+        <v>0.75</v>
+      </c>
+      <c r="AS199">
+        <v>0.62</v>
+      </c>
+      <c r="AT199">
+        <v>0.77</v>
+      </c>
+      <c r="AU199">
+        <v>1.3</v>
+      </c>
+      <c r="AV199">
+        <v>1.28</v>
+      </c>
+      <c r="AW199">
+        <v>2.58</v>
+      </c>
+      <c r="AX199">
+        <v>2.16</v>
+      </c>
+      <c r="AY199">
+        <v>5.8</v>
+      </c>
+      <c r="AZ199">
+        <v>2.16</v>
+      </c>
+      <c r="BA199">
+        <v>1.3</v>
+      </c>
+      <c r="BB199">
+        <v>1.55</v>
+      </c>
+      <c r="BC199">
+        <v>1.95</v>
+      </c>
+      <c r="BD199">
+        <v>2.55</v>
+      </c>
+      <c r="BE199">
+        <v>3.5</v>
+      </c>
+      <c r="BF199">
+        <v>4</v>
+      </c>
+      <c r="BG199">
+        <v>2</v>
+      </c>
+      <c r="BH199">
+        <v>3</v>
+      </c>
+      <c r="BI199">
+        <v>8</v>
+      </c>
+      <c r="BJ199">
+        <v>7</v>
+      </c>
+      <c r="BK199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2447742</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44992.60416666666</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>76</v>
+      </c>
+      <c r="H200" t="s">
+        <v>69</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>82</v>
+      </c>
+      <c r="P200" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q200">
+        <v>4</v>
+      </c>
+      <c r="R200">
+        <v>3</v>
+      </c>
+      <c r="S200">
+        <v>7</v>
+      </c>
+      <c r="T200">
+        <v>6</v>
+      </c>
+      <c r="U200">
+        <v>2.35</v>
+      </c>
+      <c r="V200">
+        <v>1.9</v>
+      </c>
+      <c r="W200">
+        <v>1.29</v>
+      </c>
+      <c r="X200">
+        <v>3.5</v>
+      </c>
+      <c r="Y200">
+        <v>2.4</v>
+      </c>
+      <c r="Z200">
+        <v>1.51</v>
+      </c>
+      <c r="AA200">
+        <v>4.75</v>
+      </c>
+      <c r="AB200">
+        <v>1.15</v>
+      </c>
+      <c r="AC200">
+        <v>6.85</v>
+      </c>
+      <c r="AD200">
+        <v>4.63</v>
+      </c>
+      <c r="AE200">
+        <v>1.41</v>
+      </c>
+      <c r="AF200">
+        <v>1.03</v>
+      </c>
+      <c r="AG200">
+        <v>11</v>
+      </c>
+      <c r="AH200">
+        <v>1.2</v>
+      </c>
+      <c r="AI200">
+        <v>4.33</v>
+      </c>
+      <c r="AJ200">
+        <v>1.64</v>
+      </c>
+      <c r="AK200">
+        <v>2.23</v>
+      </c>
+      <c r="AL200">
+        <v>1.83</v>
+      </c>
+      <c r="AM200">
+        <v>1.9</v>
+      </c>
+      <c r="AN200">
+        <v>2.6</v>
+      </c>
+      <c r="AO200">
+        <v>1.15</v>
+      </c>
+      <c r="AP200">
+        <v>1.07</v>
+      </c>
+      <c r="AQ200">
+        <v>2</v>
+      </c>
+      <c r="AR200">
+        <v>2.83</v>
+      </c>
+      <c r="AS200">
+        <v>1.85</v>
+      </c>
+      <c r="AT200">
+        <v>2.85</v>
+      </c>
+      <c r="AU200">
+        <v>1.95</v>
+      </c>
+      <c r="AV200">
+        <v>2.29</v>
+      </c>
+      <c r="AW200">
+        <v>4.24</v>
+      </c>
+      <c r="AX200">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AY200">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ200">
+        <v>1.17</v>
+      </c>
+      <c r="BA200">
+        <v>1.23</v>
+      </c>
+      <c r="BB200">
+        <v>1.43</v>
+      </c>
+      <c r="BC200">
+        <v>1.95</v>
+      </c>
+      <c r="BD200">
+        <v>2.24</v>
+      </c>
+      <c r="BE200">
+        <v>3</v>
+      </c>
+      <c r="BF200">
+        <v>2</v>
+      </c>
+      <c r="BG200">
+        <v>3</v>
+      </c>
+      <c r="BH200">
+        <v>5</v>
+      </c>
+      <c r="BI200">
+        <v>5</v>
+      </c>
+      <c r="BJ200">
+        <v>7</v>
+      </c>
+      <c r="BK200">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>['21', '46']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,7 +1674,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1859,7 +1865,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2050,7 +2056,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2432,7 +2438,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3005,7 +3011,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3196,7 +3202,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3859,7 +3865,7 @@
         <v>2.67</v>
       </c>
       <c r="AT14">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU14">
         <v>2.22</v>
@@ -3960,7 +3966,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4533,7 +4539,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5002,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT20">
         <v>2.08</v>
@@ -5106,7 +5112,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -6252,7 +6258,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6443,7 +6449,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6825,7 +6831,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7016,7 +7022,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7207,7 +7213,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7780,7 +7786,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8061,7 +8067,7 @@
         <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU36">
         <v>0.95</v>
@@ -8544,7 +8550,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8735,7 +8741,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9308,7 +9314,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9499,7 +9505,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9690,7 +9696,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9881,7 +9887,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10645,7 +10651,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10836,7 +10842,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11308,7 +11314,7 @@
         <v>1.69</v>
       </c>
       <c r="AT53">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU53">
         <v>1.45</v>
@@ -11600,7 +11606,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11982,7 +11988,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12173,7 +12179,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12364,7 +12370,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12555,7 +12561,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13791,7 +13797,7 @@
         <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU66">
         <v>1.27</v>
@@ -14083,7 +14089,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14170,7 +14176,7 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT68">
         <v>2.85</v>
@@ -14274,7 +14280,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14465,7 +14471,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14656,7 +14662,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14847,7 +14853,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15038,7 +15044,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15420,7 +15426,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15611,7 +15617,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15802,7 +15808,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16083,7 +16089,7 @@
         <v>1.85</v>
       </c>
       <c r="AT78">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU78">
         <v>2.01</v>
@@ -16375,7 +16381,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17035,7 +17041,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT83">
         <v>0.38</v>
@@ -17139,7 +17145,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17712,7 +17718,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17903,7 +17909,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19049,7 +19055,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19240,7 +19246,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19431,7 +19437,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19712,7 +19718,7 @@
         <v>1.46</v>
       </c>
       <c r="AT97">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU97">
         <v>1.29</v>
@@ -19813,7 +19819,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20004,7 +20010,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20282,7 +20288,7 @@
         <v>1.6</v>
       </c>
       <c r="AS100">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT100">
         <v>1.46</v>
@@ -20386,7 +20392,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20768,7 +20774,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -21150,7 +21156,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21723,7 +21729,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21914,7 +21920,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22296,7 +22302,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22678,7 +22684,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22768,7 +22774,7 @@
         <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU113">
         <v>1.73</v>
@@ -22869,7 +22875,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23251,7 +23257,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23442,7 +23448,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23529,7 +23535,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT117">
         <v>1.75</v>
@@ -23720,7 +23726,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT118">
         <v>0.58</v>
@@ -23824,7 +23830,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24015,7 +24021,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24296,7 +24302,7 @@
         <v>1.17</v>
       </c>
       <c r="AT121">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU121">
         <v>1.35</v>
@@ -24397,7 +24403,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24779,7 +24785,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24866,7 +24872,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT124">
         <v>0.83</v>
@@ -24970,7 +24976,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25352,7 +25358,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25734,7 +25740,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26498,7 +26504,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26967,7 +26973,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT135">
         <v>0.77</v>
@@ -27071,7 +27077,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27835,7 +27841,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -27925,7 +27931,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU140">
         <v>1.67</v>
@@ -28408,7 +28414,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28599,7 +28605,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28686,7 +28692,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT144">
         <v>0.54</v>
@@ -28790,7 +28796,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29262,7 +29268,7 @@
         <v>1.33</v>
       </c>
       <c r="AT147">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU147">
         <v>1.07</v>
@@ -29745,7 +29751,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30023,7 +30029,7 @@
         <v>1.56</v>
       </c>
       <c r="AS151">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT151">
         <v>1.42</v>
@@ -30891,7 +30897,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31273,7 +31279,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31655,7 +31661,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31846,7 +31852,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32228,7 +32234,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32610,7 +32616,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32891,7 +32897,7 @@
         <v>2</v>
       </c>
       <c r="AT166">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU166">
         <v>1.73</v>
@@ -32992,7 +32998,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33079,7 +33085,7 @@
         <v>0.6</v>
       </c>
       <c r="AS167">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT167">
         <v>0.75</v>
@@ -34329,7 +34335,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34711,7 +34717,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34902,7 +34908,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35475,7 +35481,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35756,7 +35762,7 @@
         <v>2.23</v>
       </c>
       <c r="AT181">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU181">
         <v>1.62</v>
@@ -35857,7 +35863,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36048,7 +36054,7 @@
         <v>198</v>
       </c>
       <c r="P183" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36430,7 +36436,7 @@
         <v>199</v>
       </c>
       <c r="P185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36517,7 +36523,7 @@
         <v>1.09</v>
       </c>
       <c r="AS185">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT185">
         <v>1</v>
@@ -36621,7 +36627,7 @@
         <v>200</v>
       </c>
       <c r="P186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37003,7 +37009,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37576,7 +37582,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -39295,7 +39301,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39437,6 +39443,197 @@
       </c>
       <c r="BK200">
         <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2447743</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44993.60416666666</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>80</v>
+      </c>
+      <c r="H201" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>204</v>
+      </c>
+      <c r="P201" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q201">
+        <v>3</v>
+      </c>
+      <c r="R201">
+        <v>4</v>
+      </c>
+      <c r="S201">
+        <v>7</v>
+      </c>
+      <c r="T201">
+        <v>1.57</v>
+      </c>
+      <c r="U201">
+        <v>2.75</v>
+      </c>
+      <c r="V201">
+        <v>8.9</v>
+      </c>
+      <c r="W201">
+        <v>1.25</v>
+      </c>
+      <c r="X201">
+        <v>3.75</v>
+      </c>
+      <c r="Y201">
+        <v>2.1</v>
+      </c>
+      <c r="Z201">
+        <v>1.67</v>
+      </c>
+      <c r="AA201">
+        <v>4.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.17</v>
+      </c>
+      <c r="AC201">
+        <v>1.16</v>
+      </c>
+      <c r="AD201">
+        <v>6.17</v>
+      </c>
+      <c r="AE201">
+        <v>10.41</v>
+      </c>
+      <c r="AF201">
+        <v>1.03</v>
+      </c>
+      <c r="AG201">
+        <v>12</v>
+      </c>
+      <c r="AH201">
+        <v>1.17</v>
+      </c>
+      <c r="AI201">
+        <v>4.5</v>
+      </c>
+      <c r="AJ201">
+        <v>1.53</v>
+      </c>
+      <c r="AK201">
+        <v>2.35</v>
+      </c>
+      <c r="AL201">
+        <v>2.2</v>
+      </c>
+      <c r="AM201">
+        <v>1.62</v>
+      </c>
+      <c r="AN201">
+        <v>1.02</v>
+      </c>
+      <c r="AO201">
+        <v>1.06</v>
+      </c>
+      <c r="AP201">
+        <v>4.2</v>
+      </c>
+      <c r="AQ201">
+        <v>1.83</v>
+      </c>
+      <c r="AR201">
+        <v>0.42</v>
+      </c>
+      <c r="AS201">
+        <v>1.77</v>
+      </c>
+      <c r="AT201">
+        <v>0.46</v>
+      </c>
+      <c r="AU201">
+        <v>2.07</v>
+      </c>
+      <c r="AV201">
+        <v>1.24</v>
+      </c>
+      <c r="AW201">
+        <v>3.31</v>
+      </c>
+      <c r="AX201">
+        <v>1.12</v>
+      </c>
+      <c r="AY201">
+        <v>17</v>
+      </c>
+      <c r="AZ201">
+        <v>7.2</v>
+      </c>
+      <c r="BA201">
+        <v>1.29</v>
+      </c>
+      <c r="BB201">
+        <v>1.53</v>
+      </c>
+      <c r="BC201">
+        <v>1.9</v>
+      </c>
+      <c r="BD201">
+        <v>2.5</v>
+      </c>
+      <c r="BE201">
+        <v>3.4</v>
+      </c>
+      <c r="BF201">
+        <v>2</v>
+      </c>
+      <c r="BG201">
+        <v>2</v>
+      </c>
+      <c r="BH201">
+        <v>4</v>
+      </c>
+      <c r="BI201">
+        <v>3</v>
+      </c>
+      <c r="BJ201">
+        <v>6</v>
+      </c>
+      <c r="BK201">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['12', '31', '69']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1239,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1677,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1865,7 +1868,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2056,7 +2059,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2438,7 +2441,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2719,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3011,7 +3014,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3202,7 +3205,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3966,7 +3969,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4244,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT16">
         <v>0.38</v>
@@ -4539,7 +4542,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5112,7 +5115,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5775,7 +5778,7 @@
         <v>2.23</v>
       </c>
       <c r="AT24">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -6258,7 +6261,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6345,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT27">
         <v>1.46</v>
@@ -6449,7 +6452,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6831,7 +6834,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7022,7 +7025,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7213,7 +7216,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7786,7 +7789,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8550,7 +8553,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8741,7 +8744,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9314,7 +9317,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9505,7 +9508,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9696,7 +9699,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9887,7 +9890,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9974,7 +9977,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT46">
         <v>1.75</v>
@@ -10359,7 +10362,7 @@
         <v>2.08</v>
       </c>
       <c r="AT48">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU48">
         <v>1.54</v>
@@ -10651,7 +10654,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10842,7 +10845,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11606,7 +11609,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11988,7 +11991,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12078,7 +12081,7 @@
         <v>1.08</v>
       </c>
       <c r="AT57">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU57">
         <v>1.65</v>
@@ -12179,7 +12182,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12370,7 +12373,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12561,7 +12564,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12839,7 +12842,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT61">
         <v>2.33</v>
@@ -14089,7 +14092,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14280,7 +14283,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14471,7 +14474,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14662,7 +14665,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14752,7 +14755,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU71">
         <v>1.87</v>
@@ -14853,7 +14856,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15044,7 +15047,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15426,7 +15429,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15513,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT75">
         <v>1.42</v>
@@ -15617,7 +15620,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15808,7 +15811,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16381,7 +16384,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17145,7 +17148,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17614,7 +17617,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT86">
         <v>0.75</v>
@@ -17718,7 +17721,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17909,7 +17912,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18190,7 +18193,7 @@
         <v>2.67</v>
       </c>
       <c r="AT89">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU89">
         <v>2.78</v>
@@ -19055,7 +19058,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19246,7 +19249,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19437,7 +19440,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19819,7 +19822,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20010,7 +20013,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20392,7 +20395,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20774,7 +20777,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20864,7 +20867,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU103">
         <v>1.11</v>
@@ -21156,7 +21159,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21729,7 +21732,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21920,7 +21923,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22302,7 +22305,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22684,7 +22687,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22875,7 +22878,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23257,7 +23260,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23344,7 +23347,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT116">
         <v>2.85</v>
@@ -23448,7 +23451,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23729,7 +23732,7 @@
         <v>1.77</v>
       </c>
       <c r="AT118">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU118">
         <v>2.05</v>
@@ -23830,7 +23833,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24021,7 +24024,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24299,7 +24302,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT121">
         <v>0.46</v>
@@ -24403,7 +24406,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24785,7 +24788,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24976,7 +24979,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25358,7 +25361,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25740,7 +25743,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26021,7 +26024,7 @@
         <v>1.69</v>
       </c>
       <c r="AT130">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26504,7 +26507,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -27077,7 +27080,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27737,7 +27740,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT139">
         <v>0.23</v>
@@ -27841,7 +27844,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -28414,7 +28417,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28605,7 +28608,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28796,7 +28799,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29077,7 +29080,7 @@
         <v>1.08</v>
       </c>
       <c r="AT146">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU146">
         <v>1.46</v>
@@ -29751,7 +29754,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30793,7 +30796,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT155">
         <v>1.17</v>
@@ -30897,7 +30900,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31279,7 +31282,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31661,7 +31664,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31852,7 +31855,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32234,7 +32237,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32515,7 +32518,7 @@
         <v>1.85</v>
       </c>
       <c r="AT164">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU164">
         <v>2.01</v>
@@ -32616,7 +32619,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32998,7 +33001,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -34335,7 +34338,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34613,7 +34616,7 @@
         <v>0.9</v>
       </c>
       <c r="AS175">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT175">
         <v>0.83</v>
@@ -34717,7 +34720,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34908,7 +34911,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35481,7 +35484,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35863,7 +35866,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36054,7 +36057,7 @@
         <v>198</v>
       </c>
       <c r="P183" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36436,7 +36439,7 @@
         <v>199</v>
       </c>
       <c r="P185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36627,7 +36630,7 @@
         <v>200</v>
       </c>
       <c r="P186" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37009,7 +37012,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37099,7 +37102,7 @@
         <v>0.62</v>
       </c>
       <c r="AT188">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU188">
         <v>1.23</v>
@@ -37582,7 +37585,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37669,7 +37672,7 @@
         <v>2</v>
       </c>
       <c r="AS191">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT191">
         <v>2.08</v>
@@ -39301,7 +39304,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39492,7 +39495,7 @@
         <v>204</v>
       </c>
       <c r="P201" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39634,6 +39637,197 @@
       </c>
       <c r="BK201">
         <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2447753</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>78</v>
+      </c>
+      <c r="H202" t="s">
+        <v>79</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>205</v>
+      </c>
+      <c r="P202" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q202">
+        <v>4</v>
+      </c>
+      <c r="R202">
+        <v>7</v>
+      </c>
+      <c r="S202">
+        <v>11</v>
+      </c>
+      <c r="T202">
+        <v>3.02</v>
+      </c>
+      <c r="U202">
+        <v>1.97</v>
+      </c>
+      <c r="V202">
+        <v>4.22</v>
+      </c>
+      <c r="W202">
+        <v>1.58</v>
+      </c>
+      <c r="X202">
+        <v>2.13</v>
+      </c>
+      <c r="Y202">
+        <v>3.7</v>
+      </c>
+      <c r="Z202">
+        <v>1.23</v>
+      </c>
+      <c r="AA202">
+        <v>10</v>
+      </c>
+      <c r="AB202">
+        <v>1.03</v>
+      </c>
+      <c r="AC202">
+        <v>2.25</v>
+      </c>
+      <c r="AD202">
+        <v>2.8</v>
+      </c>
+      <c r="AE202">
+        <v>3.3</v>
+      </c>
+      <c r="AF202">
+        <v>1.08</v>
+      </c>
+      <c r="AG202">
+        <v>5.9</v>
+      </c>
+      <c r="AH202">
+        <v>1.5</v>
+      </c>
+      <c r="AI202">
+        <v>2.37</v>
+      </c>
+      <c r="AJ202">
+        <v>2.61</v>
+      </c>
+      <c r="AK202">
+        <v>1.42</v>
+      </c>
+      <c r="AL202">
+        <v>2.1</v>
+      </c>
+      <c r="AM202">
+        <v>1.7</v>
+      </c>
+      <c r="AN202">
+        <v>1.3</v>
+      </c>
+      <c r="AO202">
+        <v>1.33</v>
+      </c>
+      <c r="AP202">
+        <v>1.6</v>
+      </c>
+      <c r="AQ202">
+        <v>1.17</v>
+      </c>
+      <c r="AR202">
+        <v>0.58</v>
+      </c>
+      <c r="AS202">
+        <v>1.31</v>
+      </c>
+      <c r="AT202">
+        <v>0.54</v>
+      </c>
+      <c r="AU202">
+        <v>1.46</v>
+      </c>
+      <c r="AV202">
+        <v>1.26</v>
+      </c>
+      <c r="AW202">
+        <v>2.72</v>
+      </c>
+      <c r="AX202">
+        <v>0</v>
+      </c>
+      <c r="AY202">
+        <v>0</v>
+      </c>
+      <c r="AZ202">
+        <v>0</v>
+      </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>0</v>
+      </c>
+      <c r="BC202">
+        <v>0</v>
+      </c>
+      <c r="BD202">
+        <v>0</v>
+      </c>
+      <c r="BE202">
+        <v>0</v>
+      </c>
+      <c r="BF202">
+        <v>6</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>1</v>
+      </c>
+      <c r="BI202">
+        <v>4</v>
+      </c>
+      <c r="BJ202">
+        <v>7</v>
+      </c>
+      <c r="BK202">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,15 @@
     <t>['12', '31', '69']</t>
   </si>
   <si>
+    <t>['5', '14', '82']</t>
+  </si>
+  <si>
+    <t>['62', '84']</t>
+  </si>
+  <si>
+    <t>['10', '34', '73', '77', '81']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -881,6 +890,15 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['66', '72']</t>
+  </si>
+  <si>
+    <t>['11', '64', '73']</t>
+  </si>
+  <si>
+    <t>['52', '78', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1594,7 @@
         <v>1.69</v>
       </c>
       <c r="AT2">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1677,7 +1695,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1764,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT3">
         <v>0.54</v>
@@ -1868,7 +1886,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2059,7 +2077,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2149,7 +2167,7 @@
         <v>1.08</v>
       </c>
       <c r="AT5">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2337,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT6">
         <v>0.77</v>
@@ -2441,7 +2459,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2531,7 +2549,7 @@
         <v>1.08</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2719,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT8">
         <v>0.54</v>
@@ -3014,7 +3032,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3101,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3205,7 +3223,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3295,7 +3313,7 @@
         <v>2.08</v>
       </c>
       <c r="AT11">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3483,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT12">
         <v>0.23</v>
@@ -3677,7 +3695,7 @@
         <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3865,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT14">
         <v>0.46</v>
@@ -3969,7 +3987,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4441,7 +4459,7 @@
         <v>1.46</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4542,7 +4560,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4632,7 +4650,7 @@
         <v>1.08</v>
       </c>
       <c r="AT18">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU18">
         <v>1</v>
@@ -5115,7 +5133,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5202,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT21">
         <v>2.85</v>
@@ -5393,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT22">
         <v>0.54</v>
@@ -5587,7 +5605,7 @@
         <v>1.69</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5969,7 +5987,7 @@
         <v>2.08</v>
       </c>
       <c r="AT25">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU25">
         <v>1.59</v>
@@ -6157,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT26">
         <v>0.23</v>
@@ -6261,7 +6279,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6452,7 +6470,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6542,7 +6560,7 @@
         <v>1.46</v>
       </c>
       <c r="AT28">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU28">
         <v>1.06</v>
@@ -6730,10 +6748,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT29">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU29">
         <v>2.1</v>
@@ -6834,7 +6852,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6921,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>2.08</v>
@@ -7025,7 +7043,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7216,7 +7234,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7306,7 +7324,7 @@
         <v>0.62</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU32">
         <v>0.74</v>
@@ -7688,7 +7706,7 @@
         <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU34">
         <v>1.75</v>
@@ -7789,7 +7807,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7876,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT35">
         <v>0.77</v>
@@ -8452,7 +8470,7 @@
         <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8553,7 +8571,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8640,10 +8658,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8744,7 +8762,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9213,10 +9231,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT42">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU42">
         <v>2.77</v>
@@ -9317,7 +9335,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9404,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT43">
         <v>0.23</v>
@@ -9508,7 +9526,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9595,10 +9613,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT44">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9699,7 +9717,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9789,7 +9807,7 @@
         <v>0.62</v>
       </c>
       <c r="AT45">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU45">
         <v>0.7</v>
@@ -9890,7 +9908,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9980,7 +9998,7 @@
         <v>1.31</v>
       </c>
       <c r="AT46">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -10550,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT49">
         <v>0.38</v>
@@ -10654,7 +10672,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10845,7 +10863,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11126,7 +11144,7 @@
         <v>1.85</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU52">
         <v>1.68</v>
@@ -11609,7 +11627,7 @@
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11699,7 +11717,7 @@
         <v>0.62</v>
       </c>
       <c r="AT55">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU55">
         <v>0.8</v>
@@ -11887,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT56">
         <v>2.08</v>
@@ -11991,7 +12009,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12078,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT57">
         <v>0.54</v>
@@ -12182,7 +12200,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12269,10 +12287,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT58">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU58">
         <v>0.95</v>
@@ -12373,7 +12391,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12463,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU59">
         <v>1.5</v>
@@ -12564,7 +12582,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12651,10 +12669,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT60">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU60">
         <v>2.53</v>
@@ -12845,7 +12863,7 @@
         <v>1.31</v>
       </c>
       <c r="AT61">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU61">
         <v>1.31</v>
@@ -13227,7 +13245,7 @@
         <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU63">
         <v>1.35</v>
@@ -13415,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT64">
         <v>0.77</v>
@@ -14092,7 +14110,7 @@
         <v>113</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14283,7 +14301,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14474,7 +14492,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14561,10 +14579,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14665,7 +14683,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14752,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT71">
         <v>0.54</v>
@@ -14856,7 +14874,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14946,7 +14964,7 @@
         <v>2</v>
       </c>
       <c r="AT72">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -15047,7 +15065,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15134,10 +15152,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT73">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU73">
         <v>1.99</v>
@@ -15325,7 +15343,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT74">
         <v>2.08</v>
@@ -15429,7 +15447,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15519,7 +15537,7 @@
         <v>1.31</v>
       </c>
       <c r="AT75">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU75">
         <v>1.33</v>
@@ -15620,7 +15638,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15707,10 +15725,10 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU76">
         <v>1.09</v>
@@ -15811,7 +15829,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15901,7 +15919,7 @@
         <v>1.08</v>
       </c>
       <c r="AT77">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU77">
         <v>1.1</v>
@@ -16384,7 +16402,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17148,7 +17166,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17620,7 +17638,7 @@
         <v>1.31</v>
       </c>
       <c r="AT86">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU86">
         <v>1.33</v>
@@ -17721,7 +17739,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17808,7 +17826,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT87">
         <v>2.08</v>
@@ -17912,7 +17930,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18002,7 +18020,7 @@
         <v>1.69</v>
       </c>
       <c r="AT88">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -18190,7 +18208,7 @@
         <v>0.6</v>
       </c>
       <c r="AS89">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT89">
         <v>0.54</v>
@@ -18381,10 +18399,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT90">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18575,7 +18593,7 @@
         <v>1.08</v>
       </c>
       <c r="AT91">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU91">
         <v>1.15</v>
@@ -18766,7 +18784,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18954,7 +18972,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT93">
         <v>0.54</v>
@@ -19058,7 +19076,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19249,7 +19267,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19440,7 +19458,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19530,7 +19548,7 @@
         <v>1.08</v>
       </c>
       <c r="AT96">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU96">
         <v>1.36</v>
@@ -19822,7 +19840,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19909,7 +19927,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20013,7 +20031,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -20395,7 +20413,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20676,7 +20694,7 @@
         <v>1.08</v>
       </c>
       <c r="AT102">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU102">
         <v>1.21</v>
@@ -20777,7 +20795,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -20864,7 +20882,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT103">
         <v>0.54</v>
@@ -21058,7 +21076,7 @@
         <v>2</v>
       </c>
       <c r="AT104">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21159,7 +21177,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21246,7 +21264,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT105">
         <v>2.08</v>
@@ -21440,7 +21458,7 @@
         <v>2.23</v>
       </c>
       <c r="AT106">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU106">
         <v>1.85</v>
@@ -21628,7 +21646,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT107">
         <v>0.54</v>
@@ -21732,7 +21750,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21822,7 +21840,7 @@
         <v>1.69</v>
       </c>
       <c r="AT108">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -21923,7 +21941,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22010,7 +22028,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22305,7 +22323,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22586,7 +22604,7 @@
         <v>1.85</v>
       </c>
       <c r="AT112">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU112">
         <v>2.15</v>
@@ -22687,7 +22705,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22774,7 +22792,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT113">
         <v>0.46</v>
@@ -22878,7 +22896,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23260,7 +23278,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23451,7 +23469,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23541,7 +23559,7 @@
         <v>1.77</v>
       </c>
       <c r="AT117">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU117">
         <v>2.04</v>
@@ -23833,7 +23851,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23920,7 +23938,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT119">
         <v>2.85</v>
@@ -24024,7 +24042,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24114,7 +24132,7 @@
         <v>1.85</v>
       </c>
       <c r="AT120">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU120">
         <v>2.14</v>
@@ -24406,7 +24424,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24493,7 +24511,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT122">
         <v>2.85</v>
@@ -24687,7 +24705,7 @@
         <v>2.08</v>
       </c>
       <c r="AT123">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU123">
         <v>1.56</v>
@@ -24788,7 +24806,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24878,7 +24896,7 @@
         <v>1.77</v>
       </c>
       <c r="AT124">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -24979,7 +24997,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25257,7 +25275,7 @@
         <v>0.29</v>
       </c>
       <c r="AS126">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT126">
         <v>0.38</v>
@@ -25361,7 +25379,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25743,7 +25761,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25833,7 +25851,7 @@
         <v>2.23</v>
       </c>
       <c r="AT129">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU129">
         <v>1.79</v>
@@ -26212,10 +26230,10 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT131">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26507,7 +26525,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26785,7 +26803,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -27080,7 +27098,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27170,7 +27188,7 @@
         <v>0.62</v>
       </c>
       <c r="AT136">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU136">
         <v>1.11</v>
@@ -27361,7 +27379,7 @@
         <v>2.08</v>
       </c>
       <c r="AT137">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU137">
         <v>1.58</v>
@@ -27552,7 +27570,7 @@
         <v>1.46</v>
       </c>
       <c r="AT138">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU138">
         <v>1.52</v>
@@ -27844,7 +27862,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>12</v>
@@ -27931,7 +27949,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT140">
         <v>0.46</v>
@@ -28122,7 +28140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT141">
         <v>1.46</v>
@@ -28313,7 +28331,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT142">
         <v>0.38</v>
@@ -28417,7 +28435,7 @@
         <v>177</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28507,7 +28525,7 @@
         <v>1.85</v>
       </c>
       <c r="AT143">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU143">
         <v>2.09</v>
@@ -28608,7 +28626,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>10</v>
@@ -28799,7 +28817,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29268,7 +29286,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT147">
         <v>0.46</v>
@@ -29650,7 +29668,7 @@
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -29754,7 +29772,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30035,7 +30053,7 @@
         <v>1.77</v>
       </c>
       <c r="AT151">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU151">
         <v>2.19</v>
@@ -30226,7 +30244,7 @@
         <v>2.23</v>
       </c>
       <c r="AT152">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU152">
         <v>1.61</v>
@@ -30799,7 +30817,7 @@
         <v>1.31</v>
       </c>
       <c r="AT155">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -30900,7 +30918,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30987,7 +31005,7 @@
         <v>0.33</v>
       </c>
       <c r="AS156">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT156">
         <v>0.38</v>
@@ -31178,7 +31196,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT157">
         <v>1.46</v>
@@ -31282,7 +31300,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31369,10 +31387,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT158">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU158">
         <v>1.75</v>
@@ -31563,7 +31581,7 @@
         <v>1.46</v>
       </c>
       <c r="AT159">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU159">
         <v>1.51</v>
@@ -31664,7 +31682,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31855,7 +31873,7 @@
         <v>189</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31945,7 +31963,7 @@
         <v>0.62</v>
       </c>
       <c r="AT161">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU161">
         <v>1.17</v>
@@ -32237,7 +32255,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32619,7 +32637,7 @@
         <v>84</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -32897,7 +32915,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT166">
         <v>0.46</v>
@@ -33001,7 +33019,7 @@
         <v>84</v>
       </c>
       <c r="P167" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33091,7 +33109,7 @@
         <v>1.77</v>
       </c>
       <c r="AT167">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU167">
         <v>2.21</v>
@@ -33661,7 +33679,7 @@
         <v>1.4</v>
       </c>
       <c r="AS170">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT170">
         <v>1.46</v>
@@ -33855,7 +33873,7 @@
         <v>2</v>
       </c>
       <c r="AT171">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU171">
         <v>1.39</v>
@@ -34043,7 +34061,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>0.23</v>
@@ -34234,10 +34252,10 @@
         <v>1.8</v>
       </c>
       <c r="AS173">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT173">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU173">
         <v>2.68</v>
@@ -34338,7 +34356,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34428,7 +34446,7 @@
         <v>1.46</v>
       </c>
       <c r="AT174">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU174">
         <v>1.5</v>
@@ -34619,7 +34637,7 @@
         <v>1.31</v>
       </c>
       <c r="AT175">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU175">
         <v>1.47</v>
@@ -34720,7 +34738,7 @@
         <v>157</v>
       </c>
       <c r="P176" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34911,7 +34929,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -34998,10 +35016,10 @@
         <v>2.5</v>
       </c>
       <c r="AS177">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT177">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU177">
         <v>1.79</v>
@@ -35484,7 +35502,7 @@
         <v>196</v>
       </c>
       <c r="P180" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q180">
         <v>12</v>
@@ -35571,7 +35589,7 @@
         <v>0.18</v>
       </c>
       <c r="AS180">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT180">
         <v>0.23</v>
@@ -35866,7 +35884,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36057,7 +36075,7 @@
         <v>198</v>
       </c>
       <c r="P183" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36338,7 +36356,7 @@
         <v>2.08</v>
       </c>
       <c r="AT184">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU184">
         <v>1.69</v>
@@ -36439,7 +36457,7 @@
         <v>199</v>
       </c>
       <c r="P185" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36630,7 +36648,7 @@
         <v>200</v>
       </c>
       <c r="P186" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36717,7 +36735,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT186">
         <v>1.46</v>
@@ -36911,7 +36929,7 @@
         <v>1.08</v>
       </c>
       <c r="AT187">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU187">
         <v>1.2</v>
@@ -37012,7 +37030,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37290,10 +37308,10 @@
         <v>1.55</v>
       </c>
       <c r="AS189">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT189">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU189">
         <v>1.7</v>
@@ -37481,10 +37499,10 @@
         <v>1.64</v>
       </c>
       <c r="AS190">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT190">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU190">
         <v>1.16</v>
@@ -37585,7 +37603,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37866,7 +37884,7 @@
         <v>2</v>
       </c>
       <c r="AT192">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU192">
         <v>1.35</v>
@@ -38054,10 +38072,10 @@
         <v>2.55</v>
       </c>
       <c r="AS193">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT193">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU193">
         <v>2.57</v>
@@ -39304,7 +39322,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39495,7 +39513,7 @@
         <v>204</v>
       </c>
       <c r="P201" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39812,22 +39830,1168 @@
         <v>0</v>
       </c>
       <c r="BF202">
+        <v>8</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>0</v>
+      </c>
+      <c r="BI202">
+        <v>3</v>
+      </c>
+      <c r="BJ202">
+        <v>8</v>
+      </c>
+      <c r="BK202">
         <v>6</v>
       </c>
-      <c r="BG202">
-        <v>3</v>
-      </c>
-      <c r="BH202">
-        <v>1</v>
-      </c>
-      <c r="BI202">
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2447748</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>67</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>5</v>
+      </c>
+      <c r="O203" t="s">
+        <v>206</v>
+      </c>
+      <c r="P203" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q203">
+        <v>6</v>
+      </c>
+      <c r="R203">
+        <v>3</v>
+      </c>
+      <c r="S203">
+        <v>9</v>
+      </c>
+      <c r="T203">
+        <v>2.85</v>
+      </c>
+      <c r="U203">
+        <v>2.05</v>
+      </c>
+      <c r="V203">
+        <v>3.6</v>
+      </c>
+      <c r="W203">
+        <v>1.39</v>
+      </c>
+      <c r="X203">
+        <v>2.84</v>
+      </c>
+      <c r="Y203">
+        <v>2.85</v>
+      </c>
+      <c r="Z203">
+        <v>1.39</v>
+      </c>
+      <c r="AA203">
+        <v>6.75</v>
+      </c>
+      <c r="AB203">
+        <v>1.08</v>
+      </c>
+      <c r="AC203">
+        <v>2.2</v>
+      </c>
+      <c r="AD203">
+        <v>3.1</v>
+      </c>
+      <c r="AE203">
+        <v>3.1</v>
+      </c>
+      <c r="AF203">
+        <v>1.06</v>
+      </c>
+      <c r="AG203">
+        <v>10.25</v>
+      </c>
+      <c r="AH203">
+        <v>1.32</v>
+      </c>
+      <c r="AI203">
+        <v>3.3</v>
+      </c>
+      <c r="AJ203">
+        <v>1.9</v>
+      </c>
+      <c r="AK203">
+        <v>1.8</v>
+      </c>
+      <c r="AL203">
+        <v>1.75</v>
+      </c>
+      <c r="AM203">
+        <v>1.95</v>
+      </c>
+      <c r="AN203">
+        <v>1.35</v>
+      </c>
+      <c r="AO203">
+        <v>1.32</v>
+      </c>
+      <c r="AP203">
+        <v>1.58</v>
+      </c>
+      <c r="AQ203">
+        <v>2</v>
+      </c>
+      <c r="AR203">
+        <v>1.75</v>
+      </c>
+      <c r="AS203">
+        <v>2.08</v>
+      </c>
+      <c r="AT203">
+        <v>1.62</v>
+      </c>
+      <c r="AU203">
+        <v>1.76</v>
+      </c>
+      <c r="AV203">
+        <v>1.71</v>
+      </c>
+      <c r="AW203">
+        <v>3.47</v>
+      </c>
+      <c r="AX203">
+        <v>0</v>
+      </c>
+      <c r="AY203">
+        <v>0</v>
+      </c>
+      <c r="AZ203">
+        <v>0</v>
+      </c>
+      <c r="BA203">
+        <v>0</v>
+      </c>
+      <c r="BB203">
+        <v>0</v>
+      </c>
+      <c r="BC203">
+        <v>0</v>
+      </c>
+      <c r="BD203">
+        <v>0</v>
+      </c>
+      <c r="BE203">
+        <v>0</v>
+      </c>
+      <c r="BF203">
         <v>4</v>
       </c>
-      <c r="BJ202">
+      <c r="BG203">
+        <v>3</v>
+      </c>
+      <c r="BH203">
+        <v>3</v>
+      </c>
+      <c r="BI203">
+        <v>6</v>
+      </c>
+      <c r="BJ203">
         <v>7</v>
       </c>
-      <c r="BK202">
+      <c r="BK203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2447754</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>75</v>
+      </c>
+      <c r="H204" t="s">
+        <v>77</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204" t="s">
+        <v>84</v>
+      </c>
+      <c r="P204" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q204">
         <v>7</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>9</v>
+      </c>
+      <c r="T204">
+        <v>2.85</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>4</v>
+      </c>
+      <c r="W204">
+        <v>1.5</v>
+      </c>
+      <c r="X204">
+        <v>2.4</v>
+      </c>
+      <c r="Y204">
+        <v>3.25</v>
+      </c>
+      <c r="Z204">
+        <v>1.3</v>
+      </c>
+      <c r="AA204">
+        <v>7.75</v>
+      </c>
+      <c r="AB204">
+        <v>1.05</v>
+      </c>
+      <c r="AC204">
+        <v>2</v>
+      </c>
+      <c r="AD204">
+        <v>3.1</v>
+      </c>
+      <c r="AE204">
+        <v>3.55</v>
+      </c>
+      <c r="AF204">
+        <v>1.09</v>
+      </c>
+      <c r="AG204">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH204">
+        <v>1.42</v>
+      </c>
+      <c r="AI204">
+        <v>2.75</v>
+      </c>
+      <c r="AJ204">
+        <v>2.25</v>
+      </c>
+      <c r="AK204">
+        <v>1.57</v>
+      </c>
+      <c r="AL204">
+        <v>1.95</v>
+      </c>
+      <c r="AM204">
+        <v>1.75</v>
+      </c>
+      <c r="AN204">
+        <v>1.32</v>
+      </c>
+      <c r="AO204">
+        <v>1.35</v>
+      </c>
+      <c r="AP204">
+        <v>1.62</v>
+      </c>
+      <c r="AQ204">
+        <v>1.33</v>
+      </c>
+      <c r="AR204">
+        <v>0.75</v>
+      </c>
+      <c r="AS204">
+        <v>1.31</v>
+      </c>
+      <c r="AT204">
+        <v>0.77</v>
+      </c>
+      <c r="AU204">
+        <v>1.65</v>
+      </c>
+      <c r="AV204">
+        <v>1.28</v>
+      </c>
+      <c r="AW204">
+        <v>2.93</v>
+      </c>
+      <c r="AX204">
+        <v>0</v>
+      </c>
+      <c r="AY204">
+        <v>0</v>
+      </c>
+      <c r="AZ204">
+        <v>0</v>
+      </c>
+      <c r="BA204">
+        <v>0</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>0</v>
+      </c>
+      <c r="BD204">
+        <v>0</v>
+      </c>
+      <c r="BE204">
+        <v>0</v>
+      </c>
+      <c r="BF204">
+        <v>4</v>
+      </c>
+      <c r="BG204">
+        <v>0</v>
+      </c>
+      <c r="BH204">
+        <v>9</v>
+      </c>
+      <c r="BI204">
+        <v>6</v>
+      </c>
+      <c r="BJ204">
+        <v>13</v>
+      </c>
+      <c r="BK204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2447747</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s">
+        <v>65</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+      <c r="N205">
+        <v>5</v>
+      </c>
+      <c r="O205" t="s">
+        <v>207</v>
+      </c>
+      <c r="P205" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q205">
+        <v>7</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>8</v>
+      </c>
+      <c r="T205">
+        <v>2.88</v>
+      </c>
+      <c r="U205">
+        <v>1.91</v>
+      </c>
+      <c r="V205">
+        <v>4.33</v>
+      </c>
+      <c r="W205">
+        <v>1.45</v>
+      </c>
+      <c r="X205">
+        <v>2.55</v>
+      </c>
+      <c r="Y205">
+        <v>3.05</v>
+      </c>
+      <c r="Z205">
+        <v>1.32</v>
+      </c>
+      <c r="AA205">
+        <v>7.25</v>
+      </c>
+      <c r="AB205">
+        <v>1.06</v>
+      </c>
+      <c r="AC205">
+        <v>2.11</v>
+      </c>
+      <c r="AD205">
+        <v>3.05</v>
+      </c>
+      <c r="AE205">
+        <v>3.15</v>
+      </c>
+      <c r="AF205">
+        <v>1.07</v>
+      </c>
+      <c r="AG205">
+        <v>9.1</v>
+      </c>
+      <c r="AH205">
+        <v>1.37</v>
+      </c>
+      <c r="AI205">
+        <v>3.05</v>
+      </c>
+      <c r="AJ205">
+        <v>2.33</v>
+      </c>
+      <c r="AK205">
+        <v>1.54</v>
+      </c>
+      <c r="AL205">
+        <v>1.88</v>
+      </c>
+      <c r="AM205">
+        <v>1.82</v>
+      </c>
+      <c r="AN205">
+        <v>1.27</v>
+      </c>
+      <c r="AO205">
+        <v>1.35</v>
+      </c>
+      <c r="AP205">
+        <v>1.7</v>
+      </c>
+      <c r="AQ205">
+        <v>1.08</v>
+      </c>
+      <c r="AR205">
+        <v>1.17</v>
+      </c>
+      <c r="AS205">
+        <v>1</v>
+      </c>
+      <c r="AT205">
+        <v>1.31</v>
+      </c>
+      <c r="AU205">
+        <v>1.71</v>
+      </c>
+      <c r="AV205">
+        <v>1.16</v>
+      </c>
+      <c r="AW205">
+        <v>2.87</v>
+      </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>2</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>0</v>
+      </c>
+      <c r="BF205">
+        <v>9</v>
+      </c>
+      <c r="BG205">
+        <v>5</v>
+      </c>
+      <c r="BH205">
+        <v>8</v>
+      </c>
+      <c r="BI205">
+        <v>3</v>
+      </c>
+      <c r="BJ205">
+        <v>17</v>
+      </c>
+      <c r="BK205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2447749</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>70</v>
+      </c>
+      <c r="H206" t="s">
+        <v>68</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206" t="s">
+        <v>84</v>
+      </c>
+      <c r="P206" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q206">
+        <v>1</v>
+      </c>
+      <c r="R206">
+        <v>3</v>
+      </c>
+      <c r="S206">
+        <v>4</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.91</v>
+      </c>
+      <c r="V206">
+        <v>4.33</v>
+      </c>
+      <c r="W206">
+        <v>1.55</v>
+      </c>
+      <c r="X206">
+        <v>2.35</v>
+      </c>
+      <c r="Y206">
+        <v>3.4</v>
+      </c>
+      <c r="Z206">
+        <v>1.27</v>
+      </c>
+      <c r="AA206">
+        <v>8</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>2.05</v>
+      </c>
+      <c r="AD206">
+        <v>3.05</v>
+      </c>
+      <c r="AE206">
+        <v>3.25</v>
+      </c>
+      <c r="AF206">
+        <v>1.1</v>
+      </c>
+      <c r="AG206">
+        <v>7.55</v>
+      </c>
+      <c r="AH206">
+        <v>1.47</v>
+      </c>
+      <c r="AI206">
+        <v>2.64</v>
+      </c>
+      <c r="AJ206">
+        <v>2.3</v>
+      </c>
+      <c r="AK206">
+        <v>1.56</v>
+      </c>
+      <c r="AL206">
+        <v>2.1</v>
+      </c>
+      <c r="AM206">
+        <v>1.68</v>
+      </c>
+      <c r="AN206">
+        <v>1.25</v>
+      </c>
+      <c r="AO206">
+        <v>1.38</v>
+      </c>
+      <c r="AP206">
+        <v>1.68</v>
+      </c>
+      <c r="AQ206">
+        <v>1.08</v>
+      </c>
+      <c r="AR206">
+        <v>0.83</v>
+      </c>
+      <c r="AS206">
+        <v>1.08</v>
+      </c>
+      <c r="AT206">
+        <v>0.85</v>
+      </c>
+      <c r="AU206">
+        <v>1.26</v>
+      </c>
+      <c r="AV206">
+        <v>1.29</v>
+      </c>
+      <c r="AW206">
+        <v>2.55</v>
+      </c>
+      <c r="AX206">
+        <v>0</v>
+      </c>
+      <c r="AY206">
+        <v>0</v>
+      </c>
+      <c r="AZ206">
+        <v>0</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>1.8</v>
+      </c>
+      <c r="BC206">
+        <v>0</v>
+      </c>
+      <c r="BD206">
+        <v>0</v>
+      </c>
+      <c r="BE206">
+        <v>0</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>5</v>
+      </c>
+      <c r="BH206">
+        <v>9</v>
+      </c>
+      <c r="BI206">
+        <v>5</v>
+      </c>
+      <c r="BJ206">
+        <v>13</v>
+      </c>
+      <c r="BK206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2447752</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>69</v>
+      </c>
+      <c r="H207" t="s">
+        <v>74</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="L207">
+        <v>5</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>6</v>
+      </c>
+      <c r="O207" t="s">
+        <v>208</v>
+      </c>
+      <c r="P207" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q207">
+        <v>10</v>
+      </c>
+      <c r="R207">
+        <v>3</v>
+      </c>
+      <c r="S207">
+        <v>13</v>
+      </c>
+      <c r="T207">
+        <v>1.5</v>
+      </c>
+      <c r="U207">
+        <v>3</v>
+      </c>
+      <c r="V207">
+        <v>9</v>
+      </c>
+      <c r="W207">
+        <v>1.22</v>
+      </c>
+      <c r="X207">
+        <v>3.9</v>
+      </c>
+      <c r="Y207">
+        <v>2</v>
+      </c>
+      <c r="Z207">
+        <v>1.72</v>
+      </c>
+      <c r="AA207">
+        <v>4.1</v>
+      </c>
+      <c r="AB207">
+        <v>1.2</v>
+      </c>
+      <c r="AC207">
+        <v>1.14</v>
+      </c>
+      <c r="AD207">
+        <v>6.2</v>
+      </c>
+      <c r="AE207">
+        <v>12</v>
+      </c>
+      <c r="AF207">
+        <v>1.01</v>
+      </c>
+      <c r="AG207">
+        <v>29</v>
+      </c>
+      <c r="AH207">
+        <v>1.12</v>
+      </c>
+      <c r="AI207">
+        <v>6</v>
+      </c>
+      <c r="AJ207">
+        <v>1.5</v>
+      </c>
+      <c r="AK207">
+        <v>2.3</v>
+      </c>
+      <c r="AL207">
+        <v>2</v>
+      </c>
+      <c r="AM207">
+        <v>1.72</v>
+      </c>
+      <c r="AN207">
+        <v>1.03</v>
+      </c>
+      <c r="AO207">
+        <v>1.07</v>
+      </c>
+      <c r="AP207">
+        <v>4.6</v>
+      </c>
+      <c r="AQ207">
+        <v>2.67</v>
+      </c>
+      <c r="AR207">
+        <v>1.42</v>
+      </c>
+      <c r="AS207">
+        <v>2.69</v>
+      </c>
+      <c r="AT207">
+        <v>1.31</v>
+      </c>
+      <c r="AU207">
+        <v>2.44</v>
+      </c>
+      <c r="AV207">
+        <v>1.4</v>
+      </c>
+      <c r="AW207">
+        <v>3.84</v>
+      </c>
+      <c r="AX207">
+        <v>1.08</v>
+      </c>
+      <c r="AY207">
+        <v>11</v>
+      </c>
+      <c r="AZ207">
+        <v>13</v>
+      </c>
+      <c r="BA207">
+        <v>1.25</v>
+      </c>
+      <c r="BB207">
+        <v>1.42</v>
+      </c>
+      <c r="BC207">
+        <v>1.8</v>
+      </c>
+      <c r="BD207">
+        <v>2.27</v>
+      </c>
+      <c r="BE207">
+        <v>3.05</v>
+      </c>
+      <c r="BF207">
+        <v>10</v>
+      </c>
+      <c r="BG207">
+        <v>3</v>
+      </c>
+      <c r="BH207">
+        <v>6</v>
+      </c>
+      <c r="BI207">
+        <v>2</v>
+      </c>
+      <c r="BJ207">
+        <v>16</v>
+      </c>
+      <c r="BK207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2447750</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44997.59375</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>66</v>
+      </c>
+      <c r="H208" t="s">
+        <v>80</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>3</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>84</v>
+      </c>
+      <c r="P208" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q208">
+        <v>3</v>
+      </c>
+      <c r="R208">
+        <v>5</v>
+      </c>
+      <c r="S208">
+        <v>8</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>5.65</v>
+      </c>
+      <c r="AD208">
+        <v>3.95</v>
+      </c>
+      <c r="AE208">
+        <v>1.51</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>1.75</v>
+      </c>
+      <c r="AK208">
+        <v>1.93</v>
+      </c>
+      <c r="AL208">
+        <v>0</v>
+      </c>
+      <c r="AM208">
+        <v>0</v>
+      </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
+      <c r="AO208">
+        <v>0</v>
+      </c>
+      <c r="AP208">
+        <v>0</v>
+      </c>
+      <c r="AQ208">
+        <v>1.33</v>
+      </c>
+      <c r="AR208">
+        <v>2.33</v>
+      </c>
+      <c r="AS208">
+        <v>1.23</v>
+      </c>
+      <c r="AT208">
+        <v>2.38</v>
+      </c>
+      <c r="AU208">
+        <v>1.12</v>
+      </c>
+      <c r="AV208">
+        <v>1.72</v>
+      </c>
+      <c r="AW208">
+        <v>2.84</v>
+      </c>
+      <c r="AX208">
+        <v>0</v>
+      </c>
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>0</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
+      <c r="BC208">
+        <v>0</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>0</v>
+      </c>
+      <c r="BF208">
+        <v>2</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>3</v>
+      </c>
+      <c r="BI208">
+        <v>5</v>
+      </c>
+      <c r="BJ208">
+        <v>5</v>
+      </c>
+      <c r="BK208">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -900,6 +900,9 @@
   <si>
     <t>['52', '78', '90+1']</t>
   </si>
+  <si>
+    <t>['67']</t>
+  </si>
 </sst>
 </file>
 
@@ -1260,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1976,7 +1979,7 @@
         <v>2.23</v>
       </c>
       <c r="AT4">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -5032,7 +5035,7 @@
         <v>1.77</v>
       </c>
       <c r="AT20">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -6942,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU30">
         <v>1.51</v>
@@ -7130,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT31">
         <v>0.38</v>
@@ -8849,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT40">
         <v>1.46</v>
@@ -9043,7 +9046,7 @@
         <v>1.46</v>
       </c>
       <c r="AT41">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -10186,7 +10189,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT47">
         <v>0.77</v>
@@ -11908,7 +11911,7 @@
         <v>1.31</v>
       </c>
       <c r="AT56">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU56">
         <v>2.14</v>
@@ -12478,7 +12481,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT59">
         <v>1.62</v>
@@ -14961,7 +14964,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT72">
         <v>2.38</v>
@@ -15346,7 +15349,7 @@
         <v>2.69</v>
       </c>
       <c r="AT74">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU74">
         <v>2.65</v>
@@ -17829,7 +17832,7 @@
         <v>1.23</v>
       </c>
       <c r="AT87">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU87">
         <v>1.14</v>
@@ -18781,7 +18784,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT92">
         <v>1.31</v>
@@ -21073,7 +21076,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT104">
         <v>0.77</v>
@@ -21267,7 +21270,7 @@
         <v>2.08</v>
       </c>
       <c r="AT105">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -25660,7 +25663,7 @@
         <v>1.08</v>
       </c>
       <c r="AT128">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU128">
         <v>1.46</v>
@@ -26612,7 +26615,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT133">
         <v>2.85</v>
@@ -30623,7 +30626,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT154">
         <v>0.23</v>
@@ -31772,7 +31775,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -33870,7 +33873,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT171">
         <v>1.31</v>
@@ -34828,7 +34831,7 @@
         <v>0.62</v>
       </c>
       <c r="AT176">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU176">
         <v>1.27</v>
@@ -37693,7 +37696,7 @@
         <v>1.31</v>
       </c>
       <c r="AT191">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU191">
         <v>1.49</v>
@@ -37881,7 +37884,7 @@
         <v>0.91</v>
       </c>
       <c r="AS192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT192">
         <v>0.85</v>
@@ -40280,13 +40283,13 @@
         <v>293</v>
       </c>
       <c r="Q205">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R205">
         <v>1</v>
       </c>
       <c r="S205">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T205">
         <v>2.88</v>
@@ -40992,6 +40995,197 @@
       </c>
       <c r="BK208">
         <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2447751</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44998.52083333334</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>72</v>
+      </c>
+      <c r="H209" t="s">
+        <v>76</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>84</v>
+      </c>
+      <c r="P209" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>7</v>
+      </c>
+      <c r="S209">
+        <v>11</v>
+      </c>
+      <c r="T209">
+        <v>3.75</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>3</v>
+      </c>
+      <c r="W209">
+        <v>1.5</v>
+      </c>
+      <c r="X209">
+        <v>2.4</v>
+      </c>
+      <c r="Y209">
+        <v>3.25</v>
+      </c>
+      <c r="Z209">
+        <v>1.3</v>
+      </c>
+      <c r="AA209">
+        <v>7.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.05</v>
+      </c>
+      <c r="AC209">
+        <v>3.91</v>
+      </c>
+      <c r="AD209">
+        <v>3.2</v>
+      </c>
+      <c r="AE209">
+        <v>1.88</v>
+      </c>
+      <c r="AF209">
+        <v>1.08</v>
+      </c>
+      <c r="AG209">
+        <v>8.65</v>
+      </c>
+      <c r="AH209">
+        <v>1.41</v>
+      </c>
+      <c r="AI209">
+        <v>2.84</v>
+      </c>
+      <c r="AJ209">
+        <v>2.06</v>
+      </c>
+      <c r="AK209">
+        <v>1.68</v>
+      </c>
+      <c r="AL209">
+        <v>1.95</v>
+      </c>
+      <c r="AM209">
+        <v>1.78</v>
+      </c>
+      <c r="AN209">
+        <v>1.62</v>
+      </c>
+      <c r="AO209">
+        <v>1.35</v>
+      </c>
+      <c r="AP209">
+        <v>1.32</v>
+      </c>
+      <c r="AQ209">
+        <v>2</v>
+      </c>
+      <c r="AR209">
+        <v>2.08</v>
+      </c>
+      <c r="AS209">
+        <v>1.85</v>
+      </c>
+      <c r="AT209">
+        <v>2.15</v>
+      </c>
+      <c r="AU209">
+        <v>1.31</v>
+      </c>
+      <c r="AV209">
+        <v>1.42</v>
+      </c>
+      <c r="AW209">
+        <v>2.73</v>
+      </c>
+      <c r="AX209">
+        <v>3.3</v>
+      </c>
+      <c r="AY209">
+        <v>6.3</v>
+      </c>
+      <c r="AZ209">
+        <v>1.59</v>
+      </c>
+      <c r="BA209">
+        <v>1.38</v>
+      </c>
+      <c r="BB209">
+        <v>1.67</v>
+      </c>
+      <c r="BC209">
+        <v>2.1</v>
+      </c>
+      <c r="BD209">
+        <v>2.7</v>
+      </c>
+      <c r="BE209">
+        <v>3.7</v>
+      </c>
+      <c r="BF209">
+        <v>0</v>
+      </c>
+      <c r="BG209">
+        <v>2</v>
+      </c>
+      <c r="BH209">
+        <v>6</v>
+      </c>
+      <c r="BI209">
+        <v>7</v>
+      </c>
+      <c r="BJ209">
+        <v>6</v>
+      </c>
+      <c r="BK209">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT5" t="n">
         <v>2.38</v>
@@ -2324,7 +2324,7 @@
         <v>1.85</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT11" t="n">
         <v>1.62</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT13" t="n">
         <v>0.85</v>
@@ -3339,7 +3339,7 @@
         <v>2.69</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU14" t="n">
         <v>2.22</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.31</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT18" t="n">
         <v>1.31</v>
@@ -4354,7 +4354,7 @@
         <v>1.08</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU19" t="n">
         <v>0.99</v>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT25" t="n">
         <v>2.38</v>
@@ -5978,7 +5978,7 @@
         <v>1.31</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6790,7 +6790,7 @@
         <v>1.85</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT32" t="n">
         <v>1.62</v>
@@ -7196,7 +7196,7 @@
         <v>1.69</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU33" t="n">
         <v>1.49</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT34" t="n">
         <v>1.31</v>
@@ -7805,7 +7805,7 @@
         <v>1.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>0.95</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT38" t="n">
         <v>0.77</v>
@@ -8617,7 +8617,7 @@
         <v>1.85</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU40" t="n">
         <v>1.64</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT45" t="n">
         <v>2.38</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT48" t="n">
         <v>0.54</v>
@@ -10444,7 +10444,7 @@
         <v>2.08</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10644,10 +10644,10 @@
         <v>0.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT52" t="n">
         <v>0.77</v>
@@ -11256,7 +11256,7 @@
         <v>1.69</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11459,7 +11459,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT55" t="n">
         <v>1.31</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT62" t="n">
         <v>0.54</v>
@@ -13892,10 +13892,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU66" t="n">
         <v>1.27</v>
@@ -14095,10 +14095,10 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14504,7 +14504,7 @@
         <v>2.23</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16534,7 +16534,7 @@
         <v>1.46</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU79" t="n">
         <v>1.36</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT80" t="n">
         <v>2.85</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT81" t="n">
         <v>0.54</v>
@@ -17143,7 +17143,7 @@
         <v>2.23</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17346,7 +17346,7 @@
         <v>1.64</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT84" t="n">
         <v>0.43</v>
@@ -19576,10 +19576,10 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT95" t="n">
         <v>0.43</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT96" t="n">
         <v>1.31</v>
@@ -20188,7 +20188,7 @@
         <v>1.46</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU97" t="n">
         <v>1.29</v>
@@ -20391,7 +20391,7 @@
         <v>1.31</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20591,7 +20591,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT99" t="n">
         <v>2.85</v>
@@ -20797,7 +20797,7 @@
         <v>1.64</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU109" t="n">
         <v>1.8</v>
@@ -22824,10 +22824,10 @@
         <v>0.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23027,10 +23027,10 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT112" t="n">
         <v>1.31</v>
@@ -23436,7 +23436,7 @@
         <v>1.31</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU113" t="n">
         <v>1.73</v>
@@ -23636,7 +23636,7 @@
         <v>0.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT114" t="n">
         <v>0.77</v>
@@ -24854,7 +24854,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT120" t="n">
         <v>1.62</v>
@@ -25060,7 +25060,7 @@
         <v>1.31</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.35</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT123" t="n">
         <v>1.31</v>
@@ -25869,7 +25869,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT125" t="n">
         <v>0.43</v>
@@ -26075,7 +26075,7 @@
         <v>1.31</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26278,7 +26278,7 @@
         <v>1.46</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT128" t="n">
         <v>2.15</v>
@@ -27699,7 +27699,7 @@
         <v>1.23</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU134" t="n">
         <v>1.08</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT136" t="n">
         <v>1.31</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT137" t="n">
         <v>0.85</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29120,7 +29120,7 @@
         <v>1.31</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29323,7 +29323,7 @@
         <v>2.69</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -29523,7 +29523,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT143" t="n">
         <v>2.38</v>
@@ -30132,7 +30132,7 @@
         <v>0.44</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT146" t="n">
         <v>0.54</v>
@@ -30338,7 +30338,7 @@
         <v>1.23</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU147" t="n">
         <v>1.07</v>
@@ -30538,7 +30538,7 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT148" t="n">
         <v>0.77</v>
@@ -30744,7 +30744,7 @@
         <v>2.08</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32368,7 +32368,7 @@
         <v>2.69</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU157" t="n">
         <v>2.72</v>
@@ -32974,7 +32974,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT160" t="n">
         <v>2.15</v>
@@ -33177,7 +33177,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT161" t="n">
         <v>0.85</v>
@@ -33383,7 +33383,7 @@
         <v>1.08</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU162" t="n">
         <v>1.24</v>
@@ -33586,7 +33586,7 @@
         <v>2.23</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,7 +33786,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT164" t="n">
         <v>0.54</v>
@@ -34195,7 +34195,7 @@
         <v>2.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -34598,7 +34598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT168" t="n">
         <v>0.54</v>
@@ -34801,7 +34801,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT169" t="n">
         <v>0.77</v>
@@ -35007,7 +35007,7 @@
         <v>1.23</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU170" t="n">
         <v>1.13</v>
@@ -36222,7 +36222,7 @@
         <v>1.9</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT176" t="n">
         <v>2.15</v>
@@ -36834,7 +36834,7 @@
         <v>1.69</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37240,7 +37240,7 @@
         <v>2.23</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU181" t="n">
         <v>1.62</v>
@@ -37440,7 +37440,7 @@
         <v>2.82</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT182" t="n">
         <v>2.85</v>
@@ -37643,7 +37643,7 @@
         <v>0.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT183" t="n">
         <v>0.54</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT184" t="n">
         <v>0.77</v>
@@ -38052,7 +38052,7 @@
         <v>1.64</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU185" t="n">
         <v>2.17</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU186" t="n">
         <v>1.68</v>
@@ -38658,7 +38658,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT188" t="n">
         <v>0.54</v>
@@ -40285,7 +40285,7 @@
         <v>1.69</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU196" t="n">
         <v>1.41</v>
@@ -40485,10 +40485,10 @@
         <v>1.08</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU197" t="n">
         <v>1.74</v>
@@ -40688,10 +40688,10 @@
         <v>0.33</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU198" t="n">
         <v>1.4</v>
@@ -40891,7 +40891,7 @@
         <v>0.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT199" t="n">
         <v>0.77</v>
@@ -41094,7 +41094,7 @@
         <v>2.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT200" t="n">
         <v>2.85</v>
@@ -41300,7 +41300,7 @@
         <v>1.64</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU201" t="n">
         <v>2.07</v>
@@ -43179,6 +43179,818 @@
       </c>
       <c r="BK210" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2447756</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['30', '62']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>12</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>14</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2447758</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1</v>
+      </c>
+      <c r="S212" t="n">
+        <v>7</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V212" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2447761</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>4</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="n">
+        <v>6</v>
+      </c>
+      <c r="T213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2447759</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['15', '36']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>6</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>7</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
+        <v>0</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0</v>
+      </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.29</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT6" t="n">
         <v>0.93</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT9" t="n">
         <v>1.14</v>
@@ -2524,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.93</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.93</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT14" t="n">
         <v>0.64</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT16" t="n">
         <v>0.36</v>
@@ -4151,7 +4151,7 @@
         <v>1.07</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>1.14</v>
@@ -4557,7 +4557,7 @@
         <v>1.64</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT21" t="n">
         <v>2.71</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU22" t="n">
         <v>2.29</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>2.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5572,7 +5572,7 @@
         <v>1.93</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT26" t="n">
         <v>0.43</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT27" t="n">
         <v>1.43</v>
@@ -6181,7 +6181,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.06</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT31" t="n">
         <v>0.36</v>
@@ -6993,7 +6993,7 @@
         <v>0.57</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU32" t="n">
         <v>0.74</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT33" t="n">
         <v>1.14</v>
@@ -7399,7 +7399,7 @@
         <v>1.93</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU34" t="n">
         <v>1.75</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT35" t="n">
         <v>0.93</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>0.64</v>
@@ -8008,7 +8008,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU37" t="n">
         <v>2.19</v>
@@ -8211,7 +8211,7 @@
         <v>1.07</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU39" t="n">
         <v>1.55</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT40" t="n">
         <v>1.43</v>
@@ -8820,7 +8820,7 @@
         <v>1.43</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT42" t="n">
         <v>1.21</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT43" t="n">
         <v>0.43</v>
@@ -9429,7 +9429,7 @@
         <v>1.21</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -9632,7 +9632,7 @@
         <v>0.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU45" t="n">
         <v>0.7</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT47" t="n">
         <v>0.93</v>
@@ -10241,7 +10241,7 @@
         <v>1.93</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU48" t="n">
         <v>1.54</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT49" t="n">
         <v>0.36</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0.93</v>
@@ -11053,7 +11053,7 @@
         <v>1.93</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.68</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT53" t="n">
         <v>0.64</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1.43</v>
@@ -11662,7 +11662,7 @@
         <v>0.57</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU55" t="n">
         <v>0.8</v>
@@ -11865,7 +11865,7 @@
         <v>1.21</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU56" t="n">
         <v>2.14</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU57" t="n">
         <v>1.65</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT58" t="n">
         <v>1.21</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>2.53</v>
@@ -12877,10 +12877,10 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -13083,7 +13083,7 @@
         <v>1.93</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13286,7 +13286,7 @@
         <v>1.43</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU63" t="n">
         <v>1.35</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT64" t="n">
         <v>0.93</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT65" t="n">
         <v>0.43</v>
@@ -14704,10 +14704,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU70" t="n">
         <v>1.77</v>
@@ -14910,7 +14910,7 @@
         <v>1.21</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU71" t="n">
         <v>1.87</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT73" t="n">
         <v>1.21</v>
@@ -15516,10 +15516,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU74" t="n">
         <v>2.65</v>
@@ -15719,10 +15719,10 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU75" t="n">
         <v>1.33</v>
@@ -15922,10 +15922,10 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.09</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU77" t="n">
         <v>1.1</v>
@@ -16940,7 +16940,7 @@
         <v>0.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU81" t="n">
         <v>0.96</v>
@@ -17749,7 +17749,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT85" t="n">
         <v>0.93</v>
@@ -17952,10 +17952,10 @@
         <v>0.83</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU86" t="n">
         <v>1.33</v>
@@ -18155,10 +18155,10 @@
         <v>1.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU87" t="n">
         <v>1.14</v>
@@ -18358,10 +18358,10 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18561,10 +18561,10 @@
         <v>0.6</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU89" t="n">
         <v>2.78</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.94</v>
@@ -18967,10 +18967,10 @@
         <v>2.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU91" t="n">
         <v>1.15</v>
@@ -19170,10 +19170,10 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU92" t="n">
         <v>1.38</v>
@@ -19373,10 +19373,10 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU93" t="n">
         <v>1.74</v>
@@ -21200,10 +21200,10 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU102" t="n">
         <v>1.21</v>
@@ -21403,10 +21403,10 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU103" t="n">
         <v>1.11</v>
@@ -21606,10 +21606,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,10 +21809,10 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22015,7 +22015,7 @@
         <v>2.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.85</v>
@@ -22215,10 +22215,10 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU107" t="n">
         <v>2.74</v>
@@ -22418,10 +22418,10 @@
         <v>2.29</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -22621,7 +22621,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT109" t="n">
         <v>1.14</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT116" t="n">
         <v>2.71</v>
@@ -24248,7 +24248,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU117" t="n">
         <v>2.04</v>
@@ -24451,7 +24451,7 @@
         <v>1.64</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24651,7 +24651,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT119" t="n">
         <v>2.71</v>
@@ -24857,7 +24857,7 @@
         <v>1.93</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU120" t="n">
         <v>2.14</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT121" t="n">
         <v>0.64</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT122" t="n">
         <v>2.71</v>
@@ -25669,7 +25669,7 @@
         <v>1.64</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -26481,7 +26481,7 @@
         <v>1.07</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -26684,7 +26684,7 @@
         <v>2.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU129" t="n">
         <v>1.79</v>
@@ -26884,10 +26884,10 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU130" t="n">
         <v>1.54</v>
@@ -27087,10 +27087,10 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU131" t="n">
         <v>1.75</v>
@@ -27290,10 +27290,10 @@
         <v>0.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU132" t="n">
         <v>1.25</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT133" t="n">
         <v>2.71</v>
@@ -27696,7 +27696,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT134" t="n">
         <v>1.14</v>
@@ -28308,7 +28308,7 @@
         <v>1.93</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28511,7 +28511,7 @@
         <v>1.43</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU138" t="n">
         <v>1.52</v>
@@ -28711,7 +28711,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT139" t="n">
         <v>0.43</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT140" t="n">
         <v>0.64</v>
@@ -29320,7 +29320,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT142" t="n">
         <v>0.36</v>
@@ -29526,7 +29526,7 @@
         <v>1.93</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU143" t="n">
         <v>2.09</v>
@@ -29729,7 +29729,7 @@
         <v>1.64</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU144" t="n">
         <v>2.19</v>
@@ -30135,7 +30135,7 @@
         <v>1.07</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU146" t="n">
         <v>1.46</v>
@@ -30335,7 +30335,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT147" t="n">
         <v>0.64</v>
@@ -30741,7 +30741,7 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT149" t="n">
         <v>1.14</v>
@@ -30944,7 +30944,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT150" t="n">
         <v>2.71</v>
@@ -31150,7 +31150,7 @@
         <v>1.64</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU151" t="n">
         <v>2.19</v>
@@ -31353,7 +31353,7 @@
         <v>2.29</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31553,10 +31553,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU153" t="n">
         <v>1.51</v>
@@ -31756,7 +31756,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT154" t="n">
         <v>0.43</v>
@@ -31959,7 +31959,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT155" t="n">
         <v>1.21</v>
@@ -32162,7 +32162,7 @@
         <v>0.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT156" t="n">
         <v>0.36</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT157" t="n">
         <v>1.43</v>
@@ -32571,7 +32571,7 @@
         <v>1.21</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU158" t="n">
         <v>1.75</v>
@@ -32774,7 +32774,7 @@
         <v>1.43</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -32977,7 +32977,7 @@
         <v>1.93</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU160" t="n">
         <v>1.65</v>
@@ -33180,7 +33180,7 @@
         <v>0.57</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.17</v>
@@ -33380,7 +33380,7 @@
         <v>0.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT162" t="n">
         <v>0.36</v>
@@ -33789,7 +33789,7 @@
         <v>1.93</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU164" t="n">
         <v>2.01</v>
@@ -33989,7 +33989,7 @@
         <v>2.8</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT165" t="n">
         <v>2.71</v>
@@ -34192,7 +34192,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT166" t="n">
         <v>0.64</v>
@@ -34398,7 +34398,7 @@
         <v>1.64</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU167" t="n">
         <v>2.21</v>
@@ -34601,7 +34601,7 @@
         <v>1.07</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35004,7 +35004,7 @@
         <v>1.4</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT170" t="n">
         <v>1.43</v>
@@ -35207,7 +35207,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT171" t="n">
         <v>1.21</v>
@@ -35410,7 +35410,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT172" t="n">
         <v>0.43</v>
@@ -35613,10 +35613,10 @@
         <v>1.8</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU173" t="n">
         <v>2.68</v>
@@ -35819,7 +35819,7 @@
         <v>1.43</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU174" t="n">
         <v>1.5</v>
@@ -36019,10 +36019,10 @@
         <v>0.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -36225,7 +36225,7 @@
         <v>0.57</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36428,7 +36428,7 @@
         <v>1.21</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU177" t="n">
         <v>1.79</v>
@@ -36831,7 +36831,7 @@
         <v>0.27</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT179" t="n">
         <v>0.36</v>
@@ -37034,7 +37034,7 @@
         <v>0.18</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT180" t="n">
         <v>0.43</v>
@@ -37646,7 +37646,7 @@
         <v>1.93</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU183" t="n">
         <v>1.98</v>
@@ -37849,7 +37849,7 @@
         <v>1.93</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU184" t="n">
         <v>1.69</v>
@@ -38252,7 +38252,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT186" t="n">
         <v>1.43</v>
@@ -38455,7 +38455,7 @@
         <v>1.27</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT187" t="n">
         <v>1.21</v>
@@ -38661,7 +38661,7 @@
         <v>0.57</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU188" t="n">
         <v>1.23</v>
@@ -38864,7 +38864,7 @@
         <v>1.21</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39064,10 +39064,10 @@
         <v>1.64</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU190" t="n">
         <v>1.16</v>
@@ -39267,10 +39267,10 @@
         <v>2</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU191" t="n">
         <v>1.49</v>
@@ -39470,10 +39470,10 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -39673,10 +39673,10 @@
         <v>2.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU193" t="n">
         <v>2.57</v>
@@ -40082,7 +40082,7 @@
         <v>1.43</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40282,7 +40282,7 @@
         <v>1.5</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT196" t="n">
         <v>1.43</v>
@@ -41500,10 +41500,10 @@
         <v>0.58</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU202" t="n">
         <v>1.46</v>
@@ -41703,10 +41703,10 @@
         <v>1.75</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -41909,7 +41909,7 @@
         <v>1.21</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU204" t="n">
         <v>1.65</v>
@@ -42109,7 +42109,7 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT205" t="n">
         <v>1.21</v>
@@ -42312,10 +42312,10 @@
         <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>1.26</v>
@@ -42515,10 +42515,10 @@
         <v>1.42</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU207" t="n">
         <v>2.44</v>
@@ -42718,10 +42718,10 @@
         <v>2.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT208" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU208" t="n">
         <v>1.12</v>
@@ -42921,10 +42921,10 @@
         <v>2.08</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU209" t="n">
         <v>1.31</v>
@@ -44600,6 +44600,1630 @@
       </c>
       <c r="BK217" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2447768</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45016.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>1</v>
+      </c>
+      <c r="R218" t="n">
+        <v>8</v>
+      </c>
+      <c r="S218" t="n">
+        <v>9</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2447767</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45016.58333333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['27', '48', '73']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>7</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>9</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" t="n">
+        <v>0</v>
+      </c>
+      <c r="V219" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0</v>
+      </c>
+      <c r="X219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2447770</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>4</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['20', '77']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['38', '54']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>9</v>
+      </c>
+      <c r="R220" t="n">
+        <v>5</v>
+      </c>
+      <c r="S220" t="n">
+        <v>14</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2447764</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>4</v>
+      </c>
+      <c r="R221" t="n">
+        <v>4</v>
+      </c>
+      <c r="S221" t="n">
+        <v>8</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2447769</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2</v>
+      </c>
+      <c r="K222" t="n">
+        <v>4</v>
+      </c>
+      <c r="L222" t="n">
+        <v>4</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>6</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['16', '45+4', '83', '90']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['11', '33']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>6</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>6</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V222" t="n">
+        <v>13</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2447765</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>3</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['53', '84']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3</v>
+      </c>
+      <c r="R223" t="n">
+        <v>4</v>
+      </c>
+      <c r="S223" t="n">
+        <v>7</v>
+      </c>
+      <c r="T223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2447766</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>5</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2</v>
+      </c>
+      <c r="S224" t="n">
+        <v>7</v>
+      </c>
+      <c r="T224" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2447763</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45018.54166666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>2</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['21', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>5</v>
+      </c>
+      <c r="R225" t="n">
+        <v>5</v>
+      </c>
+      <c r="S225" t="n">
+        <v>10</v>
+      </c>
+      <c r="T225" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.71</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.71</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>2.22</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT15" t="n">
         <v>1.43</v>
@@ -3745,7 +3745,7 @@
         <v>1.29</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT20" t="n">
         <v>2.21</v>
@@ -4760,7 +4760,7 @@
         <v>1.14</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU21" t="n">
         <v>0.95</v>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>2.21</v>
@@ -5775,7 +5775,7 @@
         <v>2.71</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU26" t="n">
         <v>2.62</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU29" t="n">
         <v>2.1</v>
@@ -6790,7 +6790,7 @@
         <v>1.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT32" t="n">
         <v>1.71</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>0.95</v>
@@ -8817,7 +8817,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT41" t="n">
         <v>2.21</v>
@@ -9023,7 +9023,7 @@
         <v>2.71</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU42" t="n">
         <v>2.77</v>
@@ -9226,7 +9226,7 @@
         <v>1.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU43" t="n">
         <v>0.95</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT45" t="n">
         <v>2.21</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.71</v>
@@ -10444,7 +10444,7 @@
         <v>2.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -11256,7 +11256,7 @@
         <v>1.57</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT55" t="n">
         <v>1.43</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT56" t="n">
         <v>2.21</v>
@@ -12271,7 +12271,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.57</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
         <v>0.71</v>
@@ -13692,7 +13692,7 @@
         <v>1.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -13895,7 +13895,7 @@
         <v>1.07</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU68" t="n">
         <v>1.94</v>
@@ -14504,7 +14504,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT71" t="n">
         <v>0.71</v>
@@ -15316,7 +15316,7 @@
         <v>2.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU73" t="n">
         <v>1.99</v>
@@ -16331,7 +16331,7 @@
         <v>1.93</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT79" t="n">
         <v>1.14</v>
@@ -16734,10 +16734,10 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU80" t="n">
         <v>1.49</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT81" t="n">
         <v>0.57</v>
@@ -17343,10 +17343,10 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17549,7 +17549,7 @@
         <v>1.07</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -19576,10 +19576,10 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19782,7 +19782,7 @@
         <v>1.93</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU95" t="n">
         <v>2.07</v>
@@ -19985,7 +19985,7 @@
         <v>1.07</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU96" t="n">
         <v>1.36</v>
@@ -20185,10 +20185,10 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.29</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT98" t="n">
         <v>1.14</v>
@@ -20591,10 +20591,10 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU99" t="n">
         <v>1.07</v>
@@ -20794,7 +20794,7 @@
         <v>1.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT100" t="n">
         <v>1.43</v>
@@ -22824,10 +22824,10 @@
         <v>0.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23027,7 +23027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.43</v>
@@ -23233,7 +23233,7 @@
         <v>1.93</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU112" t="n">
         <v>2.15</v>
@@ -23433,10 +23433,10 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU113" t="n">
         <v>1.73</v>
@@ -23839,10 +23839,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.41</v>
@@ -24045,7 +24045,7 @@
         <v>1.29</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT117" t="n">
         <v>1.71</v>
@@ -24448,7 +24448,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT118" t="n">
         <v>0.71</v>
@@ -24654,7 +24654,7 @@
         <v>2.14</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU119" t="n">
         <v>1.87</v>
@@ -25060,7 +25060,7 @@
         <v>1.29</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.35</v>
@@ -25263,7 +25263,7 @@
         <v>0.93</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU122" t="n">
         <v>1.76</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -25666,7 +25666,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25869,10 +25869,10 @@
         <v>0.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU125" t="n">
         <v>1.07</v>
@@ -26072,10 +26072,10 @@
         <v>0.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26275,7 +26275,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT127" t="n">
         <v>1.43</v>
@@ -27496,7 +27496,7 @@
         <v>1.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT135" t="n">
         <v>0.93</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU136" t="n">
         <v>1.11</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT138" t="n">
         <v>1.71</v>
@@ -28714,7 +28714,7 @@
         <v>1.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU139" t="n">
         <v>1.44</v>
@@ -28917,7 +28917,7 @@
         <v>0.93</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29117,7 +29117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT141" t="n">
         <v>1.43</v>
@@ -29323,7 +29323,7 @@
         <v>2.71</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -29726,7 +29726,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT144" t="n">
         <v>0.57</v>
@@ -29932,7 +29932,7 @@
         <v>2.29</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU145" t="n">
         <v>1.73</v>
@@ -30338,7 +30338,7 @@
         <v>1.14</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.07</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU150" t="n">
         <v>1.3</v>
@@ -31147,7 +31147,7 @@
         <v>1.56</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT151" t="n">
         <v>1.43</v>
@@ -31759,7 +31759,7 @@
         <v>1.71</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -31962,7 +31962,7 @@
         <v>1.29</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32165,7 +32165,7 @@
         <v>0.93</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32568,7 +32568,7 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT158" t="n">
         <v>1.71</v>
@@ -32771,7 +32771,7 @@
         <v>2.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT159" t="n">
         <v>2.21</v>
@@ -32974,7 +32974,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
         <v>2.21</v>
@@ -33177,7 +33177,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT161" t="n">
         <v>1</v>
@@ -33383,7 +33383,7 @@
         <v>1</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU162" t="n">
         <v>1.24</v>
@@ -33992,7 +33992,7 @@
         <v>1.57</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34195,7 +34195,7 @@
         <v>2.14</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -34395,7 +34395,7 @@
         <v>0.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT167" t="n">
         <v>0.71</v>
@@ -34801,7 +34801,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT169" t="n">
         <v>0.93</v>
@@ -35210,7 +35210,7 @@
         <v>1.71</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU171" t="n">
         <v>1.39</v>
@@ -35413,7 +35413,7 @@
         <v>0.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU172" t="n">
         <v>1.66</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT174" t="n">
         <v>1.43</v>
@@ -36222,7 +36222,7 @@
         <v>1.9</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT176" t="n">
         <v>2.21</v>
@@ -36425,7 +36425,7 @@
         <v>2.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT177" t="n">
         <v>2.21</v>
@@ -36628,7 +36628,7 @@
         <v>0.82</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT178" t="n">
         <v>0.93</v>
@@ -36834,7 +36834,7 @@
         <v>1.57</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37037,7 +37037,7 @@
         <v>2.14</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37240,7 +37240,7 @@
         <v>2.29</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU181" t="n">
         <v>1.62</v>
@@ -37443,7 +37443,7 @@
         <v>1.07</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT184" t="n">
         <v>0.71</v>
@@ -38049,7 +38049,7 @@
         <v>1.09</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT185" t="n">
         <v>1.14</v>
@@ -38458,7 +38458,7 @@
         <v>1</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU187" t="n">
         <v>1.2</v>
@@ -38658,7 +38658,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT188" t="n">
         <v>0.71</v>
@@ -38861,7 +38861,7 @@
         <v>1.55</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT189" t="n">
         <v>1.43</v>
@@ -39879,7 +39879,7 @@
         <v>2.29</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -40079,7 +40079,7 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT195" t="n">
         <v>0.57</v>
@@ -40485,7 +40485,7 @@
         <v>1.08</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT197" t="n">
         <v>1.14</v>
@@ -40691,7 +40691,7 @@
         <v>1.07</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU198" t="n">
         <v>1.4</v>
@@ -40891,7 +40891,7 @@
         <v>0.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT199" t="n">
         <v>0.93</v>
@@ -41097,7 +41097,7 @@
         <v>1.93</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU200" t="n">
         <v>1.95</v>
@@ -41297,10 +41297,10 @@
         <v>0.42</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU201" t="n">
         <v>2.07</v>
@@ -41906,7 +41906,7 @@
         <v>0.75</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT204" t="n">
         <v>0.71</v>
@@ -42112,7 +42112,7 @@
         <v>0.93</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -43124,10 +43124,10 @@
         <v>0.23</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU210" t="n">
         <v>2</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT211" t="n">
         <v>1.14</v>
@@ -43530,10 +43530,10 @@
         <v>0.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43939,7 +43939,7 @@
         <v>1.93</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU214" t="n">
         <v>1.88</v>
@@ -44139,7 +44139,7 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT215" t="n">
         <v>0.93</v>
@@ -44342,10 +44342,10 @@
         <v>2.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU216" t="n">
         <v>1.49</v>
@@ -44548,7 +44548,7 @@
         <v>2.29</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -46224,6 +46224,1021 @@
       </c>
       <c r="BK225" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2447774</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45020.54166666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1</v>
+      </c>
+      <c r="S226" t="n">
+        <v>6</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2447777</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45021.47916666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>10</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>10</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V227" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2447772</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45021.57291666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>4</v>
+      </c>
+      <c r="N228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['7', '23', '55', '82']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>5</v>
+      </c>
+      <c r="R228" t="n">
+        <v>8</v>
+      </c>
+      <c r="S228" t="n">
+        <v>13</v>
+      </c>
+      <c r="T228" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2447773</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45021.57291666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>4</v>
+      </c>
+      <c r="R229" t="n">
+        <v>3</v>
+      </c>
+      <c r="S229" t="n">
+        <v>7</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2447775</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45022.45833333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2</v>
+      </c>
+      <c r="R230" t="n">
+        <v>6</v>
+      </c>
+      <c r="S230" t="n">
+        <v>8</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V230" t="n">
+        <v>5</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>2.21</v>
@@ -1715,7 +1715,7 @@
         <v>2.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>0.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
         <v>0.4</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>1.43</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6993,7 +6993,7 @@
         <v>0.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU32" t="n">
         <v>0.74</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT34" t="n">
         <v>1.43</v>
@@ -7602,7 +7602,7 @@
         <v>1.14</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU35" t="n">
         <v>0.86</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>0.71</v>
@@ -8617,7 +8617,7 @@
         <v>1.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.64</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10038,7 +10038,7 @@
         <v>1.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU47" t="n">
         <v>1.58</v>
@@ -10644,7 +10644,7 @@
         <v>0.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.14</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU51" t="n">
         <v>1.16</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT52" t="n">
         <v>0.71</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -12474,7 +12474,7 @@
         <v>1.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT61" t="n">
         <v>2.21</v>
@@ -13489,7 +13489,7 @@
         <v>2.14</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -13892,7 +13892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>0.67</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT67" t="n">
         <v>1.14</v>
@@ -15719,7 +15719,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT75" t="n">
         <v>1.43</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU77" t="n">
         <v>1.1</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT78" t="n">
         <v>0.67</v>
@@ -17143,7 +17143,7 @@
         <v>2.29</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>0.4</v>
@@ -17752,7 +17752,7 @@
         <v>1.57</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -17952,7 +17952,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
         <v>0.71</v>
@@ -18361,7 +18361,7 @@
         <v>1.57</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT95" t="n">
         <v>0.4</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.13</v>
@@ -20797,7 +20797,7 @@
         <v>1.73</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21000,7 +21000,7 @@
         <v>2.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU101" t="n">
         <v>1.83</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT112" t="n">
         <v>1.13</v>
@@ -23636,10 +23636,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT116" t="n">
         <v>2.73</v>
@@ -24248,7 +24248,7 @@
         <v>1.73</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU117" t="n">
         <v>2.04</v>
@@ -24854,10 +24854,10 @@
         <v>1.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU120" t="n">
         <v>2.14</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT121" t="n">
         <v>0.67</v>
@@ -26278,7 +26278,7 @@
         <v>1.4</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT128" t="n">
         <v>2.21</v>
@@ -27902,7 +27902,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU135" t="n">
         <v>2.25</v>
@@ -28511,7 +28511,7 @@
         <v>1.4</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU138" t="n">
         <v>1.52</v>
@@ -28711,7 +28711,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT139" t="n">
         <v>0.4</v>
@@ -29120,7 +29120,7 @@
         <v>1.13</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29523,7 +29523,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT143" t="n">
         <v>2.21</v>
@@ -30132,7 +30132,7 @@
         <v>0.44</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT146" t="n">
         <v>0.71</v>
@@ -30538,10 +30538,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU148" t="n">
         <v>2.01</v>
@@ -31959,7 +31959,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT155" t="n">
         <v>1.13</v>
@@ -32368,7 +32368,7 @@
         <v>2.71</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU157" t="n">
         <v>2.72</v>
@@ -32571,7 +32571,7 @@
         <v>1.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU158" t="n">
         <v>1.75</v>
@@ -33786,7 +33786,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT164" t="n">
         <v>0.71</v>
@@ -34598,7 +34598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>0.57</v>
@@ -34804,7 +34804,7 @@
         <v>2</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU169" t="n">
         <v>1.68</v>
@@ -35007,7 +35007,7 @@
         <v>1.14</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU170" t="n">
         <v>1.13</v>
@@ -35616,7 +35616,7 @@
         <v>2.71</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU173" t="n">
         <v>2.68</v>
@@ -36019,7 +36019,7 @@
         <v>0.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT175" t="n">
         <v>1</v>
@@ -36631,7 +36631,7 @@
         <v>1.4</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU178" t="n">
         <v>1.52</v>
@@ -37440,7 +37440,7 @@
         <v>2.82</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT182" t="n">
         <v>2.73</v>
@@ -37643,7 +37643,7 @@
         <v>0.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT183" t="n">
         <v>0.57</v>
@@ -38255,7 +38255,7 @@
         <v>0.93</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU186" t="n">
         <v>1.68</v>
@@ -39067,7 +39067,7 @@
         <v>1.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU190" t="n">
         <v>1.16</v>
@@ -39267,7 +39267,7 @@
         <v>2</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT191" t="n">
         <v>2.21</v>
@@ -40285,7 +40285,7 @@
         <v>1.57</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU196" t="n">
         <v>1.41</v>
@@ -40688,7 +40688,7 @@
         <v>0.33</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT198" t="n">
         <v>0.4</v>
@@ -40894,7 +40894,7 @@
         <v>0.6</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU199" t="n">
         <v>1.3</v>
@@ -41094,7 +41094,7 @@
         <v>2.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT200" t="n">
         <v>2.73</v>
@@ -41500,7 +41500,7 @@
         <v>0.58</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT202" t="n">
         <v>0.71</v>
@@ -41706,7 +41706,7 @@
         <v>2.14</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -43733,10 +43733,10 @@
         <v>1.46</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU213" t="n">
         <v>1.36</v>
@@ -43936,7 +43936,7 @@
         <v>0.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT214" t="n">
         <v>0.4</v>
@@ -44142,7 +44142,7 @@
         <v>1.13</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU215" t="n">
         <v>1.66</v>
@@ -45154,7 +45154,7 @@
         <v>0.54</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT220" t="n">
         <v>0.57</v>
@@ -46172,7 +46172,7 @@
         <v>0.93</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU225" t="n">
         <v>1.77</v>
@@ -47239,6 +47239,615 @@
       </c>
       <c r="BK230" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2447771</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45023.41666666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2447778</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45023.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['47', '60']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>5</v>
+      </c>
+      <c r="S232" t="n">
+        <v>8</v>
+      </c>
+      <c r="T232" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2447776</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45023.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>3</v>
+      </c>
+      <c r="R233" t="n">
+        <v>3</v>
+      </c>
+      <c r="S233" t="n">
+        <v>6</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V233" t="n">
+        <v>4</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT6" t="n">
         <v>0.87</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.71</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU19" t="n">
         <v>0.99</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT21" t="n">
         <v>2.73</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU22" t="n">
         <v>2.29</v>
@@ -5166,7 +5166,7 @@
         <v>1.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT26" t="n">
         <v>0.4</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
         <v>0.4</v>
@@ -7196,7 +7196,7 @@
         <v>1.57</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU33" t="n">
         <v>1.49</v>
@@ -7399,7 +7399,7 @@
         <v>1.87</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU34" t="n">
         <v>1.75</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT35" t="n">
         <v>0.87</v>
@@ -8008,7 +8008,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU37" t="n">
         <v>2.19</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8414,7 +8414,7 @@
         <v>0.93</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.55</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT40" t="n">
         <v>1.4</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT42" t="n">
         <v>1.13</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT43" t="n">
         <v>0.4</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT47" t="n">
         <v>0.87</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT49" t="n">
         <v>0.4</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -11053,7 +11053,7 @@
         <v>1.87</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU52" t="n">
         <v>1.68</v>
@@ -11662,7 +11662,7 @@
         <v>0.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>0.8</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
         <v>1.8</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13286,7 +13286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU63" t="n">
         <v>1.35</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.87</v>
@@ -14098,7 +14098,7 @@
         <v>1.87</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14707,7 +14707,7 @@
         <v>0.93</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU70" t="n">
         <v>1.77</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>2.21</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT74" t="n">
         <v>2.21</v>
@@ -15722,7 +15722,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>1.33</v>
@@ -15922,7 +15922,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>1.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU79" t="n">
         <v>1.36</v>
@@ -16940,7 +16940,7 @@
         <v>0.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU81" t="n">
         <v>0.96</v>
@@ -17955,7 +17955,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.33</v>
@@ -18155,7 +18155,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT87" t="n">
         <v>2.21</v>
@@ -18561,7 +18561,7 @@
         <v>0.6</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT89" t="n">
         <v>0.71</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19170,10 +19170,10 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.38</v>
@@ -19376,7 +19376,7 @@
         <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU93" t="n">
         <v>1.74</v>
@@ -20391,7 +20391,7 @@
         <v>1.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU102" t="n">
         <v>1.21</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT103" t="n">
         <v>0.71</v>
@@ -21606,10 +21606,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT105" t="n">
         <v>2.21</v>
@@ -22215,10 +22215,10 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU107" t="n">
         <v>2.74</v>
@@ -22624,7 +22624,7 @@
         <v>0.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU109" t="n">
         <v>1.8</v>
@@ -24651,7 +24651,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT119" t="n">
         <v>2.73</v>
@@ -26684,7 +26684,7 @@
         <v>2.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.79</v>
@@ -27087,10 +27087,10 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU131" t="n">
         <v>1.75</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU132" t="n">
         <v>1.25</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT133" t="n">
         <v>2.73</v>
@@ -27696,10 +27696,10 @@
         <v>1.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU134" t="n">
         <v>1.08</v>
@@ -29320,7 +29320,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT142" t="n">
         <v>0.4</v>
@@ -29729,7 +29729,7 @@
         <v>1.73</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU144" t="n">
         <v>2.19</v>
@@ -30335,7 +30335,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT147" t="n">
         <v>0.67</v>
@@ -30741,10 +30741,10 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -31150,7 +31150,7 @@
         <v>1.73</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU151" t="n">
         <v>2.19</v>
@@ -31353,7 +31353,7 @@
         <v>2.29</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31556,7 +31556,7 @@
         <v>1.57</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU153" t="n">
         <v>1.51</v>
@@ -31756,7 +31756,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT154" t="n">
         <v>0.4</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT157" t="n">
         <v>1.4</v>
@@ -33586,7 +33586,7 @@
         <v>2.29</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -34398,7 +34398,7 @@
         <v>1.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU167" t="n">
         <v>2.21</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35004,7 +35004,7 @@
         <v>1.4</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT170" t="n">
         <v>1.4</v>
@@ -35207,7 +35207,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT171" t="n">
         <v>1.13</v>
@@ -35613,7 +35613,7 @@
         <v>1.8</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT173" t="n">
         <v>1.8</v>
@@ -35819,7 +35819,7 @@
         <v>1.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU174" t="n">
         <v>1.5</v>
@@ -37034,7 +37034,7 @@
         <v>0.18</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT180" t="n">
         <v>0.4</v>
@@ -37646,7 +37646,7 @@
         <v>1.87</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU183" t="n">
         <v>1.98</v>
@@ -37849,7 +37849,7 @@
         <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU184" t="n">
         <v>1.69</v>
@@ -38052,7 +38052,7 @@
         <v>1.73</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU185" t="n">
         <v>2.17</v>
@@ -38864,7 +38864,7 @@
         <v>1.13</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39064,7 +39064,7 @@
         <v>1.64</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT190" t="n">
         <v>1.8</v>
@@ -39470,7 +39470,7 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,7 +39673,7 @@
         <v>2.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT193" t="n">
         <v>2.21</v>
@@ -40082,7 +40082,7 @@
         <v>1.4</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40488,7 +40488,7 @@
         <v>2</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU197" t="n">
         <v>1.74</v>
@@ -41703,7 +41703,7 @@
         <v>1.75</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT203" t="n">
         <v>1.8</v>
@@ -41909,7 +41909,7 @@
         <v>1.13</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU204" t="n">
         <v>1.65</v>
@@ -42515,10 +42515,10 @@
         <v>1.42</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU207" t="n">
         <v>2.44</v>
@@ -42718,7 +42718,7 @@
         <v>2.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT208" t="n">
         <v>2.21</v>
@@ -42921,7 +42921,7 @@
         <v>2.08</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT209" t="n">
         <v>2.21</v>
@@ -43330,7 +43330,7 @@
         <v>0.6</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU211" t="n">
         <v>1.29</v>
@@ -44748,7 +44748,7 @@
         <v>0.54</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT218" t="n">
         <v>0.71</v>
@@ -44951,10 +44951,10 @@
         <v>1.31</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU219" t="n">
         <v>1.09</v>
@@ -45157,7 +45157,7 @@
         <v>1.4</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU220" t="n">
         <v>1.44</v>
@@ -45560,10 +45560,10 @@
         <v>0.77</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU222" t="n">
         <v>2.44</v>
@@ -45763,7 +45763,7 @@
         <v>2.38</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT223" t="n">
         <v>2.21</v>
@@ -47848,6 +47848,818 @@
       </c>
       <c r="BK233" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2447784</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45026.45833333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>7</v>
+      </c>
+      <c r="R234" t="n">
+        <v>3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>10</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" t="n">
+        <v>0</v>
+      </c>
+      <c r="V234" t="n">
+        <v>0</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0</v>
+      </c>
+      <c r="X234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2447785</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['58', '73']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3</v>
+      </c>
+      <c r="R235" t="n">
+        <v>6</v>
+      </c>
+      <c r="S235" t="n">
+        <v>9</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2447786</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>30</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['6', '78']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>7</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2</v>
+      </c>
+      <c r="S236" t="n">
+        <v>9</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V236" t="n">
+        <v>12</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X236" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2447782</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45027.45833333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>30</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['47', '52']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>1</v>
+      </c>
+      <c r="R237" t="n">
+        <v>3</v>
+      </c>
+      <c r="S237" t="n">
+        <v>4</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V237" t="n">
+        <v>5</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -48521,13 +48521,13 @@
         </is>
       </c>
       <c r="Q237" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R237" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S237" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T237" t="n">
         <v>2.25</v>
@@ -48644,22 +48644,22 @@
         <v>3.7</v>
       </c>
       <c r="BF237" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK237" t="n">
         <v>7</v>
-      </c>
-      <c r="BG237" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH237" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI237" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ237" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK237" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK237"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1309,7 +1309,7 @@
         <v>2.29</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.73</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT23" t="n">
         <v>0.73</v>
@@ -6587,7 +6587,7 @@
         <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT33" t="n">
         <v>1.07</v>
@@ -8820,7 +8820,7 @@
         <v>1.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT53" t="n">
         <v>0.67</v>
@@ -11865,7 +11865,7 @@
         <v>1.13</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU56" t="n">
         <v>2.14</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
         <v>0.4</v>
@@ -15519,7 +15519,7 @@
         <v>2.73</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU74" t="n">
         <v>2.65</v>
@@ -17749,7 +17749,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT85" t="n">
         <v>0.87</v>
@@ -18158,7 +18158,7 @@
         <v>1.13</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU87" t="n">
         <v>1.14</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT88" t="n">
         <v>1.8</v>
@@ -21812,7 +21812,7 @@
         <v>2.2</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22418,7 +22418,7 @@
         <v>2.29</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT108" t="n">
         <v>2.21</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT130" t="n">
         <v>0.71</v>
@@ -31553,7 +31553,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
         <v>0.53</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU160" t="n">
         <v>1.65</v>
@@ -33989,7 +33989,7 @@
         <v>2.8</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT165" t="n">
         <v>2.73</v>
@@ -36225,7 +36225,7 @@
         <v>0.6</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36831,7 +36831,7 @@
         <v>0.27</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT179" t="n">
         <v>0.4</v>
@@ -39270,7 +39270,7 @@
         <v>1.4</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU191" t="n">
         <v>1.49</v>
@@ -40282,7 +40282,7 @@
         <v>1.5</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT196" t="n">
         <v>1.4</v>
@@ -42924,7 +42924,7 @@
         <v>1.8</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU209" t="n">
         <v>1.31</v>
@@ -45357,7 +45357,7 @@
         <v>0.85</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT221" t="n">
         <v>1</v>
@@ -45969,7 +45969,7 @@
         <v>1</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU224" t="n">
         <v>1.29</v>
@@ -48660,6 +48660,209 @@
       </c>
       <c r="BK237" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2447781</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45027.54166666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
+      <c r="K238" t="n">
+        <v>3</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>3</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['22', '30', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>3</v>
+      </c>
+      <c r="R238" t="n">
+        <v>6</v>
+      </c>
+      <c r="S238" t="n">
+        <v>9</v>
+      </c>
+      <c r="T238" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT7" t="n">
         <v>0.73</v>
@@ -2121,7 +2121,7 @@
         <v>2.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT10" t="n">
         <v>2.21</v>
@@ -3136,7 +3136,7 @@
         <v>1.87</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT19" t="n">
         <v>1.07</v>
@@ -5369,7 +5369,7 @@
         <v>2.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -6181,7 +6181,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU28" t="n">
         <v>1.06</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT30" t="n">
         <v>2.27</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT36" t="n">
         <v>0.67</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -9429,7 +9429,7 @@
         <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU48" t="n">
         <v>1.54</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT51" t="n">
         <v>0.87</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.65</v>
@@ -12677,7 +12677,7 @@
         <v>2.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU60" t="n">
         <v>2.53</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT70" t="n">
         <v>0.73</v>
@@ -14910,7 +14910,7 @@
         <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.87</v>
@@ -15925,7 +15925,7 @@
         <v>1.13</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU76" t="n">
         <v>1.09</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT77" t="n">
         <v>1.8</v>
@@ -18564,7 +18564,7 @@
         <v>2.73</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU89" t="n">
         <v>2.78</v>
@@ -18767,7 +18767,7 @@
         <v>2.2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU90" t="n">
         <v>1.94</v>
@@ -18967,7 +18967,7 @@
         <v>2.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT91" t="n">
         <v>2.21</v>
@@ -19373,7 +19373,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT93" t="n">
         <v>0.53</v>
@@ -21200,7 +21200,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT102" t="n">
         <v>1.33</v>
@@ -21406,7 +21406,7 @@
         <v>1.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.11</v>
@@ -22015,7 +22015,7 @@
         <v>2.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU106" t="n">
         <v>1.85</v>
@@ -22621,7 +22621,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT109" t="n">
         <v>1.07</v>
@@ -24451,7 +24451,7 @@
         <v>1.73</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT122" t="n">
         <v>2.73</v>
@@ -25669,7 +25669,7 @@
         <v>1.73</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -26887,7 +26887,7 @@
         <v>1.47</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU130" t="n">
         <v>1.54</v>
@@ -27290,7 +27290,7 @@
         <v>0.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT132" t="n">
         <v>0.53</v>
@@ -28308,7 +28308,7 @@
         <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT140" t="n">
         <v>0.67</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU146" t="n">
         <v>1.46</v>
@@ -30944,7 +30944,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT150" t="n">
         <v>2.73</v>
@@ -32162,7 +32162,7 @@
         <v>0.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT156" t="n">
         <v>0.4</v>
@@ -33180,7 +33180,7 @@
         <v>0.6</v>
       </c>
       <c r="AT161" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU161" t="n">
         <v>1.17</v>
@@ -33380,7 +33380,7 @@
         <v>0.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT162" t="n">
         <v>0.4</v>
@@ -33789,7 +33789,7 @@
         <v>1.87</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU164" t="n">
         <v>2.01</v>
@@ -35410,7 +35410,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT172" t="n">
         <v>0.4</v>
@@ -36022,7 +36022,7 @@
         <v>1.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -38252,7 +38252,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT186" t="n">
         <v>1.4</v>
@@ -38455,7 +38455,7 @@
         <v>1.27</v>
       </c>
       <c r="AS187" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT187" t="n">
         <v>1.13</v>
@@ -38661,7 +38661,7 @@
         <v>0.6</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU188" t="n">
         <v>1.23</v>
@@ -39473,7 +39473,7 @@
         <v>1.8</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -41503,7 +41503,7 @@
         <v>1.4</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU202" t="n">
         <v>1.46</v>
@@ -42109,7 +42109,7 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT205" t="n">
         <v>1.13</v>
@@ -42312,10 +42312,10 @@
         <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT206" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU206" t="n">
         <v>1.26</v>
@@ -44751,7 +44751,7 @@
         <v>1.8</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU218" t="n">
         <v>1.26</v>
@@ -45360,7 +45360,7 @@
         <v>1.47</v>
       </c>
       <c r="AT221" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU221" t="n">
         <v>1.4</v>
@@ -45966,7 +45966,7 @@
         <v>2.15</v>
       </c>
       <c r="AS224" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT224" t="n">
         <v>2.27</v>
@@ -46169,7 +46169,7 @@
         <v>1.62</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT225" t="n">
         <v>1.8</v>
@@ -48863,6 +48863,412 @@
       </c>
       <c r="BK238" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2447779</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45028.45833333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>5</v>
+      </c>
+      <c r="R239" t="n">
+        <v>7</v>
+      </c>
+      <c r="S239" t="n">
+        <v>12</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2447783</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45028.54166666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>6</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>9</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -6646,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2447578</v>
+        <v>2447574</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6666,182 +6666,182 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['43', '73']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" t="n">
         <v>5</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>['9', '35', '82']</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>['44', '75']</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>6</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH31" t="n">
+      <c r="BI31" t="n">
         <v>7</v>
       </c>
-      <c r="BI31" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ31" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BK31" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2447574</v>
+        <v>2447578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,182 +6869,182 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '35', '82']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>['43', '73']</t>
+          <t>['44', '75']</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD32" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AE32" t="n">
-        <v>2.19</v>
+        <v>2.84</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH32" t="n">
         <v>7</v>
       </c>
-      <c r="AH32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>5</v>
-      </c>
       <c r="BI32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ32" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BK32" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2447594</v>
+        <v>2447590</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,140 +9102,140 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['31', '53', '89']</t>
+          <t>['13', '30']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['26', '85']</t>
+          <t>['22', '67']</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AE43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI43" t="n">
         <v>3.3</v>
       </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AK43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
         <v>1.65</v>
       </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS43" t="n">
         <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.95</v>
+        <v>1.89</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AW43" t="n">
-        <v>2.16</v>
+        <v>3.32</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BC43" t="n">
         <v>0</v>
@@ -9262,22 +9262,22 @@
         <v>0</v>
       </c>
       <c r="BF43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BI43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ43" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BK43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2447590</v>
+        <v>2447594</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,140 +9305,140 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['13', '30']</t>
+          <t>['31', '53', '89']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['22', '67']</t>
+          <t>['26', '85']</t>
         </is>
       </c>
       <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
         <v>6</v>
       </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" t="n">
-        <v>7</v>
-      </c>
       <c r="T44" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
         <v>2.05</v>
       </c>
-      <c r="V44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X44" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AD44" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AE44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AR44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
         <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.32</v>
+        <v>2.16</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BC44" t="n">
         <v>0</v>
@@ -9465,22 +9465,22 @@
         <v>0</v>
       </c>
       <c r="BF44" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK44" t="n">
         <v>9</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>21</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -11721,7 +11721,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>2447605</v>
+        <v>2447603</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -11741,182 +11741,182 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27', '55', '80']</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '6']</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
+        <v>13</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG56" t="n">
         <v>9</v>
       </c>
-      <c r="T56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2</v>
-      </c>
-      <c r="V56" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X56" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG56" t="n">
+      <c r="AH56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
         <v>8</v>
       </c>
-      <c r="AH56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>2</v>
-      </c>
       <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
         <v>8</v>
       </c>
-      <c r="BH56" t="n">
-        <v>7</v>
-      </c>
       <c r="BI56" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BJ56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK56" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -11924,7 +11924,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>2447603</v>
+        <v>2447605</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -11944,182 +11944,182 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['27', '55', '80']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>['5', '6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" t="n">
         <v>9</v>
       </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>13</v>
-      </c>
       <c r="T57" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>2.1</v>
       </c>
-      <c r="V57" t="n">
-        <v>4</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG57" t="n">
+      <c r="AK57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ57" t="n">
         <v>9</v>
       </c>
-      <c r="AH57" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>16</v>
-      </c>
       <c r="BK57" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -14969,7 +14969,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>2447623</v>
+        <v>2447626</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -14989,182 +14989,182 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['61', '90+3']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>6</v>
+      </c>
+      <c r="R72" t="n">
+        <v>8</v>
+      </c>
+      <c r="S72" t="n">
+        <v>14</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI72" t="n">
         <v>5</v>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="n">
-        <v>5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>6</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>['2', '18', '32', '38', '52']</t>
-        </is>
-      </c>
-      <c r="Q72" t="n">
-        <v>4</v>
-      </c>
-      <c r="R72" t="n">
-        <v>3</v>
-      </c>
-      <c r="S72" t="n">
-        <v>7</v>
-      </c>
-      <c r="T72" t="n">
-        <v>8</v>
-      </c>
-      <c r="U72" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X72" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ72" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BK72" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -15172,7 +15172,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2447626</v>
+        <v>2447623</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -15192,182 +15192,182 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['61', '90+3']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['2', '18', '32', '38', '52']</t>
         </is>
       </c>
       <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>7</v>
+      </c>
+      <c r="T73" t="n">
+        <v>8</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA73" t="n">
         <v>6</v>
       </c>
-      <c r="R73" t="n">
-        <v>8</v>
-      </c>
-      <c r="S73" t="n">
+      <c r="AB73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK73" t="n">
         <v>14</v>
-      </c>
-      <c r="T73" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V73" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X73" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH73" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI73" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK73" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -33645,7 +33645,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>2447708</v>
+        <v>2447712</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -33665,182 +33665,182 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N164" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>['21', '28']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15', '19', '24', '64', '77', '82']</t>
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R164" t="n">
+        <v>12</v>
+      </c>
+      <c r="S164" t="n">
+        <v>13</v>
+      </c>
+      <c r="T164" t="n">
         <v>8</v>
       </c>
-      <c r="S164" t="n">
+      <c r="U164" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG164" t="n">
         <v>14</v>
       </c>
-      <c r="T164" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U164" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V164" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W164" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X164" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AM164" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AP164" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AQ164" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR164" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS164" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AT164" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU164" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AV164" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW164" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AX164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF164" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG164" t="n">
-        <v>2</v>
-      </c>
       <c r="BH164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI164" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ164" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BK164" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
@@ -33848,7 +33848,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>2447712</v>
+        <v>2447708</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -33868,182 +33868,182 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['21', '28']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
         <v>6</v>
       </c>
-      <c r="N165" t="n">
-        <v>6</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>['15', '19', '24', '64', '77', '82']</t>
-        </is>
-      </c>
-      <c r="Q165" t="n">
-        <v>1</v>
-      </c>
       <c r="R165" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S165" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
         <v>8</v>
       </c>
-      <c r="U165" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V165" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W165" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X165" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG165" t="n">
+      <c r="BG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ165" t="n">
         <v>11</v>
       </c>
-      <c r="AH165" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ165" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR165" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AT165" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV165" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AW165" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AX165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG165" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH165" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI165" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ165" t="n">
-        <v>2</v>
-      </c>
       <c r="BK165" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -6646,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2447574</v>
+        <v>2447578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6666,182 +6666,182 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '35', '82']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['43', '73']</t>
+          <t>['44', '75']</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD31" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AE31" t="n">
-        <v>2.19</v>
+        <v>2.84</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH31" t="n">
         <v>7</v>
       </c>
-      <c r="AH31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>5</v>
-      </c>
       <c r="BI31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ31" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BK31" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2447578</v>
+        <v>2447574</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,182 +6869,182 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['43', '73']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH32" t="n">
         <v>5</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>['9', '35', '82']</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>['44', '75']</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH32" t="n">
+      <c r="BI32" t="n">
         <v>7</v>
       </c>
-      <c r="BI32" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ32" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BK32" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2447590</v>
+        <v>2447594</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,140 +9102,140 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['13', '30']</t>
+          <t>['31', '53', '89']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['22', '67']</t>
+          <t>['26', '85']</t>
         </is>
       </c>
       <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
         <v>6</v>
       </c>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>7</v>
-      </c>
       <c r="T43" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
         <v>2.05</v>
       </c>
-      <c r="V43" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AD43" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AE43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK43" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AL43" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AR43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
         <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.32</v>
+        <v>2.16</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="BB43" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BC43" t="n">
         <v>0</v>
@@ -9262,22 +9262,22 @@
         <v>0</v>
       </c>
       <c r="BF43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK43" t="n">
         <v>9</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>21</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2447594</v>
+        <v>2447590</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,140 +9305,140 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['31', '53', '89']</t>
+          <t>['13', '30']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['26', '85']</t>
+          <t>['22', '67']</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC44" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AE44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI44" t="n">
         <v>3.3</v>
       </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AK44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP44" t="n">
         <v>1.65</v>
       </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ44" t="n">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS44" t="n">
         <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.95</v>
+        <v>1.89</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AW44" t="n">
-        <v>2.16</v>
+        <v>3.32</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="BB44" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BC44" t="n">
         <v>0</v>
@@ -9465,22 +9465,22 @@
         <v>0</v>
       </c>
       <c r="BF44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG44" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH44" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BI44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ44" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BK44" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -10706,7 +10706,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>2447595</v>
+        <v>2447601</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -10726,65 +10726,65 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>['13', '39', '75']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>['20', '55', '74']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q51" t="n">
         <v>7</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T51" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="U51" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V51" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="W51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y51" t="n">
         <v>3</v>
@@ -10799,19 +10799,19 @@
         <v>1.08</v>
       </c>
       <c r="AC51" t="n">
-        <v>2.63</v>
+        <v>1.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="AF51" t="n">
         <v>1.03</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH51" t="n">
         <v>1.3</v>
@@ -10826,40 +10826,40 @@
         <v>1.83</v>
       </c>
       <c r="AL51" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AM51" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AN51" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AO51" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.13</v>
+        <v>1.87</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AU51" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="AV51" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AW51" t="n">
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="AX51" t="n">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="BB51" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BC51" t="n">
         <v>0</v>
@@ -10886,22 +10886,22 @@
         <v>0</v>
       </c>
       <c r="BF51" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BG51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ51" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BK51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -10909,7 +10909,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>2447601</v>
+        <v>2447595</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -10929,65 +10929,65 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['13', '39', '75']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '55', '74']</t>
         </is>
       </c>
       <c r="Q52" t="n">
         <v>7</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T52" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="U52" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V52" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="W52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y52" t="n">
         <v>3</v>
@@ -11002,19 +11002,19 @@
         <v>1.08</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.4</v>
+        <v>2.63</v>
       </c>
       <c r="AD52" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="AF52" t="n">
         <v>1.03</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH52" t="n">
         <v>1.3</v>
@@ -11029,40 +11029,40 @@
         <v>1.83</v>
       </c>
       <c r="AL52" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AM52" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AN52" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.87</v>
+        <v>1.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AU52" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="AV52" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="AW52" t="n">
-        <v>2.92</v>
+        <v>2.61</v>
       </c>
       <c r="AX52" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="BB52" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BC52" t="n">
         <v>0</v>
@@ -11089,22 +11089,22 @@
         <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BG52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH52" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ52" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BK52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -13142,7 +13142,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>2447618</v>
+        <v>2447611</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -13162,12 +13162,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -13180,17 +13180,17 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['22', '51', '82']</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -13199,103 +13199,103 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T63" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="U63" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="V63" t="n">
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
       <c r="W63" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X63" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="Y63" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.25</v>
+        <v>6.75</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AD63" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE63" t="n">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="AF63" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG63" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI63" t="n">
-        <v>2.7</v>
+        <v>3.18</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AK63" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AL63" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AM63" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AN63" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AO63" t="n">
         <v>1.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AU63" t="n">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="AV63" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="AW63" t="n">
-        <v>2.65</v>
+        <v>3.64</v>
       </c>
       <c r="AX63" t="n">
         <v>0</v>
@@ -13322,22 +13322,22 @@
         <v>0</v>
       </c>
       <c r="BF63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH63" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -13345,7 +13345,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>2447611</v>
+        <v>2447618</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -13365,12 +13365,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -13383,17 +13383,17 @@
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['22', '51', '82']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -13402,103 +13402,103 @@
         </is>
       </c>
       <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
         <v>5</v>
       </c>
-      <c r="R64" t="n">
-        <v>7</v>
-      </c>
-      <c r="S64" t="n">
-        <v>12</v>
-      </c>
       <c r="T64" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="U64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>2.15</v>
       </c>
-      <c r="V64" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X64" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AK64" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AL64" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AM64" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AN64" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AO64" t="n">
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AU64" t="n">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="AV64" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AW64" t="n">
-        <v>3.64</v>
+        <v>2.65</v>
       </c>
       <c r="AX64" t="n">
         <v>0</v>
@@ -13525,22 +13525,22 @@
         <v>0</v>
       </c>
       <c r="BF64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK64" t="n">
         <v>5</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -13548,7 +13548,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2447612</v>
+        <v>2447614</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -13568,65 +13568,65 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['42', '65', '73', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['24']</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T65" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U65" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V65" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W65" t="n">
         <v>1.38</v>
       </c>
       <c r="X65" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Y65" t="n">
         <v>2.7</v>
@@ -13641,13 +13641,13 @@
         <v>1.09</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.68</v>
+        <v>1.99</v>
       </c>
       <c r="AD65" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AE65" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="AF65" t="n">
         <v>1.06</v>
@@ -13668,40 +13668,40 @@
         <v>1.86</v>
       </c>
       <c r="AL65" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AM65" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AN65" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AO65" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AV65" t="n">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="AW65" t="n">
-        <v>2.65</v>
+        <v>2.24</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BC65" t="n">
         <v>0</v>
@@ -13728,22 +13728,22 @@
         <v>0</v>
       </c>
       <c r="BF65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG65" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BH65" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BI65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ65" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BK65" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -13751,7 +13751,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>2447614</v>
+        <v>2447612</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -13771,65 +13771,65 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42', '65', '73', '90+5']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>['24']</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T66" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V66" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="W66" t="n">
         <v>1.38</v>
       </c>
       <c r="X66" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Y66" t="n">
         <v>2.7</v>
@@ -13844,13 +13844,13 @@
         <v>1.09</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="AD66" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF66" t="n">
         <v>1.06</v>
@@ -13871,40 +13871,40 @@
         <v>1.86</v>
       </c>
       <c r="AL66" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AM66" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AN66" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AO66" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AR66" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AU66" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AV66" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AW66" t="n">
-        <v>2.24</v>
+        <v>2.65</v>
       </c>
       <c r="AX66" t="n">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BB66" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BC66" t="n">
         <v>0</v>
@@ -13931,22 +13931,22 @@
         <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG66" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH66" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ66" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BK66" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -16593,7 +16593,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>2447632</v>
+        <v>2447634</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -16613,140 +16613,140 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['34', '88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
       </c>
       <c r="T80" t="n">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE80" t="n">
         <v>2.6</v>
       </c>
-      <c r="V80" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X80" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AF80" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AG80" t="n">
-        <v>20.5</v>
+        <v>8.6</v>
       </c>
       <c r="AH80" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AI80" t="n">
-        <v>4.5</v>
+        <v>2.83</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AK80" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="AL80" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AM80" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO80" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AR80" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.73</v>
+        <v>0.53</v>
       </c>
       <c r="AU80" t="n">
-        <v>1.49</v>
+        <v>0.96</v>
       </c>
       <c r="AV80" t="n">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.32</v>
+        <v>2.1</v>
       </c>
       <c r="AX80" t="n">
         <v>0</v>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="BB80" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BC80" t="n">
         <v>0</v>
@@ -16776,19 +16776,19 @@
         <v>3</v>
       </c>
       <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
         <v>9</v>
       </c>
-      <c r="BH80" t="n">
+      <c r="BI80" t="n">
         <v>5</v>
       </c>
-      <c r="BI80" t="n">
+      <c r="BJ80" t="n">
         <v>12</v>
       </c>
-      <c r="BJ80" t="n">
-        <v>8</v>
-      </c>
       <c r="BK80" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -16796,7 +16796,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>2447634</v>
+        <v>2447632</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -16816,140 +16816,140 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['34', '88']</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
       </c>
       <c r="T81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN81" t="n">
         <v>3.25</v>
       </c>
-      <c r="U81" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V81" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W81" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AO81" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AR81" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.53</v>
+        <v>2.73</v>
       </c>
       <c r="AU81" t="n">
-        <v>0.96</v>
+        <v>1.49</v>
       </c>
       <c r="AV81" t="n">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="AW81" t="n">
-        <v>2.1</v>
+        <v>3.32</v>
       </c>
       <c r="AX81" t="n">
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="BB81" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BC81" t="n">
         <v>0</v>
@@ -16979,19 +16979,19 @@
         <v>3</v>
       </c>
       <c r="BG81" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BH81" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI81" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BJ81" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BK81" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -41968,7 +41968,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>2447747</v>
+        <v>2447749</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -41988,53 +41988,53 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>['62', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>['11', '64', '73']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S205" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T205" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U205" t="n">
         <v>1.91</v>
@@ -42043,85 +42043,85 @@
         <v>4.33</v>
       </c>
       <c r="W205" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X205" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="Y205" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AA205" t="n">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AB205" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC205" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AD205" t="n">
         <v>3.05</v>
       </c>
       <c r="AE205" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AF205" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG205" t="n">
-        <v>9.1</v>
+        <v>7.55</v>
       </c>
       <c r="AH205" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AI205" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="AJ205" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="AK205" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AL205" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AM205" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AN205" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AO205" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.08</v>
       </c>
       <c r="AR205" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AU205" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="AV205" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AW205" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="AX205" t="n">
         <v>0</v>
@@ -42136,10 +42136,10 @@
         <v>0</v>
       </c>
       <c r="BB205" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD205" t="n">
         <v>0</v>
@@ -42148,22 +42148,22 @@
         <v>0</v>
       </c>
       <c r="BF205" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG205" t="n">
         <v>5</v>
       </c>
       <c r="BH205" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI205" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ205" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK205" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -42171,7 +42171,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>2447749</v>
+        <v>2447747</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -42191,53 +42191,53 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N206" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['62', '84']</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11', '64', '73']</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S206" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T206" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U206" t="n">
         <v>1.91</v>
@@ -42246,85 +42246,85 @@
         <v>4.33</v>
       </c>
       <c r="W206" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="X206" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="Y206" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="Z206" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AA206" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AB206" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC206" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AD206" t="n">
         <v>3.05</v>
       </c>
       <c r="AE206" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AF206" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AG206" t="n">
-        <v>7.55</v>
+        <v>9.1</v>
       </c>
       <c r="AH206" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AI206" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="AJ206" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AK206" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AL206" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="AM206" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AN206" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AO206" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.08</v>
       </c>
       <c r="AR206" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AS206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT206" t="n">
         <v>1.13</v>
       </c>
-      <c r="AT206" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AU206" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="AV206" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AW206" t="n">
-        <v>2.55</v>
+        <v>2.87</v>
       </c>
       <c r="AX206" t="n">
         <v>0</v>
@@ -42339,10 +42339,10 @@
         <v>0</v>
       </c>
       <c r="BB206" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BC206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD206" t="n">
         <v>0</v>
@@ -42351,22 +42351,22 @@
         <v>0</v>
       </c>
       <c r="BF206" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG206" t="n">
         <v>5</v>
       </c>
       <c r="BH206" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI206" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ206" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK206" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
@@ -47449,7 +47449,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>2447778</v>
+        <v>2447776</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -47469,71 +47469,71 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
       <c r="M232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['47', '60']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
       </c>
       <c r="R232" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S232" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T232" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="U232" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V232" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="W232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z232" t="n">
         <v>1.4</v>
-      </c>
-      <c r="X232" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y232" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z232" t="n">
-        <v>1.36</v>
       </c>
       <c r="AA232" t="n">
         <v>8</v>
@@ -47542,67 +47542,67 @@
         <v>1.08</v>
       </c>
       <c r="AC232" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="AD232" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AE232" t="n">
-        <v>1.88</v>
+        <v>3.7</v>
       </c>
       <c r="AF232" t="n">
         <v>1.03</v>
       </c>
       <c r="AG232" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH232" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI232" t="n">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="AJ232" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ232" t="n">
         <v>1.93</v>
       </c>
-      <c r="AK232" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL232" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM232" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN232" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AO232" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP232" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AQ232" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AR232" t="n">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AS232" t="n">
-        <v>1</v>
+        <v>1.87</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AU232" t="n">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="AV232" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="AW232" t="n">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
       <c r="AX232" t="n">
         <v>0</v>
@@ -47629,22 +47629,22 @@
         <v>0</v>
       </c>
       <c r="BF232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI232" t="n">
         <v>8</v>
       </c>
-      <c r="BH232" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI232" t="n">
+      <c r="BJ232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK232" t="n">
         <v>10</v>
-      </c>
-      <c r="BJ232" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK232" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -47652,7 +47652,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>2447776</v>
+        <v>2447778</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -47672,71 +47672,71 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
       <c r="M233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['47', '60']</t>
         </is>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
       </c>
       <c r="R233" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S233" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T233" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="U233" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V233" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="W233" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X233" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Y233" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z233" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA233" t="n">
         <v>8</v>
@@ -47745,109 +47745,109 @@
         <v>1.08</v>
       </c>
       <c r="AC233" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="AD233" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AE233" t="n">
-        <v>3.7</v>
+        <v>1.88</v>
       </c>
       <c r="AF233" t="n">
         <v>1.03</v>
       </c>
       <c r="AG233" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI233" t="n">
         <v>10</v>
       </c>
-      <c r="AH233" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI233" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AJ233" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK233" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AL233" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM233" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN233" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO233" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP233" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ233" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR233" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS233" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AT233" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AU233" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV233" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW233" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF233" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG233" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH233" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI233" t="n">
+      <c r="BJ233" t="n">
         <v>8</v>
       </c>
-      <c r="BJ233" t="n">
-        <v>6</v>
-      </c>
       <c r="BK233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -48058,7 +48058,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>2447785</v>
+        <v>2447786</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -48078,182 +48078,182 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235" t="n">
         <v>2</v>
       </c>
       <c r="M235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>['58', '73']</t>
+          <t>['6', '78']</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R235" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S235" t="n">
         <v>9</v>
       </c>
       <c r="T235" t="n">
-        <v>3.1</v>
+        <v>1.39</v>
       </c>
       <c r="U235" t="n">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="V235" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="W235" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="X235" t="n">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="Y235" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Z235" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AV235" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA235" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB235" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC235" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AD235" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE235" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG235" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH235" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI235" t="n">
+      <c r="AW235" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE235" t="n">
         <v>2.9</v>
       </c>
-      <c r="AJ235" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AK235" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL235" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM235" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN235" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO235" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP235" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AQ235" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR235" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS235" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT235" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AU235" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AV235" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AW235" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AX235" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AY235" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ235" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BA235" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BB235" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BC235" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BD235" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BE235" t="n">
-        <v>4.3</v>
-      </c>
       <c r="BF235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH235" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ235" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BK235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
@@ -48261,7 +48261,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>2447786</v>
+        <v>2447785</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -48281,182 +48281,182 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>2</v>
       </c>
       <c r="M236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>['6', '78']</t>
+          <t>['58', '73']</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q236" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R236" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S236" t="n">
         <v>9</v>
       </c>
       <c r="T236" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="U236" t="n">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="V236" t="n">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="W236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV236" t="n">
         <v>1.22</v>
       </c>
-      <c r="X236" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Y236" t="n">
+      <c r="AW236" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ236" t="n">
         <v>2.05</v>
       </c>
-      <c r="Z236" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA236" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AB236" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC236" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD236" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE236" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF236" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG236" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH236" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AI236" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ236" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AK236" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AL236" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM236" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN236" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO236" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AP236" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ236" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AR236" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS236" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AT236" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AU236" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AV236" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW236" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AX236" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AY236" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ236" t="n">
-        <v>21</v>
-      </c>
       <c r="BA236" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="BB236" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="BC236" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="BD236" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="BE236" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="BF236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH236" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ236" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BK236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
